--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\Chess-Challange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58680729-F401-4901-87DE-96E4B6B47CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D5983-C5B6-4B2E-927D-B731040CC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
   <si>
     <t>Random</t>
   </si>
@@ -411,9 +411,6 @@
     <t>1P Draw 2</t>
   </si>
   <si>
-    <t>Dynamic Depth</t>
-  </si>
-  <si>
     <t>r1bqkbnr/pp1ppppp/2n5/2p5/4P3/5N2/PPPP1PPP/RNBQKB1R w KQha - 0 1</t>
   </si>
   <si>
@@ -430,10 +427,6 @@
   </si>
   <si>
     <t>rnbqkbnr/pp1p1ppp/8/2p1p3/2P1P3/8/PP1P1PPP/RNBQKBNR w KQha - 0 1</t>
-  </si>
-  <si>
-    <t>Reduced brain
-rounded params to 5</t>
   </si>
   <si>
     <t>=-</t>
@@ -576,22 +569,42 @@
     <t>1058-904</t>
   </si>
   <si>
-    <t>sinus1</t>
-  </si>
-  <si>
-    <t>1055-1093</t>
-  </si>
-  <si>
-    <t>sinus1 v2</t>
-  </si>
-  <si>
-    <t>926-922</t>
-  </si>
-  <si>
-    <t>sinus1 v3</t>
-  </si>
-  <si>
-    <t>899-877</t>
+    <t>+- ?</t>
+  </si>
+  <si>
+    <t>for my own program - surrender button while testing -&gt; saves time</t>
+  </si>
+  <si>
+    <t>V5.5</t>
+  </si>
+  <si>
+    <t>1038-1060</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>math function for square array
+rescaled piece values</t>
+  </si>
+  <si>
+    <t>V6.0</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>move ordering
+depth 4-&gt;5</t>
+  </si>
+  <si>
+    <t>1246-1263</t>
   </si>
 </sst>
 </file>
@@ -640,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,9 +838,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,9 +866,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,6 +917,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1208,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,19 +1243,21 @@
     <col min="6" max="6" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="7" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" style="7" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.21875" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="7"/>
+    <col min="19" max="19" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.21875" style="7" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1244,39 +1265,39 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1284,93 +1305,88 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>136</v>
+      <c r="H2" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="18"/>
+      <c r="J2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="6"/>
       <c r="N2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="34">
+      <c r="L3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="32">
         <v>1054</v>
       </c>
-      <c r="O3" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="P3" s="35">
-        <v>659</v>
-      </c>
-      <c r="Q3" s="35">
-        <v>661</v>
-      </c>
-      <c r="R3" s="35">
-        <v>668</v>
-      </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="O3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+    </row>
+    <row r="4" spans="1:23" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1380,43 +1396,36 @@
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="36">
+        <v>138</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="35">
         <v>1</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="37">
-        <v>0</v>
-      </c>
-      <c r="R4" s="37">
-        <v>3</v>
-      </c>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1424,34 +1433,33 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>153</v>
+        <v>139</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1467,45 +1475,38 @@
       <c r="H6" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="35">
         <v>21</v>
       </c>
       <c r="J6" s="1">
         <v>20</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="35">
+        <v>15</v>
+      </c>
+      <c r="L6" s="35">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1">
         <v>16</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="35">
         <v>20</v>
       </c>
-      <c r="M6" s="1">
-        <v>10</v>
-      </c>
-      <c r="N6" s="37">
-        <v>20</v>
-      </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P6" s="37">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="37">
-        <v>16</v>
-      </c>
-      <c r="R6" s="37">
-        <v>13</v>
-      </c>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+        <v>166</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1521,45 +1522,38 @@
       <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="35">
         <v>3</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="35">
+        <v>9</v>
+      </c>
+      <c r="L7" s="35">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="L7" s="1">
-        <v>7</v>
-      </c>
-      <c r="M7" s="1">
-        <v>7</v>
-      </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>1</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="37">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="37">
-        <v>9</v>
-      </c>
-      <c r="R7" s="37">
-        <v>7</v>
-      </c>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1577,197 +1571,181 @@
       <c r="H8" s="1">
         <v>13</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <v>14</v>
       </c>
       <c r="J8" s="1">
         <v>14</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="35">
+        <v>14</v>
+      </c>
+      <c r="L8" s="35">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
         <v>16</v>
       </c>
-      <c r="L8" s="1">
-        <v>11</v>
-      </c>
-      <c r="M8" s="1">
-        <v>21</v>
-      </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <v>17</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P8" s="37">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="37">
-        <v>13</v>
-      </c>
-      <c r="R8" s="37">
-        <v>18</v>
-      </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="24">
-        <f t="shared" ref="E9:R9" si="0">SUM(E6:E8)</f>
+      <c r="E9" s="23">
+        <f t="shared" ref="E9:M9" si="0">SUM(E6:E8)</f>
         <v>38</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <f>SUM(H6:H8)</f>
         <v>38</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="36">
         <f>SUM(I6:I8)</f>
         <v>38</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f t="shared" ref="J9" si="1">SUM(J6:J8)</f>
         <v>38</v>
       </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
+      <c r="K9" s="36">
+        <f t="shared" ref="K9:L9" si="2">SUM(K6:K8)</f>
         <v>38</v>
       </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
+      <c r="L9" s="36">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="M9" s="24">
-        <f>SUM(M6:M8)</f>
+      <c r="M9" s="23">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="23">
         <f>SUM(N6:N8)</f>
         <v>38</v>
       </c>
-      <c r="P9" s="38">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="Q9" s="38">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="R9" s="38">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-    </row>
-    <row r="10" spans="1:24" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+    </row>
+    <row r="10" spans="1:23" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="42">
-        <f t="shared" ref="E10:R10" si="2">(E6+E7/2)/E9</f>
+      <c r="E10" s="40">
+        <f t="shared" ref="E10:M10" si="3">(E6+E7/2)/E9</f>
         <v>1</v>
       </c>
-      <c r="F10" s="42">
-        <f t="shared" si="2"/>
+      <c r="F10" s="40">
+        <f t="shared" si="3"/>
         <v>0.86842105263157898</v>
       </c>
-      <c r="G10" s="42">
-        <f t="shared" si="2"/>
+      <c r="G10" s="40">
+        <f t="shared" si="3"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="40">
         <f>(H6+H7/2)/H9</f>
         <v>0.56578947368421051</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="40">
         <f>(I6+I7/2)/I9</f>
         <v>0.59210526315789469</v>
       </c>
-      <c r="J10" s="42">
-        <f t="shared" ref="J10" si="3">(J6+J7/2)/J9</f>
+      <c r="J10" s="40">
+        <f t="shared" ref="J10" si="4">(J6+J7/2)/J9</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="K10" s="42">
-        <f t="shared" si="2"/>
+      <c r="K10" s="40">
+        <f t="shared" ref="K10:L10" si="5">(K6+K7/2)/K9</f>
+        <v>0.51315789473684215</v>
+      </c>
+      <c r="L10" s="40">
+        <f t="shared" si="5"/>
+        <v>0.80263157894736847</v>
+      </c>
+      <c r="M10" s="40">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L10" s="42">
-        <f t="shared" si="2"/>
-        <v>0.61842105263157898</v>
-      </c>
-      <c r="M10" s="42">
-        <f t="shared" si="2"/>
-        <v>0.35526315789473684</v>
-      </c>
-      <c r="N10" s="42">
-        <f t="shared" ref="N10" si="4">(N6+N7/2)/N9</f>
+      <c r="N10" s="40">
+        <f t="shared" ref="N10" si="6">(N6+N7/2)/N9</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="P10" s="42">
-        <f t="shared" si="2"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="Q10" s="42">
-        <f t="shared" si="2"/>
-        <v>0.53947368421052633</v>
-      </c>
-      <c r="R10" s="42">
-        <f t="shared" si="2"/>
-        <v>0.43421052631578949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="N11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1794,12 +1772,15 @@
       <c r="K12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="M12" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="N12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1826,12 +1807,15 @@
       <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="M13" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="N13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1860,12 +1844,15 @@
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="N14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1892,12 +1879,15 @@
       <c r="K15" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="M15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="N15" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1915,21 +1905,24 @@
         <v>16</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="M16" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="N16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1956,9 +1949,12 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="M17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
@@ -1983,11 +1979,14 @@
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>113</v>
       </c>
@@ -2003,12 +2002,12 @@
       <c r="J19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="K19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
       <c r="B20" s="6" t="s">
         <v>114</v>
       </c>
@@ -2019,61 +2018,61 @@
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
       <c r="B21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>125</v>
+      <c r="H21" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="J21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
       <c r="B22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>112</v>
       </c>
@@ -2094,10 +2093,17 @@
       <c r="H26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="6">
         <v>2</v>
@@ -2111,7 +2117,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
         <v>22</v>
@@ -2127,7 +2133,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A11:XFD20">
+  <conditionalFormatting sqref="A11:S19 T11:XFD20 K11:L22 A20:R20 S20:S22">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>LEFT(A11,1)="-"</formula>
     </cfRule>
@@ -2148,7 +2154,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,7 +2253,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2287,7 +2293,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -2307,7 +2313,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -2321,7 +2327,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -2460,7 +2466,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,7 +2492,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2494,7 +2500,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
@@ -2510,50 +2516,53 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>145</v>
+      <c r="A7" s="42" t="s">
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3566,53 +3575,53 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>4</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="44">
         <v>3</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="44">
         <v>2</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="45">
         <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="41">
         <f>2*($F2)*(G$1)+ABS(G$7-$F8)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="41">
         <f t="shared" ref="H2:J2" si="0">2*($F2)*(H$1)+ABS(H$7-$F8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="41">
         <f>ABS(B2-G2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <f t="shared" ref="M2:O2" si="1">ABS(C2-H2)</f>
         <v>2</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3621,7 +3630,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="46">
         <v>3</v>
       </c>
       <c r="C3">
@@ -3630,48 +3639,48 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="41">
         <f t="shared" ref="G3:J3" si="2">2*($F3)*(G$1)+ABS(G$7-$F9)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="41">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="41">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="41">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="41">
         <f t="shared" ref="L3:L5" si="3">ABS(B3-G3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <f t="shared" ref="M3:M5" si="4">ABS(C3-H3)</f>
         <v>5</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="41">
         <f t="shared" ref="N3:N5" si="5">ABS(D3-I3)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="41">
         <f t="shared" ref="O3:O5" si="6">ABS(E3-J3)</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="41">
         <f>SUM(L2:O5)</f>
         <v>44</v>
       </c>
@@ -3680,7 +3689,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="46">
         <v>2</v>
       </c>
       <c r="C4">
@@ -3689,44 +3698,44 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <v>8</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="41">
         <f t="shared" ref="G4:J4" si="7">2*($F4)*(G$1)+ABS(G$7-$F10)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="41">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="41">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="41">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="41">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="41">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3735,53 +3744,53 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="48">
         <v>1</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>5</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>8</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="50">
         <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="41">
         <f t="shared" ref="G5:J5" si="8">2*($F5)*(G$1)+ABS(G$7-$F11)</f>
         <v>3</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="41">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="41">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="41">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="41">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="41">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="41">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -3828,53 +3837,53 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>4</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="44">
         <v>3</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="44">
         <v>2</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="45">
         <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="41">
         <f>4-ABS(G$7-$F8)+G$7*$F8</f>
         <v>4</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="41">
         <f t="shared" ref="H8:J11" si="9">4-ABS(H$7-$F8)+H$7*$F8</f>
         <v>3</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="41">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="41">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="41">
         <f>ABS(B8-G8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <f t="shared" ref="M8:M11" si="10">ABS(C8-H8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="41">
         <f t="shared" ref="N8:N11" si="11">ABS(D8-I8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="41">
         <f t="shared" ref="O8:O11" si="12">ABS(E8-J8)</f>
         <v>0</v>
       </c>
@@ -3883,7 +3892,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="46">
         <v>3</v>
       </c>
       <c r="C9">
@@ -3892,48 +3901,48 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="41">
         <f t="shared" ref="G9:G11" si="13">4-ABS(G$7-$F9)+G$7*$F9</f>
         <v>3</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="41">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="41">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="41">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="41">
         <f t="shared" ref="L9:L11" si="14">ABS(B9-G9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="41">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="41">
         <f>SUM(L8:O11)</f>
         <v>10</v>
       </c>
@@ -3942,7 +3951,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <v>2</v>
       </c>
       <c r="C10">
@@ -3951,44 +3960,44 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>8</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="41">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="41">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="41">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="41">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="41">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="41">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -3997,53 +4006,53 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="48">
         <v>1</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="49">
         <v>5</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>8</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="50">
         <v>10</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="41">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="41">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="41">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="41">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="41">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="41">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
@@ -4076,56 +4085,56 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
         <v>158</v>
-      </c>
-      <c r="I15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" t="s">
-        <v>160</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="43">
         <v>1</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="44">
         <v>2</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="44">
         <v>3</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="45">
         <v>5</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="43">
         <v>5</v>
       </c>
-      <c r="S15" s="46">
+      <c r="S15" s="44">
         <v>3</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="44">
         <v>2</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>2</v>
       </c>
       <c r="O16">
@@ -4134,10 +4143,10 @@
       <c r="P16">
         <v>6</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="47">
         <v>7</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="46">
         <v>7</v>
       </c>
       <c r="S16">
@@ -4146,18 +4155,18 @@
       <c r="T16">
         <v>4</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>3</v>
       </c>
       <c r="O17">
@@ -4166,10 +4175,10 @@
       <c r="P17">
         <v>8</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="47">
         <v>9</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="46">
         <v>9</v>
       </c>
       <c r="S17">
@@ -4178,71 +4187,71 @@
       <c r="T17">
         <v>6</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="48">
         <v>5</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="49">
         <v>7</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="49">
         <v>9</v>
       </c>
-      <c r="Q18" s="52">
+      <c r="Q18" s="50">
         <v>10</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="48">
         <v>10</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="49">
         <v>9</v>
       </c>
-      <c r="T18" s="51">
+      <c r="T18" s="49">
         <v>7</v>
       </c>
-      <c r="U18" s="52">
+      <c r="U18" s="50">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="43">
         <v>5</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="44">
         <v>7</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="44">
         <v>9</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="45">
         <v>10</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="43">
         <v>10</v>
       </c>
-      <c r="S19" s="46">
+      <c r="S19" s="44">
         <v>9</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19" s="44">
         <v>7</v>
       </c>
-      <c r="U19" s="47">
+      <c r="U19" s="45">
         <v>5</v>
       </c>
     </row>
@@ -4250,7 +4259,7 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="46">
         <v>3</v>
       </c>
       <c r="O20">
@@ -4259,10 +4268,10 @@
       <c r="P20">
         <v>8</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="47">
         <v>9</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="46">
         <v>9</v>
       </c>
       <c r="S20">
@@ -4271,7 +4280,7 @@
       <c r="T20">
         <v>6</v>
       </c>
-      <c r="U20" s="49">
+      <c r="U20" s="47">
         <v>3</v>
       </c>
     </row>
@@ -4279,7 +4288,7 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="46">
         <v>2</v>
       </c>
       <c r="O21">
@@ -4288,10 +4297,10 @@
       <c r="P21">
         <v>6</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="47">
         <v>7</v>
       </c>
-      <c r="R21" s="48">
+      <c r="R21" s="46">
         <v>7</v>
       </c>
       <c r="S21">
@@ -4300,7 +4309,7 @@
       <c r="T21">
         <v>4</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="47">
         <v>2</v>
       </c>
     </row>
@@ -4308,28 +4317,28 @@
       <c r="M22">
         <v>7</v>
       </c>
-      <c r="N22" s="50">
+      <c r="N22" s="48">
         <v>1</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="49">
         <v>2</v>
       </c>
-      <c r="P22" s="51">
+      <c r="P22" s="49">
         <v>3</v>
       </c>
-      <c r="Q22" s="52">
+      <c r="Q22" s="50">
         <v>5</v>
       </c>
-      <c r="R22" s="50">
+      <c r="R22" s="48">
         <v>5</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="49">
         <v>3</v>
       </c>
-      <c r="T22" s="51">
+      <c r="T22" s="49">
         <v>2</v>
       </c>
-      <c r="U22" s="52">
+      <c r="U22" s="50">
         <v>1</v>
       </c>
     </row>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\Chess-Challange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D5983-C5B6-4B2E-927D-B731040CC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911FD6B0-62A5-4B90-A52F-33F5A9BC3DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparation" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
   <si>
     <t>Random</t>
   </si>
@@ -560,12 +560,6 @@
     <t>1014</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>1058-904</t>
   </si>
   <si>
@@ -605,6 +599,72 @@
   </si>
   <si>
     <t>1246-1263</t>
+  </si>
+  <si>
+    <t>advanced pawn</t>
+  </si>
+  <si>
+    <t>255-249</t>
+  </si>
+  <si>
+    <t>no backwards</t>
+  </si>
+  <si>
+    <t>263-240</t>
+  </si>
+  <si>
+    <t>no isolated</t>
+  </si>
+  <si>
+    <t>no passed</t>
+  </si>
+  <si>
+    <t>no double</t>
+  </si>
+  <si>
+    <t>239-242</t>
+  </si>
+  <si>
+    <t>212-226</t>
+  </si>
+  <si>
+    <t>219-222</t>
+  </si>
+  <si>
+    <t>only backwards</t>
+  </si>
+  <si>
+    <t>only isolated</t>
+  </si>
+  <si>
+    <t>only passed</t>
+  </si>
+  <si>
+    <t>only double</t>
+  </si>
+  <si>
+    <t>239-227</t>
+  </si>
+  <si>
+    <t>220-255</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>243-265</t>
+  </si>
+  <si>
+    <t>213-222</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>224-214</t>
   </si>
 </sst>
 </file>
@@ -791,7 +851,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,7 +980,22 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,26 +1313,34 @@
     <col min="1" max="1" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="27.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.21875" style="7" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="7" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" style="7" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.21875" style="7" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="7"/>
+    <col min="16" max="16" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="14.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.88671875" style="7"/>
+    <col min="27" max="27" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1283,10 +1366,10 @@
         <v>136</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>65</v>
@@ -1295,7 +1378,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>132</v>
       </c>
@@ -1318,23 +1401,55 @@
         <v>140</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L2" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>3</v>
@@ -1362,10 +1477,10 @@
         <v>137</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="32">
@@ -1374,16 +1489,38 @@
       <c r="O3" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-    </row>
-    <row r="4" spans="1:23" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="33">
+        <v>1097</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>1088</v>
+      </c>
+      <c r="R3" s="33">
+        <v>1088</v>
+      </c>
+      <c r="S3" s="32">
+        <v>995</v>
+      </c>
+      <c r="T3" s="32">
+        <v>1088</v>
+      </c>
+      <c r="U3" s="32">
+        <v>977</v>
+      </c>
+      <c r="V3" s="32">
+        <v>977</v>
+      </c>
+      <c r="W3" s="32">
+        <v>1070</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
         <v>125</v>
@@ -1401,10 +1538,10 @@
         <v>138</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="35">
@@ -1413,16 +1550,38 @@
       <c r="O4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
         <v>126</v>
@@ -1438,170 +1597,258 @@
         <v>139</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="52">
         <v>38</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="52">
         <v>30</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="52">
         <v>17</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="52">
         <v>18</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="52">
         <v>21</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="52">
         <v>20</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="52">
         <v>15</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="52">
         <v>28</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="52">
         <v>16</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="52">
         <v>20</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
+      <c r="O6" s="52">
+        <v>16</v>
+      </c>
+      <c r="P6" s="52">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>18</v>
+      </c>
+      <c r="R6" s="52">
+        <v>15</v>
+      </c>
+      <c r="S6" s="52">
+        <v>16</v>
+      </c>
+      <c r="T6" s="52">
+        <v>14</v>
+      </c>
+      <c r="U6" s="52">
+        <v>13</v>
+      </c>
+      <c r="V6" s="52">
+        <v>19</v>
+      </c>
+      <c r="W6" s="52">
+        <v>21</v>
+      </c>
+      <c r="X6" s="52">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="52">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="52">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="52">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="52">
         <v>7</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="52">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="52">
         <v>4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="52">
         <v>9</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="52">
         <v>5</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="52">
         <v>6</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="52">
         <v>1</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="O7" s="52">
+        <v>3</v>
+      </c>
+      <c r="P7" s="52">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="52">
+        <v>5</v>
+      </c>
+      <c r="R7" s="52">
+        <v>5</v>
+      </c>
+      <c r="S7" s="52">
+        <v>5</v>
+      </c>
+      <c r="T7" s="52">
+        <v>5</v>
+      </c>
+      <c r="U7" s="52">
+        <v>6</v>
+      </c>
+      <c r="V7" s="52">
+        <v>3</v>
+      </c>
+      <c r="W7" s="52">
+        <v>3</v>
+      </c>
+      <c r="X7" s="52">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="52">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="52">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="52">
         <v>11</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="52">
         <v>13</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="52">
         <v>14</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="52">
         <v>14</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="52">
         <v>14</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="52">
         <v>5</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="52">
         <v>16</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="52">
         <v>17</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O8" s="52">
+        <v>19</v>
+      </c>
+      <c r="P8" s="52">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>15</v>
+      </c>
+      <c r="R8" s="52">
+        <v>18</v>
+      </c>
+      <c r="S8" s="52">
+        <v>17</v>
+      </c>
+      <c r="T8" s="52">
+        <v>19</v>
+      </c>
+      <c r="U8" s="52">
+        <v>19</v>
+      </c>
+      <c r="V8" s="52">
+        <v>16</v>
+      </c>
+      <c r="W8" s="52">
+        <v>14</v>
+      </c>
+      <c r="X8" s="52">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -1646,30 +1893,74 @@
         <f>SUM(N6:N8)</f>
         <v>38</v>
       </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-    </row>
-    <row r="10" spans="1:23" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="23">
+        <f t="shared" ref="O9:P9" si="3">SUM(O6:O8)</f>
+        <v>38</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="Q9" s="23">
+        <f t="shared" ref="Q9" si="4">SUM(Q6:Q8)</f>
+        <v>38</v>
+      </c>
+      <c r="R9" s="23">
+        <f t="shared" ref="R9" si="5">SUM(R6:R8)</f>
+        <v>38</v>
+      </c>
+      <c r="S9" s="23">
+        <f t="shared" ref="S9" si="6">SUM(S6:S8)</f>
+        <v>38</v>
+      </c>
+      <c r="T9" s="23">
+        <f t="shared" ref="T9" si="7">SUM(T6:T8)</f>
+        <v>38</v>
+      </c>
+      <c r="U9" s="23">
+        <f t="shared" ref="U9" si="8">SUM(U6:U8)</f>
+        <v>38</v>
+      </c>
+      <c r="V9" s="23">
+        <f t="shared" ref="V9" si="9">SUM(V6:V8)</f>
+        <v>38</v>
+      </c>
+      <c r="W9" s="23">
+        <f t="shared" ref="W9" si="10">SUM(W6:W8)</f>
+        <v>38</v>
+      </c>
+      <c r="X9" s="23">
+        <f t="shared" ref="X9:Z9" si="11">SUM(X6:X8)</f>
+        <v>38</v>
+      </c>
+      <c r="Z9" s="23">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="AA9" s="23">
+        <f t="shared" ref="AA9" si="12">SUM(AA6:AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="23">
+        <f t="shared" ref="AB9" si="13">SUM(AB6:AB8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="40">
-        <f t="shared" ref="E10:M10" si="3">(E6+E7/2)/E9</f>
+        <f t="shared" ref="E10:M10" si="14">(E6+E7/2)/E9</f>
         <v>1</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.86842105263157898</v>
       </c>
       <c r="G10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.57894736842105265</v>
       </c>
       <c r="H10" s="40">
@@ -1681,31 +1972,79 @@
         <v>0.59210526315789469</v>
       </c>
       <c r="J10" s="40">
-        <f t="shared" ref="J10" si="4">(J6+J7/2)/J9</f>
+        <f t="shared" ref="J10" si="15">(J6+J7/2)/J9</f>
         <v>0.57894736842105265</v>
       </c>
       <c r="K10" s="40">
-        <f t="shared" ref="K10:L10" si="5">(K6+K7/2)/K9</f>
+        <f t="shared" ref="K10:L10" si="16">(K6+K7/2)/K9</f>
         <v>0.51315789473684215</v>
       </c>
       <c r="L10" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.80263157894736847</v>
       </c>
       <c r="M10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="N10" s="40">
-        <f t="shared" ref="N10" si="6">(N6+N7/2)/N9</f>
+        <f t="shared" ref="N10:P10" si="17">(N6+N7/2)/N9</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="40">
+        <f t="shared" si="17"/>
+        <v>0.46052631578947367</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="40">
+        <f t="shared" ref="Q10:T10" si="18">(Q6+Q7/2)/Q9</f>
+        <v>0.53947368421052633</v>
+      </c>
+      <c r="R10" s="40">
+        <f t="shared" si="18"/>
+        <v>0.46052631578947367</v>
+      </c>
+      <c r="S10" s="40">
+        <f t="shared" si="18"/>
+        <v>0.48684210526315791</v>
+      </c>
+      <c r="T10" s="40">
+        <f t="shared" si="18"/>
+        <v>0.43421052631578949</v>
+      </c>
+      <c r="U10" s="40">
+        <f t="shared" ref="U10:X10" si="19">(U6+U7/2)/U9</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="V10" s="40">
+        <f t="shared" si="19"/>
+        <v>0.53947368421052633</v>
+      </c>
+      <c r="W10" s="40">
+        <f t="shared" ref="W10:X10" si="20">(W6+W7/2)/W9</f>
+        <v>0.59210526315789469</v>
+      </c>
+      <c r="X10" s="40">
+        <f t="shared" si="20"/>
+        <v>0.43421052631578949</v>
+      </c>
+      <c r="Z10" s="40">
+        <f t="shared" ref="Z10:AB10" si="21">(Z6+Z7/2)/Z9</f>
+        <v>0.46052631578947367</v>
+      </c>
+      <c r="AA10" s="40" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="40" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>11</v>
@@ -1740,11 +2079,14 @@
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q11" s="53"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -1778,8 +2120,12 @@
       <c r="N12" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U12" s="27"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="27"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -1814,7 +2160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>111</v>
       </c>
@@ -1851,7 +2197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -1886,7 +2232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
@@ -1979,7 +2325,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>18</v>
@@ -2035,7 +2381,7 @@
         <v>123</v>
       </c>
       <c r="K21" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2051,7 +2397,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2547,7 +2893,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\Chess-Challange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911FD6B0-62A5-4B90-A52F-33F5A9BC3DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB427E6-4062-4483-99AB-B571935F38FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="202">
   <si>
     <t>Random</t>
   </si>
@@ -665,6 +665,10 @@
   </si>
   <si>
     <t>224-214</t>
+  </si>
+  <si>
+    <t>passed
+isolated</t>
   </si>
 </sst>
 </file>
@@ -713,7 +717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +757,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +867,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,6 +1013,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1304,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,9 +1402,16 @@
       <c r="M1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
     </row>
     <row r="2" spans="1:28" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
@@ -1438,6 +1473,9 @@
       </c>
       <c r="X2" s="6" t="s">
         <v>192</v>
+      </c>
+      <c r="Y2" s="61" t="s">
+        <v>201</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>198</v>
@@ -1704,8 +1742,17 @@
       <c r="X6" s="52">
         <v>15</v>
       </c>
+      <c r="Y6" s="52">
+        <v>16</v>
+      </c>
       <c r="Z6" s="52">
         <v>16</v>
+      </c>
+      <c r="AA6" s="52">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="52">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -1773,8 +1820,17 @@
       <c r="X7" s="52">
         <v>3</v>
       </c>
+      <c r="Y7" s="52">
+        <v>6</v>
+      </c>
       <c r="Z7" s="52">
         <v>3</v>
+      </c>
+      <c r="AA7" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="52">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
@@ -1844,8 +1900,17 @@
       <c r="X8" s="52">
         <v>20</v>
       </c>
+      <c r="Y8" s="52">
+        <v>16</v>
+      </c>
       <c r="Z8" s="52">
         <v>19</v>
+      </c>
+      <c r="AA8" s="52">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="52">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -1933,17 +1998,21 @@
         <f t="shared" ref="X9:Z9" si="11">SUM(X6:X8)</f>
         <v>38</v>
       </c>
+      <c r="Y9" s="23">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
       <c r="Z9" s="23">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="AA9" s="23">
         <f t="shared" ref="AA9" si="12">SUM(AA6:AA8)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB9" s="23">
         <f t="shared" ref="AB9" si="13">SUM(AB6:AB8)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2031,17 +2100,21 @@
         <f t="shared" si="20"/>
         <v>0.43421052631578949</v>
       </c>
+      <c r="Y10" s="40">
+        <f t="shared" ref="Y10" si="21">(Y6+Y7/2)/Y9</f>
+        <v>0.5</v>
+      </c>
       <c r="Z10" s="40">
-        <f t="shared" ref="Z10:AB10" si="21">(Z6+Z7/2)/Z9</f>
+        <f t="shared" ref="Z10:AB10" si="22">(Z6+Z7/2)/Z9</f>
         <v>0.46052631578947367</v>
       </c>
-      <c r="AA10" s="40" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB10" s="40" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="AA10" s="40">
+        <f t="shared" si="22"/>
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="AB10" s="40">
+        <f t="shared" si="22"/>
+        <v>0.60526315789473684</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2124,6 +2197,7 @@
       <c r="V12" s="53"/>
       <c r="W12" s="53"/>
       <c r="X12" s="27"/>
+      <c r="Y12" s="60"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\Chess-Challange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB427E6-4062-4483-99AB-B571935F38FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956F27B-A5D6-427A-A376-E63268252190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="457" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparation" sheetId="1" r:id="rId1"/>
     <sheet name="Testing" sheetId="2" r:id="rId2"/>
     <sheet name="Ideas" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Depth vs Breadth" sheetId="4" r:id="rId4"/>
+    <sheet name="Position array" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Sheet2!$D$12:$D$13</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Position array'!$D$12:$D$13</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
@@ -34,7 +34,7 @@
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Sheet2!$O$15</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Position array'!$O$15</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
   <si>
     <t>Random</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>use time</t>
-  </si>
-  <si>
-    <t>pawn structure</t>
   </si>
   <si>
     <t>850/1024</t>
@@ -485,9 +482,6 @@
 results vs V4</t>
   </si>
   <si>
-    <t>transposition table - not recognize shortet mate</t>
-  </si>
-  <si>
     <t>castle points ?</t>
   </si>
   <si>
@@ -497,16 +491,10 @@
     <t>vary piece and positional value depending on endgame closeness</t>
   </si>
   <si>
-    <t>transposition check before or after mate ckeck?</t>
-  </si>
-  <si>
     <t>function intead of pos table ?</t>
   </si>
   <si>
     <t>king lee - maybe not needed</t>
-  </si>
-  <si>
-    <t>tuple instead of 3 arrays moves, value, depth</t>
   </si>
   <si>
     <t>TT</t>
@@ -658,9 +646,6 @@
     <t>213-222</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>1097</t>
   </si>
   <si>
@@ -669,6 +654,18 @@
   <si>
     <t>passed
 isolated</t>
+  </si>
+  <si>
+    <t>backward pawn evaluation</t>
+  </si>
+  <si>
+    <t>transposition table dictionary or array</t>
+  </si>
+  <si>
+    <t>all v2</t>
+  </si>
+  <si>
+    <t>V7.0</t>
   </si>
 </sst>
 </file>
@@ -867,7 +864,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,22 +929,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -996,28 +981,13 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1025,6 +995,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1330,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE22:AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,25 +1329,26 @@
     <col min="10" max="10" width="13.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="27.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.21875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="7" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.88671875" style="7"/>
-    <col min="27" max="27" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" style="7" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="7" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" style="7" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="10.44140625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1376,46 +1356,49 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="Y1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-    </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1423,68 +1406,68 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>134</v>
+      <c r="H2" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="O2" s="6" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>181</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y2" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -1505,63 +1488,63 @@
         <v>32</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="33"/>
+        <v>126</v>
+      </c>
+      <c r="I3" s="29"/>
       <c r="J3" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="32">
+      <c r="M3" s="29">
+        <v>1097</v>
+      </c>
+      <c r="N3" s="29">
+        <v>1088</v>
+      </c>
+      <c r="O3" s="29">
+        <v>1088</v>
+      </c>
+      <c r="P3" s="28">
+        <v>995</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>1088</v>
+      </c>
+      <c r="R3" s="28">
+        <v>977</v>
+      </c>
+      <c r="S3" s="28">
+        <v>977</v>
+      </c>
+      <c r="T3" s="28">
+        <v>1070</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="28">
         <v>1054</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="P3" s="33">
-        <v>1097</v>
-      </c>
-      <c r="Q3" s="33">
-        <v>1088</v>
-      </c>
-      <c r="R3" s="33">
-        <v>1088</v>
-      </c>
-      <c r="S3" s="32">
-        <v>995</v>
-      </c>
-      <c r="T3" s="32">
-        <v>1088</v>
-      </c>
-      <c r="U3" s="32">
-        <v>977</v>
-      </c>
-      <c r="V3" s="32">
-        <v>977</v>
-      </c>
-      <c r="W3" s="32">
-        <v>1070</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>199</v>
+      <c r="AB3" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1571,58 +1554,58 @@
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="35">
+      <c r="M4" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="31">
         <v>1</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="V4" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="W4" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1630,287 +1613,287 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="35"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="N5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="35" t="s">
+      <c r="O5" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="R5" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="V5" s="35" t="s">
+      <c r="R5" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="T5" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="W5" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56" t="s">
+      <c r="U5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="1">
         <v>38</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="1">
         <v>17</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="1">
         <v>21</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="1">
         <v>20</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="1">
         <v>15</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="1">
         <v>28</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="1">
         <v>16</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="1">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1">
+        <v>15</v>
+      </c>
+      <c r="P6" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1">
+        <v>13</v>
+      </c>
+      <c r="S6" s="1">
+        <v>19</v>
+      </c>
+      <c r="T6" s="1">
+        <v>21</v>
+      </c>
+      <c r="U6" s="1">
+        <v>15</v>
+      </c>
+      <c r="V6" s="1">
+        <v>16</v>
+      </c>
+      <c r="W6" s="1">
+        <v>16</v>
+      </c>
+      <c r="X6" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="1">
         <v>20</v>
       </c>
-      <c r="O6" s="52">
+      <c r="Z6" s="1">
         <v>16</v>
       </c>
-      <c r="P6" s="52">
+      <c r="AA6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="1">
         <v>16</v>
       </c>
-      <c r="Q6" s="52">
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>6</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1">
         <v>18</v>
       </c>
-      <c r="R6" s="52">
-        <v>15</v>
-      </c>
-      <c r="S6" s="52">
+      <c r="P8" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>19</v>
+      </c>
+      <c r="R8" s="1">
+        <v>19</v>
+      </c>
+      <c r="S8" s="1">
         <v>16</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T8" s="1">
         <v>14</v>
       </c>
-      <c r="U6" s="52">
-        <v>13</v>
-      </c>
-      <c r="V6" s="52">
+      <c r="U8" s="1">
+        <v>20</v>
+      </c>
+      <c r="V8" s="1">
+        <v>16</v>
+      </c>
+      <c r="W8" s="1">
         <v>19</v>
       </c>
-      <c r="W6" s="52">
-        <v>21</v>
-      </c>
-      <c r="X6" s="52">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="52">
+      <c r="X8" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="1">
         <v>16</v>
       </c>
-      <c r="Z6" s="52">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="52">
-        <v>11</v>
-      </c>
-      <c r="AB6" s="52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="52">
-        <v>0</v>
-      </c>
-      <c r="F7" s="52">
-        <v>6</v>
-      </c>
-      <c r="G7" s="52">
-        <v>10</v>
-      </c>
-      <c r="H7" s="52">
-        <v>7</v>
-      </c>
-      <c r="I7" s="52">
-        <v>3</v>
-      </c>
-      <c r="J7" s="52">
-        <v>4</v>
-      </c>
-      <c r="K7" s="52">
-        <v>9</v>
-      </c>
-      <c r="L7" s="52">
-        <v>5</v>
-      </c>
-      <c r="M7" s="52">
-        <v>6</v>
-      </c>
-      <c r="N7" s="52">
-        <v>1</v>
-      </c>
-      <c r="O7" s="52">
-        <v>3</v>
-      </c>
-      <c r="P7" s="52">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="52">
-        <v>5</v>
-      </c>
-      <c r="R7" s="52">
-        <v>5</v>
-      </c>
-      <c r="S7" s="52">
-        <v>5</v>
-      </c>
-      <c r="T7" s="52">
-        <v>5</v>
-      </c>
-      <c r="U7" s="52">
-        <v>6</v>
-      </c>
-      <c r="V7" s="52">
-        <v>3</v>
-      </c>
-      <c r="W7" s="52">
-        <v>3</v>
-      </c>
-      <c r="X7" s="52">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="52">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="52">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="52">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="52">
-        <v>0</v>
-      </c>
-      <c r="F8" s="52">
-        <v>2</v>
-      </c>
-      <c r="G8" s="52">
-        <v>11</v>
-      </c>
-      <c r="H8" s="52">
-        <v>13</v>
-      </c>
-      <c r="I8" s="52">
-        <v>14</v>
-      </c>
-      <c r="J8" s="52">
-        <v>14</v>
-      </c>
-      <c r="K8" s="52">
-        <v>14</v>
-      </c>
-      <c r="L8" s="52">
-        <v>5</v>
-      </c>
-      <c r="M8" s="52">
-        <v>16</v>
-      </c>
-      <c r="N8" s="52">
+      <c r="AA8" s="1">
         <v>17</v>
       </c>
-      <c r="O8" s="52">
+      <c r="AB8" s="1">
         <v>19</v>
-      </c>
-      <c r="P8" s="52">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="52">
-        <v>15</v>
-      </c>
-      <c r="R8" s="52">
-        <v>18</v>
-      </c>
-      <c r="S8" s="52">
-        <v>17</v>
-      </c>
-      <c r="T8" s="52">
-        <v>19</v>
-      </c>
-      <c r="U8" s="52">
-        <v>19</v>
-      </c>
-      <c r="V8" s="52">
-        <v>16</v>
-      </c>
-      <c r="W8" s="52">
-        <v>14</v>
-      </c>
-      <c r="X8" s="52">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="52">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="52">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="52">
-        <v>24</v>
-      </c>
-      <c r="AB8" s="52">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -1919,7 +1902,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="23">
-        <f t="shared" ref="E9:M9" si="0">SUM(E6:E8)</f>
+        <f t="shared" ref="E9:G9" si="0">SUM(E6:E8)</f>
         <v>38</v>
       </c>
       <c r="F9" s="23">
@@ -1934,7 +1917,7 @@
         <f>SUM(H6:H8)</f>
         <v>38</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="32">
         <f>SUM(I6:I8)</f>
         <v>38</v>
       </c>
@@ -1942,179 +1925,179 @@
         <f t="shared" ref="J9" si="1">SUM(J6:J8)</f>
         <v>38</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="32">
         <f t="shared" ref="K9:L9" si="2">SUM(K6:K8)</f>
         <v>38</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="32">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="M9" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M9" si="3">SUM(M6:M8)</f>
         <v>38</v>
       </c>
       <c r="N9" s="23">
-        <f>SUM(N6:N8)</f>
+        <f t="shared" ref="N9" si="4">SUM(N6:N8)</f>
         <v>38</v>
       </c>
       <c r="O9" s="23">
-        <f t="shared" ref="O9:P9" si="3">SUM(O6:O8)</f>
+        <f t="shared" ref="O9" si="5">SUM(O6:O8)</f>
         <v>38</v>
       </c>
       <c r="P9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P9" si="6">SUM(P6:P8)</f>
         <v>38</v>
       </c>
       <c r="Q9" s="23">
-        <f t="shared" ref="Q9" si="4">SUM(Q6:Q8)</f>
+        <f t="shared" ref="Q9" si="7">SUM(Q6:Q8)</f>
         <v>38</v>
       </c>
       <c r="R9" s="23">
-        <f t="shared" ref="R9" si="5">SUM(R6:R8)</f>
+        <f t="shared" ref="R9" si="8">SUM(R6:R8)</f>
         <v>38</v>
       </c>
       <c r="S9" s="23">
-        <f t="shared" ref="S9" si="6">SUM(S6:S8)</f>
+        <f t="shared" ref="S9" si="9">SUM(S6:S8)</f>
         <v>38</v>
       </c>
       <c r="T9" s="23">
-        <f t="shared" ref="T9" si="7">SUM(T6:T8)</f>
+        <f t="shared" ref="T9" si="10">SUM(T6:T8)</f>
         <v>38</v>
       </c>
       <c r="U9" s="23">
-        <f t="shared" ref="U9" si="8">SUM(U6:U8)</f>
+        <f t="shared" ref="U9:W9" si="11">SUM(U6:U8)</f>
         <v>38</v>
       </c>
       <c r="V9" s="23">
-        <f t="shared" ref="V9" si="9">SUM(V6:V8)</f>
-        <v>38</v>
-      </c>
-      <c r="W9" s="23">
-        <f t="shared" ref="W9" si="10">SUM(W6:W8)</f>
-        <v>38</v>
-      </c>
-      <c r="X9" s="23">
-        <f t="shared" ref="X9:Z9" si="11">SUM(X6:X8)</f>
-        <v>38</v>
-      </c>
-      <c r="Y9" s="23">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="W9" s="23">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
+      <c r="X9" s="23">
+        <f t="shared" ref="X9" si="12">SUM(X6:X8)</f>
+        <v>38</v>
+      </c>
+      <c r="Y9" s="23">
+        <f t="shared" ref="Y9" si="13">SUM(Y6:Y8)</f>
+        <v>38</v>
+      </c>
+      <c r="Z9" s="23">
+        <f t="shared" ref="Z9:AB9" si="14">SUM(Z6:Z8)</f>
+        <v>38</v>
+      </c>
       <c r="AA9" s="23">
-        <f t="shared" ref="AA9" si="12">SUM(AA6:AA8)</f>
+        <f>SUM(AA6:AA8)</f>
         <v>38</v>
       </c>
       <c r="AB9" s="23">
-        <f t="shared" ref="AB9" si="13">SUM(AB6:AB8)</f>
+        <f t="shared" ref="AB9" si="15">SUM(AB6:AB8)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:28" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="40">
-        <f t="shared" ref="E10:M10" si="14">(E6+E7/2)/E9</f>
+      <c r="E10" s="36">
+        <f t="shared" ref="E10:G10" si="16">(E6+E7/2)/E9</f>
         <v>1</v>
       </c>
-      <c r="F10" s="40">
-        <f t="shared" si="14"/>
+      <c r="F10" s="36">
+        <f t="shared" si="16"/>
         <v>0.86842105263157898</v>
       </c>
-      <c r="G10" s="40">
-        <f t="shared" si="14"/>
+      <c r="G10" s="36">
+        <f t="shared" si="16"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="36">
         <f>(H6+H7/2)/H9</f>
         <v>0.56578947368421051</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="36">
         <f>(I6+I7/2)/I9</f>
         <v>0.59210526315789469</v>
       </c>
-      <c r="J10" s="40">
-        <f t="shared" ref="J10" si="15">(J6+J7/2)/J9</f>
+      <c r="J10" s="36">
+        <f t="shared" ref="J10" si="17">(J6+J7/2)/J9</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="K10" s="40">
-        <f t="shared" ref="K10:L10" si="16">(K6+K7/2)/K9</f>
+      <c r="K10" s="36">
+        <f t="shared" ref="K10:L10" si="18">(K6+K7/2)/K9</f>
         <v>0.51315789473684215</v>
       </c>
-      <c r="L10" s="40">
-        <f t="shared" si="16"/>
+      <c r="L10" s="36">
+        <f t="shared" si="18"/>
         <v>0.80263157894736847</v>
       </c>
-      <c r="M10" s="40">
-        <f t="shared" si="14"/>
+      <c r="M10" s="36">
+        <f t="shared" ref="M10" si="19">(M6+M7/2)/M9</f>
         <v>0.5</v>
       </c>
-      <c r="N10" s="40">
-        <f t="shared" ref="N10:P10" si="17">(N6+N7/2)/N9</f>
+      <c r="N10" s="36">
+        <f t="shared" ref="N10:Q10" si="20">(N6+N7/2)/N9</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="O10" s="40">
-        <f t="shared" si="17"/>
+      <c r="O10" s="36">
+        <f t="shared" si="20"/>
         <v>0.46052631578947367</v>
       </c>
-      <c r="P10" s="40">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="40">
-        <f t="shared" ref="Q10:T10" si="18">(Q6+Q7/2)/Q9</f>
-        <v>0.53947368421052633</v>
-      </c>
-      <c r="R10" s="40">
-        <f t="shared" si="18"/>
-        <v>0.46052631578947367</v>
-      </c>
-      <c r="S10" s="40">
-        <f t="shared" si="18"/>
+      <c r="P10" s="36">
+        <f t="shared" si="20"/>
         <v>0.48684210526315791</v>
       </c>
-      <c r="T10" s="40">
-        <f t="shared" si="18"/>
-        <v>0.43421052631578949</v>
-      </c>
-      <c r="U10" s="40">
-        <f t="shared" ref="U10:X10" si="19">(U6+U7/2)/U9</f>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="V10" s="40">
-        <f t="shared" si="19"/>
-        <v>0.53947368421052633</v>
-      </c>
-      <c r="W10" s="40">
-        <f t="shared" ref="W10:X10" si="20">(W6+W7/2)/W9</f>
-        <v>0.59210526315789469</v>
-      </c>
-      <c r="X10" s="40">
+      <c r="Q10" s="36">
         <f t="shared" si="20"/>
         <v>0.43421052631578949</v>
       </c>
-      <c r="Y10" s="40">
-        <f t="shared" ref="Y10" si="21">(Y6+Y7/2)/Y9</f>
+      <c r="R10" s="36">
+        <f t="shared" ref="R10:S10" si="21">(R6+R7/2)/R9</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="S10" s="36">
+        <f t="shared" si="21"/>
+        <v>0.53947368421052633</v>
+      </c>
+      <c r="T10" s="36">
+        <f t="shared" ref="T10:U10" si="22">(T6+T7/2)/T9</f>
+        <v>0.59210526315789469</v>
+      </c>
+      <c r="U10" s="36">
+        <f t="shared" si="22"/>
+        <v>0.43421052631578949</v>
+      </c>
+      <c r="V10" s="36">
+        <f t="shared" ref="V10" si="23">(V6+V7/2)/V9</f>
         <v>0.5</v>
       </c>
-      <c r="Z10" s="40">
-        <f t="shared" ref="Z10:AB10" si="22">(Z6+Z7/2)/Z9</f>
+      <c r="W10" s="36">
+        <f t="shared" ref="W10:Y10" si="24">(W6+W7/2)/W9</f>
         <v>0.46052631578947367</v>
       </c>
-      <c r="AA10" s="40">
-        <f t="shared" si="22"/>
+      <c r="X10" s="36">
+        <f t="shared" si="24"/>
         <v>0.32894736842105265</v>
       </c>
-      <c r="AB10" s="40">
-        <f t="shared" si="22"/>
+      <c r="Y10" s="36">
+        <f t="shared" si="24"/>
         <v>0.60526315789473684</v>
+      </c>
+      <c r="Z10" s="36">
+        <f t="shared" ref="Z10:AB10" si="25">(Z6+Z7/2)/Z9</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA10" s="36">
+        <f t="shared" si="25"/>
+        <v>0.53947368421052633</v>
+      </c>
+      <c r="AB10" s="36">
+        <f t="shared" si="25"/>
+        <v>0.46052631578947367</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2144,20 +2127,18 @@
         <v>17</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="49"/>
+      <c r="Z11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="AA11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
@@ -2187,17 +2168,17 @@
       <c r="K12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="R12" s="25"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="54"/>
+      <c r="Z12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="AA12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="60"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
@@ -2227,16 +2208,20 @@
       <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="V13" s="51"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="AA13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
@@ -2264,10 +2249,10 @@
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="Z14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="AA14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2299,11 +2284,11 @@
       <c r="K15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="Z15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>150</v>
+      <c r="AA15" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -2325,23 +2310,23 @@
         <v>16</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="Z16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="AA16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
         <v>24</v>
@@ -2369,11 +2354,11 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="Z17" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>25</v>
@@ -2399,16 +2384,16 @@
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2426,10 +2411,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>17</v>
@@ -2442,118 +2427,100 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
       <c r="B21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="K22" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="6">
         <v>1</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6">
         <v>2</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A11:S19 T11:XFD20 K11:L22 A20:R20 S20:S22">
+  <conditionalFormatting sqref="K11:L22 P20:P22 A11:P19 A20:O20 Q11:XFD20">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>LEFT(A11,1)="-"</formula>
     </cfRule>
@@ -2591,24 +2558,24 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2619,16 +2586,16 @@
         <v>46</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2639,16 +2606,16 @@
         <v>47</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2659,118 +2626,118 @@
         <v>48</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2778,13 +2745,13 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2792,7 +2759,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2800,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2808,10 +2775,10 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2819,13 +2786,13 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2833,13 +2800,13 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2847,7 +2814,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2855,7 +2822,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2863,7 +2830,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2871,7 +2838,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2883,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD34EC-FC63-4B23-9C13-E548752F8F18}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2908,19 +2875,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
@@ -2928,61 +2889,63 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>143</v>
+      <c r="A7" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +2959,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3995,53 +3958,53 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="39">
         <v>4</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="40">
         <v>3</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="40">
         <v>2</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="41">
         <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="37">
         <f>2*($F2)*(G$1)+ABS(G$7-$F8)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="37">
         <f t="shared" ref="H2:J2" si="0">2*($F2)*(H$1)+ABS(H$7-$F8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="37">
         <f>ABS(B2-G2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="37">
         <f t="shared" ref="M2:O2" si="1">ABS(C2-H2)</f>
         <v>2</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4050,7 +4013,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="42">
         <v>3</v>
       </c>
       <c r="C3">
@@ -4059,48 +4022,48 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="43">
         <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="37">
         <f t="shared" ref="G3:J3" si="2">2*($F3)*(G$1)+ABS(G$7-$F9)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="37">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="37">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="37">
         <f t="shared" ref="L3:L5" si="3">ABS(B3-G3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="37">
         <f t="shared" ref="M3:M5" si="4">ABS(C3-H3)</f>
         <v>5</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="37">
         <f t="shared" ref="N3:N5" si="5">ABS(D3-I3)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="37">
         <f t="shared" ref="O3:O5" si="6">ABS(E3-J3)</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="37">
         <f>SUM(L2:O5)</f>
         <v>44</v>
       </c>
@@ -4109,7 +4072,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="42">
         <v>2</v>
       </c>
       <c r="C4">
@@ -4118,44 +4081,44 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="43">
         <v>8</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="37">
         <f t="shared" ref="G4:J4" si="7">2*($F4)*(G$1)+ABS(G$7-$F10)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="37">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="37">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="37">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="37">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="37">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="37">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -4164,53 +4127,53 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="45">
         <v>5</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="45">
         <v>8</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="46">
         <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="37">
         <f t="shared" ref="G5:J5" si="8">2*($F5)*(G$1)+ABS(G$7-$F11)</f>
         <v>3</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="37">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="37">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="37">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="37">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="37">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="37">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="37">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -4257,53 +4220,53 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="40">
         <v>3</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="40">
         <v>2</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="41">
         <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="37">
         <f>4-ABS(G$7-$F8)+G$7*$F8</f>
         <v>4</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="37">
         <f t="shared" ref="H8:J11" si="9">4-ABS(H$7-$F8)+H$7*$F8</f>
         <v>3</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="37">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="37">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="37">
         <f>ABS(B8-G8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="37">
         <f t="shared" ref="M8:M11" si="10">ABS(C8-H8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="37">
         <f t="shared" ref="N8:N11" si="11">ABS(D8-I8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="37">
         <f t="shared" ref="O8:O11" si="12">ABS(E8-J8)</f>
         <v>0</v>
       </c>
@@ -4312,7 +4275,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="42">
         <v>3</v>
       </c>
       <c r="C9">
@@ -4321,48 +4284,48 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="43">
         <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="37">
         <f t="shared" ref="G9:G11" si="13">4-ABS(G$7-$F9)+G$7*$F9</f>
         <v>3</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="37">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="37">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="37">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="37">
         <f t="shared" ref="L9:L11" si="14">ABS(B9-G9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="37">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="37">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="37">
         <f>SUM(L8:O11)</f>
         <v>10</v>
       </c>
@@ -4371,7 +4334,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="42">
         <v>2</v>
       </c>
       <c r="C10">
@@ -4380,44 +4343,44 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="43">
         <v>8</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="37">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="37">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="37">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="37">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="37">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="37">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="37">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -4426,53 +4389,53 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="44">
         <v>1</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="45">
         <v>5</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="45">
         <v>8</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="46">
         <v>10</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="37">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="37">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="37">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="37">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="37">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="37">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="37">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
@@ -4505,56 +4468,56 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="39">
         <v>1</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="40">
         <v>2</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="40">
         <v>3</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="41">
         <v>5</v>
       </c>
-      <c r="R15" s="43">
+      <c r="R15" s="39">
         <v>5</v>
       </c>
-      <c r="S15" s="44">
+      <c r="S15" s="40">
         <v>3</v>
       </c>
-      <c r="T15" s="44">
+      <c r="T15" s="40">
         <v>2</v>
       </c>
-      <c r="U15" s="45">
+      <c r="U15" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="42">
         <v>2</v>
       </c>
       <c r="O16">
@@ -4563,10 +4526,10 @@
       <c r="P16">
         <v>6</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="43">
         <v>7</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="42">
         <v>7</v>
       </c>
       <c r="S16">
@@ -4575,18 +4538,18 @@
       <c r="T16">
         <v>4</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="42">
         <v>3</v>
       </c>
       <c r="O17">
@@ -4595,10 +4558,10 @@
       <c r="P17">
         <v>8</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="43">
         <v>9</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="42">
         <v>9</v>
       </c>
       <c r="S17">
@@ -4607,71 +4570,71 @@
       <c r="T17">
         <v>6</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="44">
         <v>5</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="45">
         <v>7</v>
       </c>
-      <c r="P18" s="49">
+      <c r="P18" s="45">
         <v>9</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="46">
         <v>10</v>
       </c>
-      <c r="R18" s="48">
+      <c r="R18" s="44">
         <v>10</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="45">
         <v>9</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="45">
         <v>7</v>
       </c>
-      <c r="U18" s="50">
+      <c r="U18" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="39">
         <v>5</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="40">
         <v>7</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="40">
         <v>9</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="41">
         <v>10</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="39">
         <v>10</v>
       </c>
-      <c r="S19" s="44">
+      <c r="S19" s="40">
         <v>9</v>
       </c>
-      <c r="T19" s="44">
+      <c r="T19" s="40">
         <v>7</v>
       </c>
-      <c r="U19" s="45">
+      <c r="U19" s="41">
         <v>5</v>
       </c>
     </row>
@@ -4679,7 +4642,7 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="42">
         <v>3</v>
       </c>
       <c r="O20">
@@ -4688,10 +4651,10 @@
       <c r="P20">
         <v>8</v>
       </c>
-      <c r="Q20" s="47">
+      <c r="Q20" s="43">
         <v>9</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="42">
         <v>9</v>
       </c>
       <c r="S20">
@@ -4700,7 +4663,7 @@
       <c r="T20">
         <v>6</v>
       </c>
-      <c r="U20" s="47">
+      <c r="U20" s="43">
         <v>3</v>
       </c>
     </row>
@@ -4708,7 +4671,7 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="42">
         <v>2</v>
       </c>
       <c r="O21">
@@ -4717,10 +4680,10 @@
       <c r="P21">
         <v>6</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q21" s="43">
         <v>7</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="42">
         <v>7</v>
       </c>
       <c r="S21">
@@ -4729,7 +4692,7 @@
       <c r="T21">
         <v>4</v>
       </c>
-      <c r="U21" s="47">
+      <c r="U21" s="43">
         <v>2</v>
       </c>
     </row>
@@ -4737,28 +4700,28 @@
       <c r="M22">
         <v>7</v>
       </c>
-      <c r="N22" s="48">
+      <c r="N22" s="44">
         <v>1</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="45">
         <v>2</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="45">
         <v>3</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="46">
         <v>5</v>
       </c>
-      <c r="R22" s="48">
+      <c r="R22" s="44">
         <v>5</v>
       </c>
-      <c r="S22" s="49">
+      <c r="S22" s="45">
         <v>3</v>
       </c>
-      <c r="T22" s="49">
+      <c r="T22" s="45">
         <v>2</v>
       </c>
-      <c r="U22" s="50">
+      <c r="U22" s="46">
         <v>1</v>
       </c>
     </row>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\Chess-Challange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956F27B-A5D6-427A-A376-E63268252190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA7D14-A73D-4236-BA4F-036395C0CCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="457" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="554" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparation" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Ideas" sheetId="3" r:id="rId3"/>
     <sheet name="Depth vs Breadth" sheetId="4" r:id="rId4"/>
     <sheet name="Position array" sheetId="5" r:id="rId5"/>
+    <sheet name="Timer" sheetId="6" r:id="rId6"/>
+    <sheet name="debug" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Position array'!$D$12:$D$13</definedName>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="268">
   <si>
     <t>Random</t>
   </si>
@@ -142,18 +144,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>872/1024</t>
@@ -475,9 +465,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>1028-1059</t>
-  </si>
-  <si>
     <t>reduced brain
 results vs V4</t>
   </si>
@@ -503,9 +490,6 @@
     <t>+= ?</t>
   </si>
   <si>
-    <t>948-810</t>
-  </si>
-  <si>
     <t>3-c</t>
   </si>
   <si>
@@ -548,9 +532,6 @@
     <t>1014</t>
   </si>
   <si>
-    <t>1058-904</t>
-  </si>
-  <si>
     <t>+- ?</t>
   </si>
   <si>
@@ -558,9 +539,6 @@
   </si>
   <si>
     <t>V5.5</t>
-  </si>
-  <si>
-    <t>1038-1060</t>
   </si>
   <si>
     <t>668</t>
@@ -586,9 +564,6 @@
 depth 4-&gt;5</t>
   </si>
   <si>
-    <t>1246-1263</t>
-  </si>
-  <si>
     <t>advanced pawn</t>
   </si>
   <si>
@@ -666,6 +641,238 @@
   </si>
   <si>
     <t>V7.0</t>
+  </si>
+  <si>
+    <t>Breadth \ Depth</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>30 sec</t>
+  </si>
+  <si>
+    <t>90 sec</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>no advanced pawn
+new breadth /6</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>no advanced pawn
+new breadth /8</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Rank Mutiplier</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Time value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time and value</t>
+  </si>
+  <si>
+    <t>White plan</t>
+  </si>
+  <si>
+    <t>think more</t>
+  </si>
+  <si>
+    <t>think less</t>
+  </si>
+  <si>
+    <t>Value diff</t>
+  </si>
+  <si>
+    <t>Time diff</t>
+  </si>
+  <si>
+    <t>Time matchwise</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>take biggest depth according to timediff</t>
+  </si>
+  <si>
+    <t>if current time &gt; 33% match time, depth++</t>
+  </si>
+  <si>
+    <t>else do normal</t>
+  </si>
+  <si>
+    <t>time management
+V1</t>
+  </si>
+  <si>
+    <t>vs V6 (no bradth)</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>Launching Chess-Challenge version 1.20</t>
+  </si>
+  <si>
+    <t>Starting new match: MyBot vs EvilBot</t>
+  </si>
+  <si>
+    <t>1 Game Over: WhiteIllegalMove MyBot EvilBot</t>
+  </si>
+  <si>
+    <t>2 Game Over: BlackIllegalMove EvilBot MyBot</t>
+  </si>
+  <si>
+    <t>vs V6</t>
+  </si>
+  <si>
+    <t>Illegal move: Null in position: rn1qkb1r/p1ppp1pp/bp6/5pN1/2N3n1/4P3/PPPP1PPP/R1BQKB1R w KQkq f6 0 6 16897 58700</t>
+  </si>
+  <si>
+    <t>Illegal move: Null in position: r1b1k3/1ppN3p/2p1pr2/p7/1PP1Q2P/1P6/3P1PP1/R3K2R b KQq - 0 20 30379 46778</t>
+  </si>
+  <si>
+    <t>Match finished</t>
+  </si>
+  <si>
+    <t>### Start turn ###</t>
+  </si>
+  <si>
+    <t>Time remaining: 22645-58805</t>
+  </si>
+  <si>
+    <t>Max depth=0 max Breadth=1</t>
+  </si>
+  <si>
+    <t>Current depth=0 current Breadth=1</t>
+  </si>
+  <si>
+    <t>Move: 'Null'</t>
+  </si>
+  <si>
+    <t>Time used: 6</t>
+  </si>
+  <si>
+    <t>Time remaining: 22640-58805</t>
+  </si>
+  <si>
+    <t>### End turn ###</t>
+  </si>
+  <si>
+    <t>time management
+V2</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>227</t>
   </si>
 </sst>
 </file>
@@ -770,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -858,13 +1065,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,12 +1141,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -984,9 +1222,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,15 +1231,40 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1309,10 +1569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE22:AE23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,15 +1583,14 @@
     <col min="1" max="1" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="27.21875" style="7" customWidth="1"/>
     <col min="13" max="13" width="14" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10.21875" style="7" hidden="1" customWidth="1"/>
@@ -1345,10 +1607,14 @@
     <col min="26" max="26" width="12.6640625" style="7" customWidth="1"/>
     <col min="27" max="27" width="10.44140625" style="7" customWidth="1"/>
     <col min="28" max="28" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="7"/>
+    <col min="29" max="29" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33" style="7" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1356,49 +1622,55 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="Y1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="Y1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1406,145 +1678,169 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>133</v>
+      <c r="H2" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>173</v>
+      <c r="J2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="T2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="27">
+        <v>1097</v>
+      </c>
+      <c r="N3" s="27">
+        <v>1088</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1088</v>
+      </c>
+      <c r="P3" s="26">
+        <v>995</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>1088</v>
+      </c>
+      <c r="R3" s="26">
+        <v>977</v>
+      </c>
+      <c r="S3" s="26">
+        <v>977</v>
+      </c>
+      <c r="T3" s="26">
+        <v>1070</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="W3" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3" s="29">
-        <v>1097</v>
-      </c>
-      <c r="N3" s="29">
-        <v>1088</v>
-      </c>
-      <c r="O3" s="29">
-        <v>1088</v>
-      </c>
-      <c r="P3" s="28">
-        <v>995</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>1088</v>
-      </c>
-      <c r="R3" s="28">
-        <v>977</v>
-      </c>
-      <c r="S3" s="28">
-        <v>977</v>
-      </c>
-      <c r="T3" s="28">
-        <v>1070</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="28">
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="26">
         <v>1054</v>
       </c>
-      <c r="AB3" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="AB3" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1554,981 +1850,2346 @@
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>172</v>
+        <v>133</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="31">
+      <c r="AA4" s="29">
         <v>1</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="AC4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="29">
+        <v>3</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1038</v>
+      </c>
+      <c r="L6" s="29">
+        <v>1246</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="31" t="s">
+      <c r="P6" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
+      <c r="W6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>948</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1060</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1263</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="AA7" s="29">
+        <v>810</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="1">
         <v>38</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G8" s="1">
         <v>17</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H8" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I8" s="1">
         <v>21</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J8" s="1">
         <v>20</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K8" s="1">
         <v>15</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L8" s="1">
         <v>28</v>
-      </c>
-      <c r="M6" s="1">
-        <v>16</v>
-      </c>
-      <c r="N6" s="1">
-        <v>18</v>
-      </c>
-      <c r="O6" s="1">
-        <v>15</v>
-      </c>
-      <c r="P6" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>14</v>
-      </c>
-      <c r="R6" s="1">
-        <v>13</v>
-      </c>
-      <c r="S6" s="1">
-        <v>19</v>
-      </c>
-      <c r="T6" s="1">
-        <v>21</v>
-      </c>
-      <c r="U6" s="1">
-        <v>15</v>
-      </c>
-      <c r="V6" s="1">
-        <v>16</v>
-      </c>
-      <c r="W6" s="1">
-        <v>16</v>
-      </c>
-      <c r="X6" s="1">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>6</v>
-      </c>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1">
-        <v>3</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3</v>
-      </c>
-      <c r="U7" s="1">
-        <v>3</v>
-      </c>
-      <c r="V7" s="1">
-        <v>6</v>
-      </c>
-      <c r="W7" s="1">
-        <v>3</v>
-      </c>
-      <c r="X7" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
       </c>
       <c r="M8" s="1">
         <v>16</v>
       </c>
       <c r="N8" s="1">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1">
         <v>15</v>
       </c>
-      <c r="O8" s="1">
-        <v>18</v>
-      </c>
       <c r="P8" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="1">
+        <v>14</v>
+      </c>
+      <c r="R8" s="1">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1">
         <v>19</v>
       </c>
-      <c r="R8" s="1">
-        <v>19</v>
-      </c>
-      <c r="S8" s="1">
-        <v>16</v>
-      </c>
       <c r="T8" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U8" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V8" s="1">
         <v>16</v>
       </c>
       <c r="W8" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X8" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Y8" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="1">
         <v>16</v>
       </c>
       <c r="AA8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>16</v>
+      </c>
+      <c r="N10" s="1">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1">
+        <v>18</v>
+      </c>
+      <c r="P10" s="1">
         <v>17</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="Q10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
+      <c r="R10" s="1">
+        <v>19</v>
+      </c>
+      <c r="S10" s="1">
+        <v>16</v>
+      </c>
+      <c r="T10" s="1">
+        <v>14</v>
+      </c>
+      <c r="U10" s="1">
+        <v>20</v>
+      </c>
+      <c r="V10" s="1">
+        <v>16</v>
+      </c>
+      <c r="W10" s="1">
+        <v>19</v>
+      </c>
+      <c r="X10" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23">
-        <f t="shared" ref="E9:G9" si="0">SUM(E6:E8)</f>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11:G11" si="0">SUM(E8:E10)</f>
         <v>38</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F11" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H9" s="23">
-        <f>SUM(H6:H8)</f>
+      <c r="H11" s="21">
+        <f>SUM(H8:H10)</f>
         <v>38</v>
       </c>
-      <c r="I9" s="32">
-        <f>SUM(I6:I8)</f>
+      <c r="I11" s="30">
+        <f>SUM(I8:I10)</f>
         <v>38</v>
       </c>
-      <c r="J9" s="23">
-        <f t="shared" ref="J9" si="1">SUM(J6:J8)</f>
+      <c r="J11" s="21">
+        <f t="shared" ref="J11" si="1">SUM(J8:J10)</f>
         <v>38</v>
       </c>
-      <c r="K9" s="32">
-        <f t="shared" ref="K9:L9" si="2">SUM(K6:K8)</f>
+      <c r="K11" s="30">
+        <f t="shared" ref="K11:L11" si="2">SUM(K8:K10)</f>
         <v>38</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L11" s="30">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="M9" s="23">
-        <f t="shared" ref="M9" si="3">SUM(M6:M8)</f>
+      <c r="M11" s="21">
+        <f t="shared" ref="M11" si="3">SUM(M8:M10)</f>
         <v>38</v>
       </c>
-      <c r="N9" s="23">
-        <f t="shared" ref="N9" si="4">SUM(N6:N8)</f>
+      <c r="N11" s="21">
+        <f t="shared" ref="N11" si="4">SUM(N8:N10)</f>
         <v>38</v>
       </c>
-      <c r="O9" s="23">
-        <f t="shared" ref="O9" si="5">SUM(O6:O8)</f>
+      <c r="O11" s="21">
+        <f t="shared" ref="O11" si="5">SUM(O8:O10)</f>
         <v>38</v>
       </c>
-      <c r="P9" s="23">
-        <f t="shared" ref="P9" si="6">SUM(P6:P8)</f>
+      <c r="P11" s="21">
+        <f t="shared" ref="P11" si="6">SUM(P8:P10)</f>
         <v>38</v>
       </c>
-      <c r="Q9" s="23">
-        <f t="shared" ref="Q9" si="7">SUM(Q6:Q8)</f>
+      <c r="Q11" s="21">
+        <f t="shared" ref="Q11" si="7">SUM(Q8:Q10)</f>
         <v>38</v>
       </c>
-      <c r="R9" s="23">
-        <f t="shared" ref="R9" si="8">SUM(R6:R8)</f>
+      <c r="R11" s="21">
+        <f t="shared" ref="R11" si="8">SUM(R8:R10)</f>
         <v>38</v>
       </c>
-      <c r="S9" s="23">
-        <f t="shared" ref="S9" si="9">SUM(S6:S8)</f>
+      <c r="S11" s="21">
+        <f t="shared" ref="S11" si="9">SUM(S8:S10)</f>
         <v>38</v>
       </c>
-      <c r="T9" s="23">
-        <f t="shared" ref="T9" si="10">SUM(T6:T8)</f>
+      <c r="T11" s="21">
+        <f t="shared" ref="T11" si="10">SUM(T8:T10)</f>
         <v>38</v>
       </c>
-      <c r="U9" s="23">
-        <f t="shared" ref="U9:W9" si="11">SUM(U6:U8)</f>
+      <c r="U11" s="21">
+        <f t="shared" ref="U11:W11" si="11">SUM(U8:U10)</f>
         <v>38</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V11" s="21">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W11" s="21">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="X9" s="23">
-        <f t="shared" ref="X9" si="12">SUM(X6:X8)</f>
+      <c r="X11" s="21">
+        <f t="shared" ref="X11" si="12">SUM(X8:X10)</f>
         <v>38</v>
       </c>
-      <c r="Y9" s="23">
-        <f t="shared" ref="Y9" si="13">SUM(Y6:Y8)</f>
+      <c r="Y11" s="21">
+        <f t="shared" ref="Y11" si="13">SUM(Y8:Y10)</f>
         <v>38</v>
       </c>
-      <c r="Z9" s="23">
-        <f t="shared" ref="Z9:AB9" si="14">SUM(Z6:Z8)</f>
+      <c r="Z11" s="21">
+        <f t="shared" ref="Z11" si="14">SUM(Z8:Z10)</f>
         <v>38</v>
       </c>
-      <c r="AA9" s="23">
-        <f>SUM(AA6:AA8)</f>
+      <c r="AA11" s="21">
+        <f>SUM(AA8:AA10)</f>
         <v>38</v>
       </c>
-      <c r="AB9" s="23">
-        <f t="shared" ref="AB9" si="15">SUM(AB6:AB8)</f>
+      <c r="AB11" s="21">
+        <f t="shared" ref="AB11:AC11" si="15">SUM(AB8:AB10)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="AC11" s="21">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="AD11" s="21">
+        <f t="shared" ref="AD11:AE11" si="16">SUM(AD8:AD10)</f>
+        <v>38</v>
+      </c>
+      <c r="AE11" s="21">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="AF11" s="21">
+        <f t="shared" ref="AF11" si="17">SUM(AF8:AF10)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="36">
-        <f t="shared" ref="E10:G10" si="16">(E6+E7/2)/E9</f>
+      <c r="E12" s="34">
+        <f t="shared" ref="E12:G12" si="18">(E8+E9/2)/E11</f>
         <v>1</v>
       </c>
-      <c r="F10" s="36">
-        <f t="shared" si="16"/>
+      <c r="F12" s="34">
+        <f t="shared" si="18"/>
         <v>0.86842105263157898</v>
       </c>
-      <c r="G10" s="36">
-        <f t="shared" si="16"/>
+      <c r="G12" s="34">
+        <f t="shared" si="18"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="H10" s="36">
-        <f>(H6+H7/2)/H9</f>
+      <c r="H12" s="34">
+        <f>(H8+H9/2)/H11</f>
         <v>0.56578947368421051</v>
       </c>
-      <c r="I10" s="36">
-        <f>(I6+I7/2)/I9</f>
+      <c r="I12" s="34">
+        <f>(I8+I9/2)/I11</f>
         <v>0.59210526315789469</v>
       </c>
-      <c r="J10" s="36">
-        <f t="shared" ref="J10" si="17">(J6+J7/2)/J9</f>
+      <c r="J12" s="34">
+        <f t="shared" ref="J12" si="19">(J8+J9/2)/J11</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="K10" s="36">
-        <f t="shared" ref="K10:L10" si="18">(K6+K7/2)/K9</f>
+      <c r="K12" s="34">
+        <f t="shared" ref="K12:L12" si="20">(K8+K9/2)/K11</f>
         <v>0.51315789473684215</v>
       </c>
-      <c r="L10" s="36">
-        <f t="shared" si="18"/>
+      <c r="L12" s="34">
+        <f t="shared" si="20"/>
         <v>0.80263157894736847</v>
       </c>
-      <c r="M10" s="36">
-        <f t="shared" ref="M10" si="19">(M6+M7/2)/M9</f>
+      <c r="M12" s="34">
+        <f t="shared" ref="M12" si="21">(M8+M9/2)/M11</f>
         <v>0.5</v>
       </c>
-      <c r="N10" s="36">
-        <f t="shared" ref="N10:Q10" si="20">(N6+N7/2)/N9</f>
+      <c r="N12" s="34">
+        <f t="shared" ref="N12:Q12" si="22">(N8+N9/2)/N11</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="O10" s="36">
-        <f t="shared" si="20"/>
+      <c r="O12" s="34">
+        <f t="shared" si="22"/>
         <v>0.46052631578947367</v>
       </c>
-      <c r="P10" s="36">
-        <f t="shared" si="20"/>
+      <c r="P12" s="34">
+        <f t="shared" si="22"/>
         <v>0.48684210526315791</v>
       </c>
-      <c r="Q10" s="36">
-        <f t="shared" si="20"/>
-        <v>0.43421052631578949</v>
-      </c>
-      <c r="R10" s="36">
-        <f t="shared" ref="R10:S10" si="21">(R6+R7/2)/R9</f>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="S10" s="36">
-        <f t="shared" si="21"/>
-        <v>0.53947368421052633</v>
-      </c>
-      <c r="T10" s="36">
-        <f t="shared" ref="T10:U10" si="22">(T6+T7/2)/T9</f>
-        <v>0.59210526315789469</v>
-      </c>
-      <c r="U10" s="36">
+      <c r="Q12" s="34">
         <f t="shared" si="22"/>
         <v>0.43421052631578949</v>
       </c>
-      <c r="V10" s="36">
-        <f t="shared" ref="V10" si="23">(V6+V7/2)/V9</f>
+      <c r="R12" s="34">
+        <f t="shared" ref="R12:S12" si="23">(R8+R9/2)/R11</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="S12" s="34">
+        <f t="shared" si="23"/>
+        <v>0.53947368421052633</v>
+      </c>
+      <c r="T12" s="34">
+        <f t="shared" ref="T12:U12" si="24">(T8+T9/2)/T11</f>
+        <v>0.59210526315789469</v>
+      </c>
+      <c r="U12" s="34">
+        <f t="shared" si="24"/>
+        <v>0.43421052631578949</v>
+      </c>
+      <c r="V12" s="34">
+        <f t="shared" ref="V12" si="25">(V8+V9/2)/V11</f>
         <v>0.5</v>
       </c>
-      <c r="W10" s="36">
-        <f t="shared" ref="W10:Y10" si="24">(W6+W7/2)/W9</f>
+      <c r="W12" s="34">
+        <f t="shared" ref="W12:Y12" si="26">(W8+W9/2)/W11</f>
         <v>0.46052631578947367</v>
       </c>
-      <c r="X10" s="36">
-        <f t="shared" si="24"/>
+      <c r="X12" s="34">
+        <f t="shared" si="26"/>
         <v>0.32894736842105265</v>
       </c>
-      <c r="Y10" s="36">
-        <f t="shared" si="24"/>
+      <c r="Y12" s="34">
+        <f t="shared" si="26"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="Z10" s="36">
-        <f t="shared" ref="Z10:AB10" si="25">(Z6+Z7/2)/Z9</f>
+      <c r="Z12" s="34">
+        <f t="shared" ref="Z12:AB12" si="27">(Z8+Z9/2)/Z11</f>
         <v>0.5</v>
       </c>
-      <c r="AA10" s="36">
-        <f t="shared" si="25"/>
+      <c r="AA12" s="34">
+        <f t="shared" si="27"/>
         <v>0.53947368421052633</v>
       </c>
-      <c r="AB10" s="36">
-        <f t="shared" si="25"/>
+      <c r="AB12" s="34">
+        <f t="shared" si="27"/>
         <v>0.46052631578947367</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="AC12" s="34">
+        <f t="shared" ref="AC12" si="28">(AC8+AC9/2)/AC11</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AE12" si="29">(AD8+AD9/2)/AD11</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" si="29"/>
+        <v>0.51315789473684215</v>
+      </c>
+      <c r="AF12" s="34">
+        <f t="shared" ref="AF12" si="30">(AF8+AF9/2)/AF11</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54">
+        <v>169</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54">
+        <v>218</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54">
+        <v>17</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30">
+        <f t="shared" ref="AC20:AD20" si="31">SUM(AC17:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="30">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="30">
+        <f>SUM(AE17:AE19)</f>
+        <v>38</v>
+      </c>
+      <c r="AF20" s="30">
+        <f>SUM(AF17:AF19)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34" t="e">
+        <f t="shared" ref="AC21:AD21" si="32">(AC17+AC18/2)/AC20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD21" s="34" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE21" s="34">
+        <f t="shared" ref="AE21:AF21" si="33">(AE17+AE18/2)/AE20</f>
+        <v>0.51315789473684215</v>
+      </c>
+      <c r="AF21" s="34">
+        <f t="shared" si="33"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54">
+        <v>846</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54">
+        <v>220</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54">
+        <v>3</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54">
+        <v>13</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30">
+        <f t="shared" ref="AC29:AD29" si="34">SUM(AC26:AC28)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="30">
+        <f t="shared" ref="AE29:AF29" si="35">SUM(AE26:AE28)</f>
+        <v>38</v>
+      </c>
+      <c r="AF29" s="30">
+        <f t="shared" si="35"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34" t="e">
+        <f t="shared" ref="AC30:AD30" si="36">(AC26+AC27/2)/AC29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="34" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="34">
+        <f t="shared" ref="AE30:AF30" si="37">(AE26+AE27/2)/AE29</f>
+        <v>0.61842105263157898</v>
+      </c>
+      <c r="AF30" s="34">
+        <f t="shared" si="37"/>
+        <v>0.69736842105263153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="53">
+        <f>AC22+AC13+AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="53">
+        <f>AD22+AD13+AD4</f>
+        <v>4</v>
+      </c>
+      <c r="AE31" s="53">
+        <f>AE22+AE13+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="53">
+        <f>AF22+AF13+AF4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="2"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="53">
+        <f t="shared" ref="AC32:AD33" si="38">AC23+AC14+AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="53">
+        <f>AD23+AD14+AD4</f>
+        <v>4</v>
+      </c>
+      <c r="AE32" s="55">
+        <f>AE23+AE14+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="55">
+        <f>AF23+AF14+AF4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="53">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="53">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="55">
+        <f>AE24+AE15+AE6</f>
+        <v>1550</v>
+      </c>
+      <c r="AF33" s="55">
+        <f>AF24+AF15+AF6</f>
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="53">
+        <f>AC25+AC16+AC6</f>
+        <v>716</v>
+      </c>
+      <c r="AD34" s="53">
+        <f>AD25+AD16+AD6</f>
+        <v>1620</v>
+      </c>
+      <c r="AE34" s="55">
+        <f>AE25+AE16+AE7</f>
+        <v>638</v>
+      </c>
+      <c r="AF34" s="55">
+        <f>AF25+AF16+AF7</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="53">
+        <f t="shared" ref="AC35:AD37" si="39">AC26+AC17+AC8</f>
+        <v>22</v>
+      </c>
+      <c r="AD35" s="53">
+        <f t="shared" si="39"/>
+        <v>25</v>
+      </c>
+      <c r="AE35" s="53">
+        <f t="shared" ref="AE35:AF35" si="40">AE26+AE17+AE8</f>
+        <v>55</v>
+      </c>
+      <c r="AF35" s="53">
+        <f t="shared" si="40"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="53">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AD36" s="53">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AE36" s="53">
+        <f t="shared" ref="AE36:AF36" si="41">AE27+AE18+AE9</f>
+        <v>15</v>
+      </c>
+      <c r="AF36" s="53">
+        <f t="shared" si="41"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="53">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="AD37" s="53">
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="AE37" s="53">
+        <f>AE28+AE19+AE10</f>
+        <v>44</v>
+      </c>
+      <c r="AF37" s="53">
+        <f>AF28+AF19+AF10</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="21">
+        <f t="shared" ref="AC38:AD38" si="42">SUM(AC35:AC37)</f>
+        <v>38</v>
+      </c>
+      <c r="AD38" s="21">
+        <f t="shared" si="42"/>
+        <v>38</v>
+      </c>
+      <c r="AE38" s="21">
+        <f t="shared" ref="AE38:AF38" si="43">SUM(AE35:AE37)</f>
+        <v>114</v>
+      </c>
+      <c r="AF38" s="21">
+        <f t="shared" si="43"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34">
+        <f t="shared" ref="AC39:AD39" si="44">(AC35+AC36/2)/AC38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="AD39" s="34">
+        <f t="shared" si="44"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AE39" s="34">
+        <f>(AE35+AE36/2)/AE38</f>
+        <v>0.54824561403508776</v>
+      </c>
+      <c r="AF39" s="34">
+        <f>(AF35+AF36/2)/AF38</f>
+        <v>0.57017543859649122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="49"/>
-      <c r="Z11" s="20" t="s">
+      <c r="N40" s="46"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="Z40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AA40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C41" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="54"/>
-      <c r="Z12" s="7" t="s">
+      <c r="R41" s="23"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="23"/>
+      <c r="Z41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA12" s="7" t="s">
+      <c r="AA41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V42" s="48"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA42" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA44" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K11:L22 P20:P22 A11:P19 A20:O20 Q11:XFD20">
+  <conditionalFormatting sqref="A40:P48 K40:L51 A49:O49 P49:P51 Q40:XFD49">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>LEFT(A11,1)="-"</formula>
+      <formula>LEFT(A40,1)="-"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>LEFT(A11,1)="="</formula>
+      <formula>LEFT(A40,1)="="</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>LEFT(A11,1)="+"</formula>
+      <formula>LEFT(A40,1)="+"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2541,7 +4202,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2558,287 +4219,287 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2865,87 +4526,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>141</v>
+      <c r="A7" s="36" t="s">
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2956,948 +4617,1867 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CAB14C-A094-4A3E-9DDA-981C7296CEB7}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.33203125" style="13"/>
+    <col min="1" max="1" width="11.33203125" style="13"/>
+    <col min="2" max="2" width="16.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+    <row r="1" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="15">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15">
         <v>5</v>
       </c>
-      <c r="C1" s="12">
+      <c r="E1" s="15">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15">
+        <v>7</v>
+      </c>
+      <c r="G1" s="15">
+        <v>8</v>
+      </c>
+      <c r="H1" s="15">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15">
         <v>10</v>
       </c>
-      <c r="D1" s="12">
-        <v>15</v>
-      </c>
-      <c r="E1" s="12">
-        <v>20</v>
-      </c>
-      <c r="F1" s="12">
-        <v>25</v>
-      </c>
-      <c r="G1" s="12">
-        <v>30</v>
-      </c>
-      <c r="H1" s="12">
-        <v>35</v>
-      </c>
-      <c r="I1" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14">
-        <f>B$1^$A2</f>
-        <v>5</v>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="12">
+        <v>4</v>
       </c>
       <c r="C2" s="14">
-        <f t="shared" ref="C2:I11" si="0">C$1^$A2</f>
-        <v>10</v>
+        <f t="shared" ref="C2:I11" si="0">$B2^C$1</f>
+        <v>256</v>
       </c>
       <c r="D2" s="14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1024</v>
       </c>
       <c r="E2" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>4096</v>
       </c>
       <c r="F2" s="14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>16384</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65536</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>262144</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <f t="shared" ref="B3:B11" si="1">B$1^$A3</f>
-        <v>25</v>
+        <v>1048576</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
+        <v>8</v>
       </c>
       <c r="C3" s="14">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>4096</v>
       </c>
       <c r="D3" s="14">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>32768</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>262144</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>2097152</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>16777216</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>134217728</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <v>1073741824</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="12">
+        <v>12</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>20736</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" si="0"/>
-        <v>3375</v>
+        <v>248832</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>2985984</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="0"/>
-        <v>15625</v>
+        <v>35831808</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>429981696</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="0"/>
-        <v>42875</v>
+        <v>5159780352</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="0"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14">
-        <f t="shared" si="1"/>
-        <v>625</v>
+        <v>61917364224</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>16</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>65536</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>50625</v>
+        <v>1048576</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>16777216</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>390625</v>
+        <v>268435456</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>810000</v>
+        <v>4294967296</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="0"/>
-        <v>1500625</v>
+        <v>68719476736</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>2560000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14">
-        <f t="shared" si="1"/>
-        <v>3125</v>
+        <v>1099511627776</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>20</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>759375</v>
-      </c>
-      <c r="E6" s="13">
+        <v>160000</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="0"/>
         <v>3200000</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>9765625</v>
-      </c>
-      <c r="G6" s="13">
+        <v>64000000</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>24300000</v>
-      </c>
-      <c r="H6" s="13">
+        <v>1280000000</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>52521875</v>
-      </c>
-      <c r="I6" s="13">
+        <v>25600000000</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>512000000000</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>10240000000000</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>331776</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>7962624</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>191102976</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>4586471424</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>110075314176</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>2641807540224</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>63403380965376</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>614656</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>17210368</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>481890304</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>13492928512</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>377801998336</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>10578455953408</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>296196766695424</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>34359738368</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>1099511627776</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>35184372088832</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>1125899906842624</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>1679616</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>60466176</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>2176782336</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>78364164096</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>2821109907456</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>101559956668416</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>3656158440062976</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>2560000</v>
+      </c>
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>102400000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
-        <f t="shared" si="1"/>
-        <v>15625</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="0"/>
-        <v>11390625</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>64000000</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>244140625</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="0"/>
-        <v>729000000</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="0"/>
-        <v>1838265625</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>4096000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14">
-        <f t="shared" si="1"/>
-        <v>78125</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>170859375</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>1280000000</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>6103515625</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>21870000000</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="0"/>
-        <v>64339296875</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>163840000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <f t="shared" si="1"/>
-        <v>390625</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>100000000</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>2562890625</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>25600000000</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>152587890625</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>656100000000</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="0"/>
-        <v>2251875390625</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>6553600000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15">
-        <f t="shared" si="1"/>
-        <v>1953125</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>38443359375</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>512000000000</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="0"/>
-        <v>3814697265625</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>19683000000000</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="0"/>
-        <v>78815638671875</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>262144000000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15">
-        <f t="shared" si="1"/>
-        <v>9765625</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" si="0"/>
-        <v>10000000000</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>576650390625</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>10240000000000</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>95367431640625</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>590490000000000</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>2758547353515625</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>1.048576E+16</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:I26" si="1">$B12^C$1</f>
+        <v>3748096</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="1"/>
+        <v>164916224</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>7256313856</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>319277809664</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>14048223625216</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>618121839509504</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7197360938418176E+16</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>48</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="1"/>
+        <v>5308416</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>254803968</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="1"/>
+        <v>12230590464</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>587068342272</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>28179280429056</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>1352605460594688</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
+        <v>6.4925062108545024E+16</v>
+      </c>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
+        <v>52</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="1"/>
+        <v>7311616</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="1"/>
+        <v>380204032</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="1"/>
+        <v>19770609664</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>1028071702528</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>53459728531456</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>2779905883635712</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4455510594905702E+17</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="1"/>
+        <v>9834496</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="1"/>
+        <v>550731776</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="1"/>
+        <v>30840979456</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>1727094849536</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>96717311574016</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>5416169448144896</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>3.0330548909611418E+17</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" si="1"/>
+        <v>12960000</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="1"/>
+        <v>777600000</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="1"/>
+        <v>46656000000</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>2799360000000</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>167961600000000</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0077696E+16</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>6.0466176E+17</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>64</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="1"/>
+        <v>1073741824</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="1"/>
+        <v>68719476736</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>4398046511104</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>281474976710656</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>68</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="1"/>
+        <v>21381376</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="1"/>
+        <v>1453933568</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="1"/>
+        <v>98867482624</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>6722988818432</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>457163239653376</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1087100296429568E+16</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1139228201572106E+18</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>72</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="1"/>
+        <v>26873856</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="1"/>
+        <v>1934917632</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="1"/>
+        <v>139314069504</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="1"/>
+        <v>10030613004288</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>722204136308736</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>5.1998697814228992E+16</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7439062426244874E+18</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>76</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="1"/>
+        <v>33362176</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="1"/>
+        <v>2535525376</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="1"/>
+        <v>192699928576</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="1"/>
+        <v>14645194571776</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>1113034787454976</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>8.4590643846578176E+16</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>6.4288889323399414E+18</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>80</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="1"/>
+        <v>40960000</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="1"/>
+        <v>3276800000</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="1"/>
+        <v>262144000000</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
+        <v>20971520000000</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>1677721600000000</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.34217728E+17</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.073741824E+19</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>84</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="1"/>
+        <v>49787136</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="1"/>
+        <v>4182119424</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="1"/>
+        <v>351298031616</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="1"/>
+        <v>29509034655744</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="1"/>
+        <v>2478758911082496</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="1"/>
+        <v>2.0821574853092966E+17</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7490122876598092E+19</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>88</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="1"/>
+        <v>59969536</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="1"/>
+        <v>5277319168</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="1"/>
+        <v>464404086784</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>40867559636992</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="1"/>
+        <v>3596345248055296</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1647838182886605E+17</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7850097600940212E+19</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>92</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="1"/>
+        <v>71639296</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="1"/>
+        <v>6590815232</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="1"/>
+        <v>606355001344</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>55784660123648</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="1"/>
+        <v>5132188731375616</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="1"/>
+        <v>4.7216136328655667E+17</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>4.3438845422363214E+19</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>96</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="1"/>
+        <v>84934656</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="1"/>
+        <v>8153726976</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="1"/>
+        <v>782757789696</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="1"/>
+        <v>75144747810816</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="1"/>
+        <v>7213895789838336</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="1"/>
+        <v>6.9253399582448026E+17</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>6.6483263599150105E+19</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>100</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="1"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+16</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+18</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="E28" s="15">
         <v>6</v>
       </c>
-      <c r="D14" s="12">
+      <c r="F28" s="15">
         <v>7</v>
       </c>
-      <c r="E14" s="17">
+      <c r="G28" s="15">
         <v>8</v>
       </c>
-      <c r="F14" s="12">
+      <c r="H28" s="15">
         <v>9</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I28" s="15">
         <v>10</v>
       </c>
-      <c r="H14" s="12">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12">
+        <f>MIN(5,B2)+B2/6</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" ref="C29:I38" si="2">$B29^C$1</f>
+        <v>474.27160493827182</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="2"/>
+        <v>2213.2674897119355</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="2"/>
+        <v>10328.5816186557</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="2"/>
+        <v>48200.047553726603</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="2"/>
+        <v>224933.55525072417</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="2"/>
+        <v>1049689.9245033795</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="2"/>
+        <v>4898552.9810157716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12">
+        <f t="shared" ref="B30:B53" si="3">MIN(5,B3)+B3/6</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" si="2"/>
+        <v>1608.9012345679009</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="2"/>
+        <v>10189.707818930039</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="2"/>
+        <v>64534.816186556905</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="2"/>
+        <v>408720.50251486042</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="2"/>
+        <v>2588563.1825941158</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="2"/>
+        <v>16394233.489762733</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="2"/>
+        <v>103830145.43516397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>12</v>
+      </c>
+      <c r="B31" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" si="2"/>
+        <v>2401</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="2"/>
+        <v>16807</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="2"/>
+        <v>117649</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="2"/>
+        <v>823543</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="2"/>
+        <v>5764801</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="2"/>
+        <v>40353607</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="2"/>
+        <v>282475249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>16</v>
+      </c>
+      <c r="B32" s="12">
+        <f t="shared" si="3"/>
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" si="2"/>
+        <v>3454.8271604938263</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="2"/>
+        <v>26487.008230452666</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="2"/>
+        <v>203067.06310013711</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="2"/>
+        <v>1556847.4837677178</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="2"/>
+        <v>11935830.708885835</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="2"/>
+        <v>91508035.434791401</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="2"/>
+        <v>701561605.00006735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" si="2"/>
+        <v>4822.5308641975325</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="2"/>
+        <v>40187.757201646105</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="2"/>
+        <v>334897.97668038425</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="2"/>
+        <v>2790816.4723365353</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="2"/>
+        <v>23256803.936137799</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="2"/>
+        <v>193806699.46781501</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="2"/>
+        <v>1615055828.8984585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>24</v>
+      </c>
+      <c r="B34" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="14">
+        <f t="shared" si="2"/>
+        <v>6561</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="2"/>
+        <v>59049</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="2"/>
+        <v>531441</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="2"/>
+        <v>4782969</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="2"/>
+        <v>43046721</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="2"/>
+        <v>387420489</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="2"/>
+        <v>3486784401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>28</v>
+      </c>
+      <c r="B35" s="12">
+        <f t="shared" si="3"/>
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" si="2"/>
+        <v>8731.8641975308692</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="2"/>
+        <v>84408.020576131748</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="2"/>
+        <v>815944.19890260696</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="2"/>
+        <v>7887460.5893918686</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="2"/>
+        <v>76245452.364121407</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="2"/>
+        <v>737039372.85317373</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="2"/>
+        <v>7124713937.5806799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
+      <c r="B36" s="12">
+        <f t="shared" si="3"/>
+        <v>10.333333333333332</v>
+      </c>
+      <c r="C36" s="14">
+        <f t="shared" si="2"/>
+        <v>11401.49382716049</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="2"/>
+        <v>117815.43621399171</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="2"/>
+        <v>1217426.1742112476</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="2"/>
+        <v>12580070.466849556</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="2"/>
+        <v>129994061.49077874</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="2"/>
+        <v>1343271968.7380469</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="2"/>
+        <v>13880477010.29315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I14" s="12">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="C37" s="14">
+        <f t="shared" si="2"/>
+        <v>14641</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="2"/>
+        <v>161051</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="2"/>
+        <v>1771561</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="2"/>
+        <v>19487171</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="2"/>
+        <v>214358881</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="2"/>
+        <v>2357947691</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>25937424601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>40</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="3"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="C38" s="14">
+        <f t="shared" si="2"/>
+        <v>18526.234567901243</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="2"/>
+        <v>216139.4032921812</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="2"/>
+        <v>2521626.3717421144</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="2"/>
+        <v>29418974.336991336</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="2"/>
+        <v>343221367.26489896</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="2"/>
+        <v>4004249284.7571549</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="2"/>
+        <v>46716241655.500145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>44</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" si="3"/>
+        <v>12.333333333333332</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" ref="C39:I53" si="4">$B39^C$1</f>
+        <v>23137.790123456783</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" si="4"/>
+        <v>285366.07818930031</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="4"/>
+        <v>3519514.9643347035</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="4"/>
+        <v>43407351.226794668</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="4"/>
+        <v>535357331.79713428</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="4"/>
+        <v>6602740425.4979887</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="4"/>
+        <v>81433798581.141861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="51">
+        <v>48</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K14" s="12">
-        <v>14</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="C40" s="14">
+        <f t="shared" si="4"/>
+        <v>28561</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" si="4"/>
+        <v>371293</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="4"/>
+        <v>4826809</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="4"/>
+        <v>62748517</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="4"/>
+        <v>815730721</v>
+      </c>
+      <c r="H40" s="14">
+        <f t="shared" si="4"/>
+        <v>10604499373</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="4"/>
+        <v>137858491849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="51">
+        <v>52</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="4"/>
+        <v>34885.938271604937</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" si="4"/>
+        <v>476774.48971193412</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="4"/>
+        <v>6515918.0260630995</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="4"/>
+        <v>89050879.689529032</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="4"/>
+        <v>1217028689.09023</v>
+      </c>
+      <c r="H41" s="14">
+        <f t="shared" si="4"/>
+        <v>16632725417.566475</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="4"/>
+        <v>227313914040.07516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>56</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" si="3"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="C42" s="14">
+        <f t="shared" si="4"/>
+        <v>42207.419753086426</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" si="4"/>
+        <v>604973.01646090543</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="4"/>
+        <v>8671279.9026063122</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="4"/>
+        <v>124288345.27069047</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="4"/>
+        <v>1781466282.2132301</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="4"/>
+        <v>25534350045.056301</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="4"/>
+        <v>365992350645.80695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>60</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14">
-        <f>B$14^$A15</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:L15" si="2">C$14^$A15</f>
-        <v>6</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14">
-        <f t="shared" ref="B16:L24" si="3">B$14^$A16</f>
-        <v>25</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="C43" s="14">
+        <f t="shared" si="4"/>
+        <v>50625</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" si="4"/>
+        <v>759375</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="4"/>
+        <v>11390625</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="4"/>
+        <v>170859375</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="4"/>
+        <v>2562890625</v>
+      </c>
+      <c r="H43" s="14">
+        <f t="shared" si="4"/>
+        <v>38443359375</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="4"/>
+        <v>576650390625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>64</v>
+      </c>
+      <c r="B44" s="12">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="D16" s="14">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="C44" s="14">
+        <f t="shared" si="4"/>
+        <v>60242.975308641966</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="4"/>
+        <v>943806.61316872411</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="4"/>
+        <v>14786303.60631001</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="4"/>
+        <v>231652089.83219016</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="4"/>
+        <v>3629216074.0376453</v>
+      </c>
+      <c r="H44" s="14">
+        <f t="shared" si="4"/>
+        <v>56857718493.256439</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="4"/>
+        <v>890770923061.01758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>68</v>
+      </c>
+      <c r="B45" s="12">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="E16" s="14">
+        <v>16.333333333333336</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" si="4"/>
+        <v>71170.382716049411</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="4"/>
+        <v>1162449.5843621406</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="4"/>
+        <v>18986676.544581629</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="4"/>
+        <v>310115716.89483339</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="4"/>
+        <v>5065223375.948945</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="4"/>
+        <v>82731981807.166107</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="4"/>
+        <v>1351289036183.7134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>72</v>
+      </c>
+      <c r="B46" s="12">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="F16" s="14">
+        <v>17</v>
+      </c>
+      <c r="C46" s="14">
+        <f t="shared" si="4"/>
+        <v>83521</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="4"/>
+        <v>1419857</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="4"/>
+        <v>24137569</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="4"/>
+        <v>410338673</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="4"/>
+        <v>6975757441</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" si="4"/>
+        <v>118587876497</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="4"/>
+        <v>2015993900449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>76</v>
+      </c>
+      <c r="B47" s="12">
         <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="G16" s="14">
+        <v>17.666666666666664</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="4"/>
+        <v>97413.345679012287</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="4"/>
+        <v>1720969.1069958834</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="4"/>
+        <v>30403787.556927271</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="4"/>
+        <v>537133580.17238176</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="4"/>
+        <v>9489359916.3787422</v>
+      </c>
+      <c r="H47" s="14">
+        <f t="shared" si="4"/>
+        <v>167645358522.6911</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="4"/>
+        <v>2961734667234.209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>80</v>
+      </c>
+      <c r="B48" s="12">
         <f t="shared" si="3"/>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="C48" s="14">
+        <f t="shared" si="4"/>
+        <v>112970.67901234573</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="4"/>
+        <v>2071129.1152263386</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="4"/>
+        <v>37970700.445816211</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="4"/>
+        <v>696129508.17329729</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="4"/>
+        <v>12762374316.510452</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="4"/>
+        <v>233976862469.35831</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="4"/>
+        <v>4289575811938.2363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>84</v>
+      </c>
+      <c r="B49" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C49" s="14">
+        <f t="shared" si="4"/>
+        <v>130321</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" si="4"/>
+        <v>2476099</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="4"/>
+        <v>47045881</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="4"/>
+        <v>893871739</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="4"/>
+        <v>16983563041</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="4"/>
+        <v>322687697779</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="4"/>
+        <v>6131066257801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>88</v>
+      </c>
+      <c r="B50" s="12">
+        <f t="shared" si="3"/>
+        <v>19.666666666666664</v>
+      </c>
+      <c r="C50" s="14">
+        <f t="shared" si="4"/>
+        <v>149597.04938271595</v>
+      </c>
+      <c r="D50" s="14">
+        <f t="shared" si="4"/>
+        <v>2942075.3045267467</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="4"/>
+        <v>57860814.322359338</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="4"/>
+        <v>1137929348.3397336</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="4"/>
+        <v>22379277184.014755</v>
+      </c>
+      <c r="H50" s="14">
+        <f t="shared" si="4"/>
+        <v>440125784618.95679</v>
+      </c>
+      <c r="I50" s="14">
+        <f t="shared" si="4"/>
+        <v>8655807097506.1484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>92</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="3"/>
+        <v>20.333333333333336</v>
+      </c>
+      <c r="C51" s="14">
+        <f t="shared" si="4"/>
+        <v>170936.30864197537</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" si="4"/>
+        <v>3475704.942386833</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="4"/>
+        <v>70672667.161865607</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="4"/>
+        <v>1437010898.9579341</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="4"/>
+        <v>29219221612.144661</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" si="4"/>
+        <v>594124172780.2749</v>
+      </c>
+      <c r="I51" s="14">
+        <f t="shared" si="4"/>
+        <v>12080524846532.256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>96</v>
+      </c>
+      <c r="B52" s="12">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C52" s="14">
+        <f t="shared" si="4"/>
+        <v>194481</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="4"/>
+        <v>4084101</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="4"/>
+        <v>85766121</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="4"/>
+        <v>1801088541</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="4"/>
+        <v>37822859361</v>
+      </c>
+      <c r="H52" s="14">
+        <f t="shared" si="4"/>
+        <v>794280046581</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="4"/>
+        <v>16679880978201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>100</v>
       </c>
-      <c r="H16" s="14">
+      <c r="B53" s="12">
         <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>3</v>
-      </c>
-      <c r="B17" s="14">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="C17" s="14">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="3"/>
-        <v>343</v>
-      </c>
-      <c r="E17" s="14">
-        <f t="shared" si="3"/>
-        <v>512</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="3"/>
-        <v>729</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="3"/>
-        <v>1331</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="3"/>
-        <v>1728</v>
-      </c>
-      <c r="J17" s="14">
-        <f t="shared" si="3"/>
-        <v>2197</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="3"/>
-        <v>2744</v>
-      </c>
-      <c r="L17" s="14">
-        <f t="shared" si="3"/>
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>4</v>
-      </c>
-      <c r="B18" s="14">
-        <f t="shared" si="3"/>
-        <v>625</v>
-      </c>
-      <c r="C18" s="14">
-        <f t="shared" si="3"/>
-        <v>1296</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="3"/>
-        <v>2401</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" si="3"/>
-        <v>4096</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="3"/>
-        <v>6561</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="3"/>
-        <v>14641</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="3"/>
-        <v>20736</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="3"/>
-        <v>28561</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="3"/>
-        <v>38416</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="3"/>
-        <v>50625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>5</v>
-      </c>
-      <c r="B19" s="14">
-        <f t="shared" si="3"/>
-        <v>3125</v>
-      </c>
-      <c r="C19" s="14">
-        <f t="shared" si="3"/>
-        <v>7776</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="3"/>
-        <v>16807</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="3"/>
-        <v>32768</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="3"/>
-        <v>59049</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="3"/>
-        <v>161051</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="3"/>
-        <v>248832</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="3"/>
-        <v>371293</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="3"/>
-        <v>537824</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="3"/>
-        <v>759375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14">
-        <f t="shared" si="3"/>
-        <v>15625</v>
-      </c>
-      <c r="C20" s="14">
-        <f t="shared" si="3"/>
-        <v>46656</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="3"/>
-        <v>117649</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="3"/>
-        <v>262144</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="3"/>
-        <v>531441</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="3"/>
-        <v>1771561</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="3"/>
-        <v>2985984</v>
-      </c>
-      <c r="J20" s="16">
-        <f t="shared" si="3"/>
-        <v>4826809</v>
-      </c>
-      <c r="K20" s="16">
-        <f t="shared" si="3"/>
-        <v>7529536</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="3"/>
-        <v>11390625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14">
-        <f t="shared" si="3"/>
-        <v>78125</v>
-      </c>
-      <c r="C21" s="14">
-        <f t="shared" si="3"/>
-        <v>279936</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="3"/>
-        <v>823543</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="3"/>
-        <v>2097152</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="3"/>
-        <v>4782969</v>
-      </c>
-      <c r="G21" s="16">
-        <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="3"/>
-        <v>19487171</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" si="3"/>
-        <v>35831808</v>
-      </c>
-      <c r="J21" s="16">
-        <f t="shared" si="3"/>
-        <v>62748517</v>
-      </c>
-      <c r="K21" s="16">
-        <f t="shared" si="3"/>
-        <v>105413504</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="3"/>
-        <v>170859375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>8</v>
-      </c>
-      <c r="B22" s="14">
-        <f t="shared" si="3"/>
-        <v>390625</v>
-      </c>
-      <c r="C22" s="16">
-        <f t="shared" si="3"/>
-        <v>1679616</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="3"/>
-        <v>5764801</v>
-      </c>
-      <c r="E22" s="16">
-        <f t="shared" si="3"/>
-        <v>16777216</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="3"/>
-        <v>43046721</v>
-      </c>
-      <c r="G22" s="16">
-        <f t="shared" si="3"/>
-        <v>100000000</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="3"/>
-        <v>214358881</v>
-      </c>
-      <c r="I22" s="16">
-        <f t="shared" si="3"/>
-        <v>429981696</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="3"/>
-        <v>815730721</v>
-      </c>
-      <c r="K22" s="16">
-        <f t="shared" si="3"/>
-        <v>1475789056</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="3"/>
-        <v>2562890625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>9</v>
-      </c>
-      <c r="B23" s="16">
-        <f t="shared" si="3"/>
-        <v>1953125</v>
-      </c>
-      <c r="C23" s="16">
-        <f t="shared" si="3"/>
-        <v>10077696</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="3"/>
-        <v>40353607</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="3"/>
-        <v>134217728</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="3"/>
-        <v>387420489</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="3"/>
-        <v>1000000000</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="3"/>
-        <v>2357947691</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="3"/>
-        <v>5159780352</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="3"/>
-        <v>10604499373</v>
-      </c>
-      <c r="K23" s="16">
-        <f t="shared" si="3"/>
-        <v>20661046784</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="3"/>
-        <v>38443359375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>10</v>
-      </c>
-      <c r="B24" s="16">
-        <f t="shared" si="3"/>
-        <v>9765625</v>
-      </c>
-      <c r="C24" s="16">
-        <f t="shared" si="3"/>
-        <v>60466176</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="3"/>
-        <v>282475249</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="3"/>
-        <v>1073741824</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="3"/>
-        <v>3486784401</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="3"/>
-        <v>10000000000</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="3"/>
-        <v>25937424601</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="3"/>
-        <v>61917364224</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="3"/>
-        <v>137858491849</v>
-      </c>
-      <c r="K24" s="16">
-        <f t="shared" si="3"/>
-        <v>289254654976</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="3"/>
-        <v>576650390625</v>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="C53" s="14">
+        <f t="shared" si="4"/>
+        <v>220378.08641975315</v>
+      </c>
+      <c r="D53" s="14">
+        <f t="shared" si="4"/>
+        <v>4774858.539094652</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="4"/>
+        <v>103455268.3470508</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="4"/>
+        <v>2241530814.186101</v>
+      </c>
+      <c r="G53" s="14">
+        <f t="shared" si="4"/>
+        <v>48566500974.032188</v>
+      </c>
+      <c r="H53" s="14">
+        <f t="shared" si="4"/>
+        <v>1052274187770.6975</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" si="4"/>
+        <v>22799274068365.113</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:I26 C29:I53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="100000"/>
+        <cfvo type="num" val="200000"/>
+        <cfvo type="num" val="500000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3958,53 +6538,53 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>4</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="38">
         <v>3</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="38">
         <v>2</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="39">
         <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <f>2*($F2)*(G$1)+ABS(G$7-$F8)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="35">
         <f t="shared" ref="H2:J2" si="0">2*($F2)*(H$1)+ABS(H$7-$F8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="35">
         <f>ABS(B2-G2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="35">
         <f t="shared" ref="M2:O2" si="1">ABS(C2-H2)</f>
         <v>2</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4013,7 +6593,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <v>3</v>
       </c>
       <c r="C3">
@@ -4022,48 +6602,48 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <f t="shared" ref="G3:J3" si="2">2*($F3)*(G$1)+ABS(G$7-$F9)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <f t="shared" ref="L3:L5" si="3">ABS(B3-G3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="35">
         <f t="shared" ref="M3:M5" si="4">ABS(C3-H3)</f>
         <v>5</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="35">
         <f t="shared" ref="N3:N5" si="5">ABS(D3-I3)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="35">
         <f t="shared" ref="O3:O5" si="6">ABS(E3-J3)</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="35">
         <f>SUM(L2:O5)</f>
         <v>44</v>
       </c>
@@ -4072,7 +6652,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <v>2</v>
       </c>
       <c r="C4">
@@ -4081,44 +6661,44 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="41">
         <v>8</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="35">
         <f t="shared" ref="G4:J4" si="7">2*($F4)*(G$1)+ABS(G$7-$F10)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="35">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="35">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="35">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -4127,53 +6707,53 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>5</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <v>8</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="35">
         <f t="shared" ref="G5:J5" si="8">2*($F5)*(G$1)+ABS(G$7-$F11)</f>
         <v>3</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="35">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="35">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="35">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="35">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -4220,53 +6800,53 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <f>4-ABS(G$7-$F8)+G$7*$F8</f>
         <v>4</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="35">
         <f t="shared" ref="H8:J11" si="9">4-ABS(H$7-$F8)+H$7*$F8</f>
         <v>3</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="35">
         <f>ABS(B8-G8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="35">
         <f t="shared" ref="M8:M11" si="10">ABS(C8-H8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <f t="shared" ref="N8:N11" si="11">ABS(D8-I8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="35">
         <f t="shared" ref="O8:O11" si="12">ABS(E8-J8)</f>
         <v>0</v>
       </c>
@@ -4275,7 +6855,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <v>3</v>
       </c>
       <c r="C9">
@@ -4284,48 +6864,48 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <f t="shared" ref="G9:G11" si="13">4-ABS(G$7-$F9)+G$7*$F9</f>
         <v>3</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="35">
         <f t="shared" ref="L9:L11" si="14">ABS(B9-G9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="35">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="35">
         <f>SUM(L8:O11)</f>
         <v>10</v>
       </c>
@@ -4334,7 +6914,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <v>2</v>
       </c>
       <c r="C10">
@@ -4343,44 +6923,44 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>8</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="35">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="35">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="35">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="35">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -4389,53 +6969,53 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="42">
         <v>1</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="43">
         <v>5</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <v>8</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>10</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="35">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="35">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="35">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="35">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
@@ -4468,56 +7048,56 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="37">
         <v>1</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="38">
         <v>2</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="38">
         <v>3</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="39">
         <v>5</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="37">
         <v>5</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="38">
         <v>3</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="38">
         <v>2</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="40">
         <v>2</v>
       </c>
       <c r="O16">
@@ -4526,10 +7106,10 @@
       <c r="P16">
         <v>6</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="41">
         <v>7</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="40">
         <v>7</v>
       </c>
       <c r="S16">
@@ -4538,18 +7118,18 @@
       <c r="T16">
         <v>4</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="40">
         <v>3</v>
       </c>
       <c r="O17">
@@ -4558,10 +7138,10 @@
       <c r="P17">
         <v>8</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="41">
         <v>9</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="40">
         <v>9</v>
       </c>
       <c r="S17">
@@ -4570,71 +7150,71 @@
       <c r="T17">
         <v>6</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="42">
         <v>5</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="43">
         <v>7</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="43">
         <v>9</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="44">
         <v>10</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="42">
         <v>10</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="43">
         <v>9</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="43">
         <v>7</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="37">
         <v>5</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="38">
         <v>7</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="38">
         <v>9</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="39">
         <v>10</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="37">
         <v>10</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="38">
         <v>9</v>
       </c>
-      <c r="T19" s="40">
+      <c r="T19" s="38">
         <v>7</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="39">
         <v>5</v>
       </c>
     </row>
@@ -4642,7 +7222,7 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="40">
         <v>3</v>
       </c>
       <c r="O20">
@@ -4651,10 +7231,10 @@
       <c r="P20">
         <v>8</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="41">
         <v>9</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="40">
         <v>9</v>
       </c>
       <c r="S20">
@@ -4663,7 +7243,7 @@
       <c r="T20">
         <v>6</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="41">
         <v>3</v>
       </c>
     </row>
@@ -4671,7 +7251,7 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="40">
         <v>2</v>
       </c>
       <c r="O21">
@@ -4680,10 +7260,10 @@
       <c r="P21">
         <v>6</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="41">
         <v>7</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="40">
         <v>7</v>
       </c>
       <c r="S21">
@@ -4692,7 +7272,7 @@
       <c r="T21">
         <v>4</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="41">
         <v>2</v>
       </c>
     </row>
@@ -4700,28 +7280,28 @@
       <c r="M22">
         <v>7</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="42">
         <v>1</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="43">
         <v>2</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="43">
         <v>3</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="44">
         <v>5</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="42">
         <v>5</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="43">
         <v>3</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="43">
         <v>2</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4729,4 +7309,468 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC3B890-D025-4C7A-9280-64B46AC8BAEA}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>225</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="0">B4/B3</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="64">
+        <f>28030/38</f>
+        <v>737.63157894736844</v>
+      </c>
+      <c r="G4" s="61" t="e">
+        <f>F4/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="64">
+        <f>14620/38</f>
+        <v>384.73684210526318</v>
+      </c>
+      <c r="G5" s="61">
+        <f t="shared" ref="G5:G8" si="1">F5/F4</f>
+        <v>0.52158401712450952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="64">
+        <f>26500/38</f>
+        <v>697.36842105263156</v>
+      </c>
+      <c r="G6" s="61">
+        <f t="shared" si="1"/>
+        <v>1.8125854993160053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="64">
+        <f>112660/38</f>
+        <v>2964.7368421052633</v>
+      </c>
+      <c r="G7" s="61">
+        <f t="shared" si="1"/>
+        <v>4.2513207547169811</v>
+      </c>
+      <c r="H7">
+        <f>60000/F7</f>
+        <v>20.237883898455529</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>61000</v>
+      </c>
+      <c r="C8">
+        <f>B8/B7</f>
+        <v>12.2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64">
+        <f>749520/38</f>
+        <v>19724.21052631579</v>
+      </c>
+      <c r="G8" s="61">
+        <f t="shared" si="1"/>
+        <v>6.6529380436712229</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>B8*C9</f>
+        <v>1464000</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="65">
+        <f>F8*G9</f>
+        <v>168007.00690191079</v>
+      </c>
+      <c r="G9" s="62">
+        <v>8.5178064124674595</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B12" si="2">B9*C10</f>
+        <v>70272000</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="65">
+        <f t="shared" ref="F10:F12" si="3">F9*G10</f>
+        <v>1781056.7532940013</v>
+      </c>
+      <c r="G10" s="62">
+        <v>10.6010861459716</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>6746112000</v>
+      </c>
+      <c r="C11">
+        <f>C10*2</f>
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="3"/>
+        <v>22591575.510892201</v>
+      </c>
+      <c r="G11" s="62">
+        <v>12.684365879475701</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1295253504000</v>
+      </c>
+      <c r="C12">
+        <f>C11*2</f>
+        <v>192</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="65">
+        <f t="shared" si="3"/>
+        <v>333624380.98372912</v>
+      </c>
+      <c r="G12" s="62">
+        <v>14.7676456129798</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="1"/>
+      <c r="K16" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3746B978-0F79-44BF-8109-FDF69EC34915}">
+  <dimension ref="B2:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\Chess-Challange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956F27B-A5D6-427A-A376-E63268252190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187273E5-17C0-4D87-967E-3AF30BCACE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="457" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="554" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparation" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Ideas" sheetId="3" r:id="rId3"/>
     <sheet name="Depth vs Breadth" sheetId="4" r:id="rId4"/>
     <sheet name="Position array" sheetId="5" r:id="rId5"/>
+    <sheet name="Timer" sheetId="6" r:id="rId6"/>
+    <sheet name="debug" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Position array'!$D$12:$D$13</definedName>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="268">
   <si>
     <t>Random</t>
   </si>
@@ -142,18 +144,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>872/1024</t>
@@ -475,9 +465,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>1028-1059</t>
-  </si>
-  <si>
     <t>reduced brain
 results vs V4</t>
   </si>
@@ -503,9 +490,6 @@
     <t>+= ?</t>
   </si>
   <si>
-    <t>948-810</t>
-  </si>
-  <si>
     <t>3-c</t>
   </si>
   <si>
@@ -548,9 +532,6 @@
     <t>1014</t>
   </si>
   <si>
-    <t>1058-904</t>
-  </si>
-  <si>
     <t>+- ?</t>
   </si>
   <si>
@@ -558,9 +539,6 @@
   </si>
   <si>
     <t>V5.5</t>
-  </si>
-  <si>
-    <t>1038-1060</t>
   </si>
   <si>
     <t>668</t>
@@ -586,9 +564,6 @@
 depth 4-&gt;5</t>
   </si>
   <si>
-    <t>1246-1263</t>
-  </si>
-  <si>
     <t>advanced pawn</t>
   </si>
   <si>
@@ -666,6 +641,238 @@
   </si>
   <si>
     <t>V7.0</t>
+  </si>
+  <si>
+    <t>Breadth \ Depth</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>30 sec</t>
+  </si>
+  <si>
+    <t>90 sec</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>no advanced pawn
+new breadth /6</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>no advanced pawn
+new breadth /8</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Rank Mutiplier</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Time value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time and value</t>
+  </si>
+  <si>
+    <t>White plan</t>
+  </si>
+  <si>
+    <t>think more</t>
+  </si>
+  <si>
+    <t>think less</t>
+  </si>
+  <si>
+    <t>Value diff</t>
+  </si>
+  <si>
+    <t>Time diff</t>
+  </si>
+  <si>
+    <t>Time matchwise</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>take biggest depth according to timediff</t>
+  </si>
+  <si>
+    <t>if current time &gt; 33% match time, depth++</t>
+  </si>
+  <si>
+    <t>else do normal</t>
+  </si>
+  <si>
+    <t>time management
+V1</t>
+  </si>
+  <si>
+    <t>vs V6 (no bradth)</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>1 Game Over: WhiteIllegalMove MyBot EvilBot</t>
+  </si>
+  <si>
+    <t>vs V6</t>
+  </si>
+  <si>
+    <t>time management
+V2</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>An error occurred while bot was thinking.</t>
+  </si>
+  <si>
+    <t>System.IndexOutOfRangeException: Index was outside the bounds of the array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   at ChessChallenge.Application.APIHelpers.APIMoveGen.GenerateKnightMoves(Span`1 moves) in D:\MyDesktop\Chess-Challange\Chess-Challenge\src\Framework\Application\Helpers\API Helpers\APIMoveGen.cs:line 278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   at ChessChallenge.Application.APIHelpers.APIMoveGen.GenerateMoves(Span`1&amp; moves, Board board, Boolean includeQuietMoves) in D:\MyDesktop\Chess-Challange\Chess-Challenge\src\Framework\Application\Helpers\API Helpers\APIMoveGen.cs:line 104   at MyBot.DeepThink(Timer timer, Double alfa, Double beta, Int32 player) in D:\MyDesktop\Chess-Challange\Chess-Challenge\src\My Bot\MyBot.cs:line 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   at MyBot.Think(Board board, Timer timer) in D:\MyDesktop\Chess-Challange\Chess-Challenge\src\My Bot\MyBot.cs:line 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   at ChessChallenge.Application.ChallengeController.GetBotMove() in D:\MyDesktop\Chess-Challange\Chess-Challenge\src\Framework\Application\Core\ChallengeController.cs:line 150</t>
+  </si>
+  <si>
+    <t>Illegal move: Null in position: rnbqkbnr/pppppppp/8/8/8/8/PPPPPPPP/RNBQKBNR w KQkq - 0 1</t>
+  </si>
+  <si>
+    <t>Unhandled exception. System.IndexOutOfRangeException: Index was outside the bounds of the array.</t>
+  </si>
+  <si>
+    <t>--- End of stack trace from previous location ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   at ChessChallenge.Application.ChallengeController.Update() in D:\MyDesktop\Chess-Challange\Chess-Challenge\src\Framework\Application\Core\ChallengeController.cs:line 385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   at ChessChallenge.Application.Program.Main() in D:\MyDesktop\Chess-Challange\Chess-Challenge\src\Framework\Application\Core\Program.cs:line 40</t>
+  </si>
+  <si>
+    <t>D:\MyDesktop\Chess-Challange\Chess-Challenge\bin\Release\net6.0\Chess-Challenge.exe (process 19748) exited with code -532462766.</t>
+  </si>
+  <si>
+    <t>Press any key to close this window . . .</t>
+  </si>
+  <si>
+    <t>move span</t>
   </si>
 </sst>
 </file>
@@ -770,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -858,13 +1065,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,12 +1141,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -984,9 +1222,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,15 +1231,40 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1309,10 +1569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE22:AE23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,15 +1583,14 @@
     <col min="1" max="1" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="27.21875" style="7" customWidth="1"/>
     <col min="13" max="13" width="14" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10.21875" style="7" hidden="1" customWidth="1"/>
@@ -1345,10 +1607,14 @@
     <col min="26" max="26" width="12.6640625" style="7" customWidth="1"/>
     <col min="27" max="27" width="10.44140625" style="7" customWidth="1"/>
     <col min="28" max="28" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="7"/>
+    <col min="29" max="29" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33" style="7" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1356,49 +1622,55 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="Y1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="Y1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1406,145 +1678,169 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>133</v>
+      <c r="H2" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>173</v>
+      <c r="J2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="T2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="27">
+        <v>1097</v>
+      </c>
+      <c r="N3" s="27">
+        <v>1088</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1088</v>
+      </c>
+      <c r="P3" s="26">
+        <v>995</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>1088</v>
+      </c>
+      <c r="R3" s="26">
+        <v>977</v>
+      </c>
+      <c r="S3" s="26">
+        <v>977</v>
+      </c>
+      <c r="T3" s="26">
+        <v>1070</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="W3" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3" s="29">
-        <v>1097</v>
-      </c>
-      <c r="N3" s="29">
-        <v>1088</v>
-      </c>
-      <c r="O3" s="29">
-        <v>1088</v>
-      </c>
-      <c r="P3" s="28">
-        <v>995</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>1088</v>
-      </c>
-      <c r="R3" s="28">
-        <v>977</v>
-      </c>
-      <c r="S3" s="28">
-        <v>977</v>
-      </c>
-      <c r="T3" s="28">
-        <v>1070</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="28">
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="26">
         <v>1054</v>
       </c>
-      <c r="AB3" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="AB3" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1554,981 +1850,2346 @@
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>172</v>
+        <v>133</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="31">
+      <c r="AA4" s="29">
         <v>1</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="AC4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="29">
+        <v>3</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1038</v>
+      </c>
+      <c r="L6" s="29">
+        <v>1246</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="31" t="s">
+      <c r="P6" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
+      <c r="W6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>948</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1060</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1263</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="AA7" s="29">
+        <v>810</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="1">
         <v>38</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G8" s="1">
         <v>17</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H8" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I8" s="1">
         <v>21</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J8" s="1">
         <v>20</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K8" s="1">
         <v>15</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L8" s="1">
         <v>28</v>
-      </c>
-      <c r="M6" s="1">
-        <v>16</v>
-      </c>
-      <c r="N6" s="1">
-        <v>18</v>
-      </c>
-      <c r="O6" s="1">
-        <v>15</v>
-      </c>
-      <c r="P6" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>14</v>
-      </c>
-      <c r="R6" s="1">
-        <v>13</v>
-      </c>
-      <c r="S6" s="1">
-        <v>19</v>
-      </c>
-      <c r="T6" s="1">
-        <v>21</v>
-      </c>
-      <c r="U6" s="1">
-        <v>15</v>
-      </c>
-      <c r="V6" s="1">
-        <v>16</v>
-      </c>
-      <c r="W6" s="1">
-        <v>16</v>
-      </c>
-      <c r="X6" s="1">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>6</v>
-      </c>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1">
-        <v>3</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3</v>
-      </c>
-      <c r="U7" s="1">
-        <v>3</v>
-      </c>
-      <c r="V7" s="1">
-        <v>6</v>
-      </c>
-      <c r="W7" s="1">
-        <v>3</v>
-      </c>
-      <c r="X7" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
       </c>
       <c r="M8" s="1">
         <v>16</v>
       </c>
       <c r="N8" s="1">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1">
         <v>15</v>
       </c>
-      <c r="O8" s="1">
-        <v>18</v>
-      </c>
       <c r="P8" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="1">
+        <v>14</v>
+      </c>
+      <c r="R8" s="1">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1">
         <v>19</v>
       </c>
-      <c r="R8" s="1">
-        <v>19</v>
-      </c>
-      <c r="S8" s="1">
-        <v>16</v>
-      </c>
       <c r="T8" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U8" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V8" s="1">
         <v>16</v>
       </c>
       <c r="W8" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X8" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Y8" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="1">
         <v>16</v>
       </c>
       <c r="AA8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>16</v>
+      </c>
+      <c r="N10" s="1">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1">
+        <v>18</v>
+      </c>
+      <c r="P10" s="1">
         <v>17</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="Q10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
+      <c r="R10" s="1">
+        <v>19</v>
+      </c>
+      <c r="S10" s="1">
+        <v>16</v>
+      </c>
+      <c r="T10" s="1">
+        <v>14</v>
+      </c>
+      <c r="U10" s="1">
+        <v>20</v>
+      </c>
+      <c r="V10" s="1">
+        <v>16</v>
+      </c>
+      <c r="W10" s="1">
+        <v>19</v>
+      </c>
+      <c r="X10" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23">
-        <f t="shared" ref="E9:G9" si="0">SUM(E6:E8)</f>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11:G11" si="0">SUM(E8:E10)</f>
         <v>38</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F11" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H9" s="23">
-        <f>SUM(H6:H8)</f>
+      <c r="H11" s="21">
+        <f>SUM(H8:H10)</f>
         <v>38</v>
       </c>
-      <c r="I9" s="32">
-        <f>SUM(I6:I8)</f>
+      <c r="I11" s="30">
+        <f>SUM(I8:I10)</f>
         <v>38</v>
       </c>
-      <c r="J9" s="23">
-        <f t="shared" ref="J9" si="1">SUM(J6:J8)</f>
+      <c r="J11" s="21">
+        <f t="shared" ref="J11" si="1">SUM(J8:J10)</f>
         <v>38</v>
       </c>
-      <c r="K9" s="32">
-        <f t="shared" ref="K9:L9" si="2">SUM(K6:K8)</f>
+      <c r="K11" s="30">
+        <f t="shared" ref="K11:L11" si="2">SUM(K8:K10)</f>
         <v>38</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L11" s="30">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="M9" s="23">
-        <f t="shared" ref="M9" si="3">SUM(M6:M8)</f>
+      <c r="M11" s="21">
+        <f t="shared" ref="M11" si="3">SUM(M8:M10)</f>
         <v>38</v>
       </c>
-      <c r="N9" s="23">
-        <f t="shared" ref="N9" si="4">SUM(N6:N8)</f>
+      <c r="N11" s="21">
+        <f t="shared" ref="N11" si="4">SUM(N8:N10)</f>
         <v>38</v>
       </c>
-      <c r="O9" s="23">
-        <f t="shared" ref="O9" si="5">SUM(O6:O8)</f>
+      <c r="O11" s="21">
+        <f t="shared" ref="O11" si="5">SUM(O8:O10)</f>
         <v>38</v>
       </c>
-      <c r="P9" s="23">
-        <f t="shared" ref="P9" si="6">SUM(P6:P8)</f>
+      <c r="P11" s="21">
+        <f t="shared" ref="P11" si="6">SUM(P8:P10)</f>
         <v>38</v>
       </c>
-      <c r="Q9" s="23">
-        <f t="shared" ref="Q9" si="7">SUM(Q6:Q8)</f>
+      <c r="Q11" s="21">
+        <f t="shared" ref="Q11" si="7">SUM(Q8:Q10)</f>
         <v>38</v>
       </c>
-      <c r="R9" s="23">
-        <f t="shared" ref="R9" si="8">SUM(R6:R8)</f>
+      <c r="R11" s="21">
+        <f t="shared" ref="R11" si="8">SUM(R8:R10)</f>
         <v>38</v>
       </c>
-      <c r="S9" s="23">
-        <f t="shared" ref="S9" si="9">SUM(S6:S8)</f>
+      <c r="S11" s="21">
+        <f t="shared" ref="S11" si="9">SUM(S8:S10)</f>
         <v>38</v>
       </c>
-      <c r="T9" s="23">
-        <f t="shared" ref="T9" si="10">SUM(T6:T8)</f>
+      <c r="T11" s="21">
+        <f t="shared" ref="T11" si="10">SUM(T8:T10)</f>
         <v>38</v>
       </c>
-      <c r="U9" s="23">
-        <f t="shared" ref="U9:W9" si="11">SUM(U6:U8)</f>
+      <c r="U11" s="21">
+        <f t="shared" ref="U11:W11" si="11">SUM(U8:U10)</f>
         <v>38</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V11" s="21">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W11" s="21">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="X9" s="23">
-        <f t="shared" ref="X9" si="12">SUM(X6:X8)</f>
+      <c r="X11" s="21">
+        <f t="shared" ref="X11" si="12">SUM(X8:X10)</f>
         <v>38</v>
       </c>
-      <c r="Y9" s="23">
-        <f t="shared" ref="Y9" si="13">SUM(Y6:Y8)</f>
+      <c r="Y11" s="21">
+        <f t="shared" ref="Y11" si="13">SUM(Y8:Y10)</f>
         <v>38</v>
       </c>
-      <c r="Z9" s="23">
-        <f t="shared" ref="Z9:AB9" si="14">SUM(Z6:Z8)</f>
+      <c r="Z11" s="21">
+        <f t="shared" ref="Z11" si="14">SUM(Z8:Z10)</f>
         <v>38</v>
       </c>
-      <c r="AA9" s="23">
-        <f>SUM(AA6:AA8)</f>
+      <c r="AA11" s="21">
+        <f>SUM(AA8:AA10)</f>
         <v>38</v>
       </c>
-      <c r="AB9" s="23">
-        <f t="shared" ref="AB9" si="15">SUM(AB6:AB8)</f>
+      <c r="AB11" s="21">
+        <f t="shared" ref="AB11:AC11" si="15">SUM(AB8:AB10)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="AC11" s="21">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="AD11" s="21">
+        <f t="shared" ref="AD11:AE11" si="16">SUM(AD8:AD10)</f>
+        <v>38</v>
+      </c>
+      <c r="AE11" s="21">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="AF11" s="21">
+        <f t="shared" ref="AF11" si="17">SUM(AF8:AF10)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="36">
-        <f t="shared" ref="E10:G10" si="16">(E6+E7/2)/E9</f>
+      <c r="E12" s="34">
+        <f t="shared" ref="E12:G12" si="18">(E8+E9/2)/E11</f>
         <v>1</v>
       </c>
-      <c r="F10" s="36">
-        <f t="shared" si="16"/>
+      <c r="F12" s="34">
+        <f t="shared" si="18"/>
         <v>0.86842105263157898</v>
       </c>
-      <c r="G10" s="36">
-        <f t="shared" si="16"/>
+      <c r="G12" s="34">
+        <f t="shared" si="18"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="H10" s="36">
-        <f>(H6+H7/2)/H9</f>
+      <c r="H12" s="34">
+        <f>(H8+H9/2)/H11</f>
         <v>0.56578947368421051</v>
       </c>
-      <c r="I10" s="36">
-        <f>(I6+I7/2)/I9</f>
+      <c r="I12" s="34">
+        <f>(I8+I9/2)/I11</f>
         <v>0.59210526315789469</v>
       </c>
-      <c r="J10" s="36">
-        <f t="shared" ref="J10" si="17">(J6+J7/2)/J9</f>
+      <c r="J12" s="34">
+        <f t="shared" ref="J12" si="19">(J8+J9/2)/J11</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="K10" s="36">
-        <f t="shared" ref="K10:L10" si="18">(K6+K7/2)/K9</f>
+      <c r="K12" s="34">
+        <f t="shared" ref="K12:L12" si="20">(K8+K9/2)/K11</f>
         <v>0.51315789473684215</v>
       </c>
-      <c r="L10" s="36">
-        <f t="shared" si="18"/>
+      <c r="L12" s="34">
+        <f t="shared" si="20"/>
         <v>0.80263157894736847</v>
       </c>
-      <c r="M10" s="36">
-        <f t="shared" ref="M10" si="19">(M6+M7/2)/M9</f>
+      <c r="M12" s="34">
+        <f t="shared" ref="M12" si="21">(M8+M9/2)/M11</f>
         <v>0.5</v>
       </c>
-      <c r="N10" s="36">
-        <f t="shared" ref="N10:Q10" si="20">(N6+N7/2)/N9</f>
+      <c r="N12" s="34">
+        <f t="shared" ref="N12:Q12" si="22">(N8+N9/2)/N11</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="O10" s="36">
-        <f t="shared" si="20"/>
+      <c r="O12" s="34">
+        <f t="shared" si="22"/>
         <v>0.46052631578947367</v>
       </c>
-      <c r="P10" s="36">
-        <f t="shared" si="20"/>
+      <c r="P12" s="34">
+        <f t="shared" si="22"/>
         <v>0.48684210526315791</v>
       </c>
-      <c r="Q10" s="36">
-        <f t="shared" si="20"/>
-        <v>0.43421052631578949</v>
-      </c>
-      <c r="R10" s="36">
-        <f t="shared" ref="R10:S10" si="21">(R6+R7/2)/R9</f>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="S10" s="36">
-        <f t="shared" si="21"/>
-        <v>0.53947368421052633</v>
-      </c>
-      <c r="T10" s="36">
-        <f t="shared" ref="T10:U10" si="22">(T6+T7/2)/T9</f>
-        <v>0.59210526315789469</v>
-      </c>
-      <c r="U10" s="36">
+      <c r="Q12" s="34">
         <f t="shared" si="22"/>
         <v>0.43421052631578949</v>
       </c>
-      <c r="V10" s="36">
-        <f t="shared" ref="V10" si="23">(V6+V7/2)/V9</f>
+      <c r="R12" s="34">
+        <f t="shared" ref="R12:S12" si="23">(R8+R9/2)/R11</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="S12" s="34">
+        <f t="shared" si="23"/>
+        <v>0.53947368421052633</v>
+      </c>
+      <c r="T12" s="34">
+        <f t="shared" ref="T12:U12" si="24">(T8+T9/2)/T11</f>
+        <v>0.59210526315789469</v>
+      </c>
+      <c r="U12" s="34">
+        <f t="shared" si="24"/>
+        <v>0.43421052631578949</v>
+      </c>
+      <c r="V12" s="34">
+        <f t="shared" ref="V12" si="25">(V8+V9/2)/V11</f>
         <v>0.5</v>
       </c>
-      <c r="W10" s="36">
-        <f t="shared" ref="W10:Y10" si="24">(W6+W7/2)/W9</f>
+      <c r="W12" s="34">
+        <f t="shared" ref="W12:Y12" si="26">(W8+W9/2)/W11</f>
         <v>0.46052631578947367</v>
       </c>
-      <c r="X10" s="36">
-        <f t="shared" si="24"/>
+      <c r="X12" s="34">
+        <f t="shared" si="26"/>
         <v>0.32894736842105265</v>
       </c>
-      <c r="Y10" s="36">
-        <f t="shared" si="24"/>
+      <c r="Y12" s="34">
+        <f t="shared" si="26"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="Z10" s="36">
-        <f t="shared" ref="Z10:AB10" si="25">(Z6+Z7/2)/Z9</f>
+      <c r="Z12" s="34">
+        <f t="shared" ref="Z12:AB12" si="27">(Z8+Z9/2)/Z11</f>
         <v>0.5</v>
       </c>
-      <c r="AA10" s="36">
-        <f t="shared" si="25"/>
+      <c r="AA12" s="34">
+        <f t="shared" si="27"/>
         <v>0.53947368421052633</v>
       </c>
-      <c r="AB10" s="36">
-        <f t="shared" si="25"/>
+      <c r="AB12" s="34">
+        <f t="shared" si="27"/>
         <v>0.46052631578947367</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="AC12" s="34">
+        <f t="shared" ref="AC12" si="28">(AC8+AC9/2)/AC11</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AE12" si="29">(AD8+AD9/2)/AD11</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" si="29"/>
+        <v>0.51315789473684215</v>
+      </c>
+      <c r="AF12" s="34">
+        <f t="shared" ref="AF12" si="30">(AF8+AF9/2)/AF11</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54">
+        <v>169</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54">
+        <v>218</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54">
+        <v>17</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30">
+        <f t="shared" ref="AC20:AD20" si="31">SUM(AC17:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="30">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="30">
+        <f>SUM(AE17:AE19)</f>
+        <v>38</v>
+      </c>
+      <c r="AF20" s="30">
+        <f>SUM(AF17:AF19)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34" t="e">
+        <f t="shared" ref="AC21:AD21" si="32">(AC17+AC18/2)/AC20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD21" s="34" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE21" s="34">
+        <f t="shared" ref="AE21:AF21" si="33">(AE17+AE18/2)/AE20</f>
+        <v>0.51315789473684215</v>
+      </c>
+      <c r="AF21" s="34">
+        <f t="shared" si="33"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54">
+        <v>846</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54">
+        <v>220</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54">
+        <v>3</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54">
+        <v>13</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30">
+        <f t="shared" ref="AC29:AD29" si="34">SUM(AC26:AC28)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="30">
+        <f t="shared" ref="AE29:AF29" si="35">SUM(AE26:AE28)</f>
+        <v>38</v>
+      </c>
+      <c r="AF29" s="30">
+        <f t="shared" si="35"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34" t="e">
+        <f t="shared" ref="AC30:AD30" si="36">(AC26+AC27/2)/AC29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="34" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="34">
+        <f t="shared" ref="AE30:AF30" si="37">(AE26+AE27/2)/AE29</f>
+        <v>0.61842105263157898</v>
+      </c>
+      <c r="AF30" s="34">
+        <f t="shared" si="37"/>
+        <v>0.69736842105263153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="53">
+        <f>AC22+AC13+AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="53">
+        <f>AD22+AD13+AD4</f>
+        <v>4</v>
+      </c>
+      <c r="AE31" s="53">
+        <f>AE22+AE13+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="53">
+        <f>AF22+AF13+AF4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="2"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="53">
+        <f t="shared" ref="AC32:AD33" si="38">AC23+AC14+AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="53">
+        <f>AD23+AD14+AD4</f>
+        <v>4</v>
+      </c>
+      <c r="AE32" s="55">
+        <f>AE23+AE14+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="55">
+        <f>AF23+AF14+AF4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="53">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="53">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="55">
+        <f>AE24+AE15+AE6</f>
+        <v>1550</v>
+      </c>
+      <c r="AF33" s="55">
+        <f>AF24+AF15+AF6</f>
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="53">
+        <f>AC25+AC16+AC6</f>
+        <v>716</v>
+      </c>
+      <c r="AD34" s="53">
+        <f>AD25+AD16+AD6</f>
+        <v>1620</v>
+      </c>
+      <c r="AE34" s="55">
+        <f>AE25+AE16+AE7</f>
+        <v>638</v>
+      </c>
+      <c r="AF34" s="55">
+        <f>AF25+AF16+AF7</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="53">
+        <f t="shared" ref="AC35:AD37" si="39">AC26+AC17+AC8</f>
+        <v>22</v>
+      </c>
+      <c r="AD35" s="53">
+        <f t="shared" si="39"/>
+        <v>25</v>
+      </c>
+      <c r="AE35" s="53">
+        <f t="shared" ref="AE35:AF35" si="40">AE26+AE17+AE8</f>
+        <v>55</v>
+      </c>
+      <c r="AF35" s="53">
+        <f t="shared" si="40"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="53">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AD36" s="53">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AE36" s="53">
+        <f t="shared" ref="AE36:AF36" si="41">AE27+AE18+AE9</f>
+        <v>15</v>
+      </c>
+      <c r="AF36" s="53">
+        <f t="shared" si="41"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="53">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="AD37" s="53">
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="AE37" s="53">
+        <f>AE28+AE19+AE10</f>
+        <v>44</v>
+      </c>
+      <c r="AF37" s="53">
+        <f>AF28+AF19+AF10</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="21">
+        <f t="shared" ref="AC38:AD38" si="42">SUM(AC35:AC37)</f>
+        <v>38</v>
+      </c>
+      <c r="AD38" s="21">
+        <f t="shared" si="42"/>
+        <v>38</v>
+      </c>
+      <c r="AE38" s="21">
+        <f t="shared" ref="AE38:AF38" si="43">SUM(AE35:AE37)</f>
+        <v>114</v>
+      </c>
+      <c r="AF38" s="21">
+        <f t="shared" si="43"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34">
+        <f t="shared" ref="AC39:AD39" si="44">(AC35+AC36/2)/AC38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="AD39" s="34">
+        <f t="shared" si="44"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AE39" s="34">
+        <f>(AE35+AE36/2)/AE38</f>
+        <v>0.54824561403508776</v>
+      </c>
+      <c r="AF39" s="34">
+        <f>(AF35+AF36/2)/AF38</f>
+        <v>0.57017543859649122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="49"/>
-      <c r="Z11" s="20" t="s">
+      <c r="N40" s="46"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="Z40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AA40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C41" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="54"/>
-      <c r="Z12" s="7" t="s">
+      <c r="R41" s="23"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="23"/>
+      <c r="Z41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA12" s="7" t="s">
+      <c r="AA41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V42" s="48"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA42" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA44" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K11:L22 P20:P22 A11:P19 A20:O20 Q11:XFD20">
+  <conditionalFormatting sqref="A40:P48 Q40:XFD49 K40:L51 A49:O49 P49:P51">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>LEFT(A11,1)="-"</formula>
+      <formula>LEFT(A40,1)="-"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>LEFT(A11,1)="="</formula>
+      <formula>LEFT(A40,1)="="</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>LEFT(A11,1)="+"</formula>
+      <formula>LEFT(A40,1)="+"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2541,7 +4202,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2558,287 +4219,287 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2865,87 +4526,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>141</v>
+      <c r="A7" s="36" t="s">
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2956,948 +4617,1867 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CAB14C-A094-4A3E-9DDA-981C7296CEB7}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.33203125" style="13"/>
+    <col min="1" max="1" width="11.33203125" style="13"/>
+    <col min="2" max="2" width="16.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+    <row r="1" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="15">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15">
         <v>5</v>
       </c>
-      <c r="C1" s="12">
+      <c r="E1" s="15">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15">
+        <v>7</v>
+      </c>
+      <c r="G1" s="15">
+        <v>8</v>
+      </c>
+      <c r="H1" s="15">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15">
         <v>10</v>
       </c>
-      <c r="D1" s="12">
-        <v>15</v>
-      </c>
-      <c r="E1" s="12">
-        <v>20</v>
-      </c>
-      <c r="F1" s="12">
-        <v>25</v>
-      </c>
-      <c r="G1" s="12">
-        <v>30</v>
-      </c>
-      <c r="H1" s="12">
-        <v>35</v>
-      </c>
-      <c r="I1" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14">
-        <f>B$1^$A2</f>
-        <v>5</v>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="12">
+        <v>4</v>
       </c>
       <c r="C2" s="14">
-        <f t="shared" ref="C2:I11" si="0">C$1^$A2</f>
-        <v>10</v>
+        <f t="shared" ref="C2:I11" si="0">$B2^C$1</f>
+        <v>256</v>
       </c>
       <c r="D2" s="14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1024</v>
       </c>
       <c r="E2" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>4096</v>
       </c>
       <c r="F2" s="14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>16384</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65536</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>262144</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <f t="shared" ref="B3:B11" si="1">B$1^$A3</f>
-        <v>25</v>
+        <v>1048576</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
+        <v>8</v>
       </c>
       <c r="C3" s="14">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>4096</v>
       </c>
       <c r="D3" s="14">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>32768</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>262144</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>2097152</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>16777216</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>134217728</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <v>1073741824</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="12">
+        <v>12</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>20736</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" si="0"/>
-        <v>3375</v>
+        <v>248832</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>2985984</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="0"/>
-        <v>15625</v>
+        <v>35831808</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>429981696</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="0"/>
-        <v>42875</v>
+        <v>5159780352</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="0"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14">
-        <f t="shared" si="1"/>
-        <v>625</v>
+        <v>61917364224</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>16</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>65536</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>50625</v>
+        <v>1048576</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>16777216</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>390625</v>
+        <v>268435456</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>810000</v>
+        <v>4294967296</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="0"/>
-        <v>1500625</v>
+        <v>68719476736</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>2560000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14">
-        <f t="shared" si="1"/>
-        <v>3125</v>
+        <v>1099511627776</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>20</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>759375</v>
-      </c>
-      <c r="E6" s="13">
+        <v>160000</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="0"/>
         <v>3200000</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>9765625</v>
-      </c>
-      <c r="G6" s="13">
+        <v>64000000</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>24300000</v>
-      </c>
-      <c r="H6" s="13">
+        <v>1280000000</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>52521875</v>
-      </c>
-      <c r="I6" s="13">
+        <v>25600000000</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>512000000000</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>10240000000000</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>331776</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>7962624</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>191102976</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>4586471424</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>110075314176</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>2641807540224</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>63403380965376</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>614656</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>17210368</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>481890304</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>13492928512</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>377801998336</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>10578455953408</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>296196766695424</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>34359738368</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>1099511627776</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>35184372088832</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>1125899906842624</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>1679616</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>60466176</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>2176782336</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>78364164096</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>2821109907456</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>101559956668416</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>3656158440062976</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>2560000</v>
+      </c>
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>102400000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
-        <f t="shared" si="1"/>
-        <v>15625</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="0"/>
-        <v>11390625</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>64000000</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>244140625</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="0"/>
-        <v>729000000</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="0"/>
-        <v>1838265625</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>4096000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14">
-        <f t="shared" si="1"/>
-        <v>78125</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>170859375</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>1280000000</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>6103515625</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>21870000000</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="0"/>
-        <v>64339296875</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>163840000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <f t="shared" si="1"/>
-        <v>390625</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>100000000</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>2562890625</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>25600000000</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>152587890625</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>656100000000</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="0"/>
-        <v>2251875390625</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>6553600000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15">
-        <f t="shared" si="1"/>
-        <v>1953125</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>38443359375</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>512000000000</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="0"/>
-        <v>3814697265625</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>19683000000000</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="0"/>
-        <v>78815638671875</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>262144000000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15">
-        <f t="shared" si="1"/>
-        <v>9765625</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" si="0"/>
-        <v>10000000000</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>576650390625</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>10240000000000</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>95367431640625</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>590490000000000</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>2758547353515625</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>1.048576E+16</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:I26" si="1">$B12^C$1</f>
+        <v>3748096</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="1"/>
+        <v>164916224</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>7256313856</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>319277809664</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>14048223625216</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>618121839509504</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7197360938418176E+16</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>48</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="1"/>
+        <v>5308416</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>254803968</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="1"/>
+        <v>12230590464</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>587068342272</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>28179280429056</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>1352605460594688</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
+        <v>6.4925062108545024E+16</v>
+      </c>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
+        <v>52</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="1"/>
+        <v>7311616</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="1"/>
+        <v>380204032</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="1"/>
+        <v>19770609664</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>1028071702528</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>53459728531456</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>2779905883635712</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4455510594905702E+17</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="1"/>
+        <v>9834496</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="1"/>
+        <v>550731776</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="1"/>
+        <v>30840979456</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>1727094849536</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>96717311574016</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>5416169448144896</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>3.0330548909611418E+17</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" si="1"/>
+        <v>12960000</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="1"/>
+        <v>777600000</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="1"/>
+        <v>46656000000</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>2799360000000</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>167961600000000</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0077696E+16</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>6.0466176E+17</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>64</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="1"/>
+        <v>1073741824</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="1"/>
+        <v>68719476736</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>4398046511104</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>281474976710656</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>68</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="1"/>
+        <v>21381376</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="1"/>
+        <v>1453933568</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="1"/>
+        <v>98867482624</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>6722988818432</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>457163239653376</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1087100296429568E+16</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1139228201572106E+18</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>72</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="1"/>
+        <v>26873856</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="1"/>
+        <v>1934917632</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="1"/>
+        <v>139314069504</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="1"/>
+        <v>10030613004288</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>722204136308736</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>5.1998697814228992E+16</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7439062426244874E+18</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>76</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="1"/>
+        <v>33362176</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="1"/>
+        <v>2535525376</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="1"/>
+        <v>192699928576</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="1"/>
+        <v>14645194571776</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>1113034787454976</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>8.4590643846578176E+16</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>6.4288889323399414E+18</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>80</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="1"/>
+        <v>40960000</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="1"/>
+        <v>3276800000</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="1"/>
+        <v>262144000000</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
+        <v>20971520000000</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>1677721600000000</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.34217728E+17</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.073741824E+19</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>84</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="1"/>
+        <v>49787136</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="1"/>
+        <v>4182119424</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="1"/>
+        <v>351298031616</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="1"/>
+        <v>29509034655744</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="1"/>
+        <v>2478758911082496</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="1"/>
+        <v>2.0821574853092966E+17</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7490122876598092E+19</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>88</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="1"/>
+        <v>59969536</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="1"/>
+        <v>5277319168</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="1"/>
+        <v>464404086784</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>40867559636992</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="1"/>
+        <v>3596345248055296</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1647838182886605E+17</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7850097600940212E+19</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>92</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="1"/>
+        <v>71639296</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="1"/>
+        <v>6590815232</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="1"/>
+        <v>606355001344</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>55784660123648</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="1"/>
+        <v>5132188731375616</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="1"/>
+        <v>4.7216136328655667E+17</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>4.3438845422363214E+19</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>96</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="1"/>
+        <v>84934656</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="1"/>
+        <v>8153726976</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="1"/>
+        <v>782757789696</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="1"/>
+        <v>75144747810816</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="1"/>
+        <v>7213895789838336</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="1"/>
+        <v>6.9253399582448026E+17</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>6.6483263599150105E+19</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>100</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="1"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+16</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+18</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="E28" s="15">
         <v>6</v>
       </c>
-      <c r="D14" s="12">
+      <c r="F28" s="15">
         <v>7</v>
       </c>
-      <c r="E14" s="17">
+      <c r="G28" s="15">
         <v>8</v>
       </c>
-      <c r="F14" s="12">
+      <c r="H28" s="15">
         <v>9</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I28" s="15">
         <v>10</v>
       </c>
-      <c r="H14" s="12">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12">
+        <f>MIN(5,B2)+B2/6</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" ref="C29:I38" si="2">$B29^C$1</f>
+        <v>474.27160493827182</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="2"/>
+        <v>2213.2674897119355</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="2"/>
+        <v>10328.5816186557</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="2"/>
+        <v>48200.047553726603</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="2"/>
+        <v>224933.55525072417</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="2"/>
+        <v>1049689.9245033795</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="2"/>
+        <v>4898552.9810157716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12">
+        <f t="shared" ref="B30:B53" si="3">MIN(5,B3)+B3/6</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" si="2"/>
+        <v>1608.9012345679009</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="2"/>
+        <v>10189.707818930039</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="2"/>
+        <v>64534.816186556905</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="2"/>
+        <v>408720.50251486042</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="2"/>
+        <v>2588563.1825941158</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="2"/>
+        <v>16394233.489762733</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="2"/>
+        <v>103830145.43516397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>12</v>
+      </c>
+      <c r="B31" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" si="2"/>
+        <v>2401</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="2"/>
+        <v>16807</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="2"/>
+        <v>117649</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="2"/>
+        <v>823543</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="2"/>
+        <v>5764801</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="2"/>
+        <v>40353607</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="2"/>
+        <v>282475249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>16</v>
+      </c>
+      <c r="B32" s="12">
+        <f t="shared" si="3"/>
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" si="2"/>
+        <v>3454.8271604938263</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="2"/>
+        <v>26487.008230452666</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="2"/>
+        <v>203067.06310013711</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="2"/>
+        <v>1556847.4837677178</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="2"/>
+        <v>11935830.708885835</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="2"/>
+        <v>91508035.434791401</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="2"/>
+        <v>701561605.00006735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" si="2"/>
+        <v>4822.5308641975325</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="2"/>
+        <v>40187.757201646105</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="2"/>
+        <v>334897.97668038425</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="2"/>
+        <v>2790816.4723365353</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="2"/>
+        <v>23256803.936137799</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="2"/>
+        <v>193806699.46781501</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="2"/>
+        <v>1615055828.8984585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>24</v>
+      </c>
+      <c r="B34" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="14">
+        <f t="shared" si="2"/>
+        <v>6561</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="2"/>
+        <v>59049</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="2"/>
+        <v>531441</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="2"/>
+        <v>4782969</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="2"/>
+        <v>43046721</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="2"/>
+        <v>387420489</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="2"/>
+        <v>3486784401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>28</v>
+      </c>
+      <c r="B35" s="12">
+        <f t="shared" si="3"/>
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" si="2"/>
+        <v>8731.8641975308692</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="2"/>
+        <v>84408.020576131748</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="2"/>
+        <v>815944.19890260696</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="2"/>
+        <v>7887460.5893918686</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="2"/>
+        <v>76245452.364121407</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="2"/>
+        <v>737039372.85317373</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="2"/>
+        <v>7124713937.5806799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
+      <c r="B36" s="12">
+        <f t="shared" si="3"/>
+        <v>10.333333333333332</v>
+      </c>
+      <c r="C36" s="14">
+        <f t="shared" si="2"/>
+        <v>11401.49382716049</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="2"/>
+        <v>117815.43621399171</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="2"/>
+        <v>1217426.1742112476</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="2"/>
+        <v>12580070.466849556</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="2"/>
+        <v>129994061.49077874</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="2"/>
+        <v>1343271968.7380469</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="2"/>
+        <v>13880477010.29315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I14" s="12">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="C37" s="14">
+        <f t="shared" si="2"/>
+        <v>14641</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="2"/>
+        <v>161051</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="2"/>
+        <v>1771561</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="2"/>
+        <v>19487171</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="2"/>
+        <v>214358881</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="2"/>
+        <v>2357947691</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>25937424601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>40</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="3"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="C38" s="14">
+        <f t="shared" si="2"/>
+        <v>18526.234567901243</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="2"/>
+        <v>216139.4032921812</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="2"/>
+        <v>2521626.3717421144</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="2"/>
+        <v>29418974.336991336</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="2"/>
+        <v>343221367.26489896</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="2"/>
+        <v>4004249284.7571549</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="2"/>
+        <v>46716241655.500145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>44</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" si="3"/>
+        <v>12.333333333333332</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" ref="C39:I53" si="4">$B39^C$1</f>
+        <v>23137.790123456783</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" si="4"/>
+        <v>285366.07818930031</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="4"/>
+        <v>3519514.9643347035</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="4"/>
+        <v>43407351.226794668</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="4"/>
+        <v>535357331.79713428</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="4"/>
+        <v>6602740425.4979887</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="4"/>
+        <v>81433798581.141861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="51">
+        <v>48</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K14" s="12">
-        <v>14</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="C40" s="14">
+        <f t="shared" si="4"/>
+        <v>28561</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" si="4"/>
+        <v>371293</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="4"/>
+        <v>4826809</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="4"/>
+        <v>62748517</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="4"/>
+        <v>815730721</v>
+      </c>
+      <c r="H40" s="14">
+        <f t="shared" si="4"/>
+        <v>10604499373</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="4"/>
+        <v>137858491849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="51">
+        <v>52</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="4"/>
+        <v>34885.938271604937</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" si="4"/>
+        <v>476774.48971193412</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="4"/>
+        <v>6515918.0260630995</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="4"/>
+        <v>89050879.689529032</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="4"/>
+        <v>1217028689.09023</v>
+      </c>
+      <c r="H41" s="14">
+        <f t="shared" si="4"/>
+        <v>16632725417.566475</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="4"/>
+        <v>227313914040.07516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>56</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" si="3"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="C42" s="14">
+        <f t="shared" si="4"/>
+        <v>42207.419753086426</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" si="4"/>
+        <v>604973.01646090543</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="4"/>
+        <v>8671279.9026063122</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="4"/>
+        <v>124288345.27069047</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="4"/>
+        <v>1781466282.2132301</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="4"/>
+        <v>25534350045.056301</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="4"/>
+        <v>365992350645.80695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>60</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14">
-        <f>B$14^$A15</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:L15" si="2">C$14^$A15</f>
-        <v>6</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14">
-        <f t="shared" ref="B16:L24" si="3">B$14^$A16</f>
-        <v>25</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="C43" s="14">
+        <f t="shared" si="4"/>
+        <v>50625</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" si="4"/>
+        <v>759375</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="4"/>
+        <v>11390625</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="4"/>
+        <v>170859375</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="4"/>
+        <v>2562890625</v>
+      </c>
+      <c r="H43" s="14">
+        <f t="shared" si="4"/>
+        <v>38443359375</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="4"/>
+        <v>576650390625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>64</v>
+      </c>
+      <c r="B44" s="12">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="D16" s="14">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="C44" s="14">
+        <f t="shared" si="4"/>
+        <v>60242.975308641966</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="4"/>
+        <v>943806.61316872411</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="4"/>
+        <v>14786303.60631001</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="4"/>
+        <v>231652089.83219016</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="4"/>
+        <v>3629216074.0376453</v>
+      </c>
+      <c r="H44" s="14">
+        <f t="shared" si="4"/>
+        <v>56857718493.256439</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="4"/>
+        <v>890770923061.01758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>68</v>
+      </c>
+      <c r="B45" s="12">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="E16" s="14">
+        <v>16.333333333333336</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" si="4"/>
+        <v>71170.382716049411</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="4"/>
+        <v>1162449.5843621406</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="4"/>
+        <v>18986676.544581629</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="4"/>
+        <v>310115716.89483339</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="4"/>
+        <v>5065223375.948945</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="4"/>
+        <v>82731981807.166107</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="4"/>
+        <v>1351289036183.7134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>72</v>
+      </c>
+      <c r="B46" s="12">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="F16" s="14">
+        <v>17</v>
+      </c>
+      <c r="C46" s="14">
+        <f t="shared" si="4"/>
+        <v>83521</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="4"/>
+        <v>1419857</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="4"/>
+        <v>24137569</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="4"/>
+        <v>410338673</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="4"/>
+        <v>6975757441</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" si="4"/>
+        <v>118587876497</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="4"/>
+        <v>2015993900449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>76</v>
+      </c>
+      <c r="B47" s="12">
         <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="G16" s="14">
+        <v>17.666666666666664</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="4"/>
+        <v>97413.345679012287</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="4"/>
+        <v>1720969.1069958834</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="4"/>
+        <v>30403787.556927271</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="4"/>
+        <v>537133580.17238176</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="4"/>
+        <v>9489359916.3787422</v>
+      </c>
+      <c r="H47" s="14">
+        <f t="shared" si="4"/>
+        <v>167645358522.6911</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="4"/>
+        <v>2961734667234.209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>80</v>
+      </c>
+      <c r="B48" s="12">
         <f t="shared" si="3"/>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="C48" s="14">
+        <f t="shared" si="4"/>
+        <v>112970.67901234573</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="4"/>
+        <v>2071129.1152263386</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="4"/>
+        <v>37970700.445816211</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="4"/>
+        <v>696129508.17329729</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="4"/>
+        <v>12762374316.510452</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="4"/>
+        <v>233976862469.35831</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="4"/>
+        <v>4289575811938.2363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>84</v>
+      </c>
+      <c r="B49" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C49" s="14">
+        <f t="shared" si="4"/>
+        <v>130321</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" si="4"/>
+        <v>2476099</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="4"/>
+        <v>47045881</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="4"/>
+        <v>893871739</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="4"/>
+        <v>16983563041</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="4"/>
+        <v>322687697779</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="4"/>
+        <v>6131066257801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>88</v>
+      </c>
+      <c r="B50" s="12">
+        <f t="shared" si="3"/>
+        <v>19.666666666666664</v>
+      </c>
+      <c r="C50" s="14">
+        <f t="shared" si="4"/>
+        <v>149597.04938271595</v>
+      </c>
+      <c r="D50" s="14">
+        <f t="shared" si="4"/>
+        <v>2942075.3045267467</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="4"/>
+        <v>57860814.322359338</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="4"/>
+        <v>1137929348.3397336</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="4"/>
+        <v>22379277184.014755</v>
+      </c>
+      <c r="H50" s="14">
+        <f t="shared" si="4"/>
+        <v>440125784618.95679</v>
+      </c>
+      <c r="I50" s="14">
+        <f t="shared" si="4"/>
+        <v>8655807097506.1484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>92</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="3"/>
+        <v>20.333333333333336</v>
+      </c>
+      <c r="C51" s="14">
+        <f t="shared" si="4"/>
+        <v>170936.30864197537</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" si="4"/>
+        <v>3475704.942386833</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="4"/>
+        <v>70672667.161865607</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="4"/>
+        <v>1437010898.9579341</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="4"/>
+        <v>29219221612.144661</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" si="4"/>
+        <v>594124172780.2749</v>
+      </c>
+      <c r="I51" s="14">
+        <f t="shared" si="4"/>
+        <v>12080524846532.256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>96</v>
+      </c>
+      <c r="B52" s="12">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C52" s="14">
+        <f t="shared" si="4"/>
+        <v>194481</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="4"/>
+        <v>4084101</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="4"/>
+        <v>85766121</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="4"/>
+        <v>1801088541</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="4"/>
+        <v>37822859361</v>
+      </c>
+      <c r="H52" s="14">
+        <f t="shared" si="4"/>
+        <v>794280046581</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="4"/>
+        <v>16679880978201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>100</v>
       </c>
-      <c r="H16" s="14">
+      <c r="B53" s="12">
         <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>3</v>
-      </c>
-      <c r="B17" s="14">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="C17" s="14">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="3"/>
-        <v>343</v>
-      </c>
-      <c r="E17" s="14">
-        <f t="shared" si="3"/>
-        <v>512</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="3"/>
-        <v>729</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="3"/>
-        <v>1331</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="3"/>
-        <v>1728</v>
-      </c>
-      <c r="J17" s="14">
-        <f t="shared" si="3"/>
-        <v>2197</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="3"/>
-        <v>2744</v>
-      </c>
-      <c r="L17" s="14">
-        <f t="shared" si="3"/>
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>4</v>
-      </c>
-      <c r="B18" s="14">
-        <f t="shared" si="3"/>
-        <v>625</v>
-      </c>
-      <c r="C18" s="14">
-        <f t="shared" si="3"/>
-        <v>1296</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="3"/>
-        <v>2401</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" si="3"/>
-        <v>4096</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="3"/>
-        <v>6561</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="3"/>
-        <v>14641</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="3"/>
-        <v>20736</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="3"/>
-        <v>28561</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="3"/>
-        <v>38416</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="3"/>
-        <v>50625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>5</v>
-      </c>
-      <c r="B19" s="14">
-        <f t="shared" si="3"/>
-        <v>3125</v>
-      </c>
-      <c r="C19" s="14">
-        <f t="shared" si="3"/>
-        <v>7776</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="3"/>
-        <v>16807</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="3"/>
-        <v>32768</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="3"/>
-        <v>59049</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="3"/>
-        <v>161051</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="3"/>
-        <v>248832</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="3"/>
-        <v>371293</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="3"/>
-        <v>537824</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="3"/>
-        <v>759375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14">
-        <f t="shared" si="3"/>
-        <v>15625</v>
-      </c>
-      <c r="C20" s="14">
-        <f t="shared" si="3"/>
-        <v>46656</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="3"/>
-        <v>117649</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="3"/>
-        <v>262144</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="3"/>
-        <v>531441</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="3"/>
-        <v>1771561</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="3"/>
-        <v>2985984</v>
-      </c>
-      <c r="J20" s="16">
-        <f t="shared" si="3"/>
-        <v>4826809</v>
-      </c>
-      <c r="K20" s="16">
-        <f t="shared" si="3"/>
-        <v>7529536</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="3"/>
-        <v>11390625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14">
-        <f t="shared" si="3"/>
-        <v>78125</v>
-      </c>
-      <c r="C21" s="14">
-        <f t="shared" si="3"/>
-        <v>279936</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="3"/>
-        <v>823543</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="3"/>
-        <v>2097152</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="3"/>
-        <v>4782969</v>
-      </c>
-      <c r="G21" s="16">
-        <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="3"/>
-        <v>19487171</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" si="3"/>
-        <v>35831808</v>
-      </c>
-      <c r="J21" s="16">
-        <f t="shared" si="3"/>
-        <v>62748517</v>
-      </c>
-      <c r="K21" s="16">
-        <f t="shared" si="3"/>
-        <v>105413504</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="3"/>
-        <v>170859375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>8</v>
-      </c>
-      <c r="B22" s="14">
-        <f t="shared" si="3"/>
-        <v>390625</v>
-      </c>
-      <c r="C22" s="16">
-        <f t="shared" si="3"/>
-        <v>1679616</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="3"/>
-        <v>5764801</v>
-      </c>
-      <c r="E22" s="16">
-        <f t="shared" si="3"/>
-        <v>16777216</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="3"/>
-        <v>43046721</v>
-      </c>
-      <c r="G22" s="16">
-        <f t="shared" si="3"/>
-        <v>100000000</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="3"/>
-        <v>214358881</v>
-      </c>
-      <c r="I22" s="16">
-        <f t="shared" si="3"/>
-        <v>429981696</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="3"/>
-        <v>815730721</v>
-      </c>
-      <c r="K22" s="16">
-        <f t="shared" si="3"/>
-        <v>1475789056</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="3"/>
-        <v>2562890625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>9</v>
-      </c>
-      <c r="B23" s="16">
-        <f t="shared" si="3"/>
-        <v>1953125</v>
-      </c>
-      <c r="C23" s="16">
-        <f t="shared" si="3"/>
-        <v>10077696</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="3"/>
-        <v>40353607</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="3"/>
-        <v>134217728</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="3"/>
-        <v>387420489</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="3"/>
-        <v>1000000000</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="3"/>
-        <v>2357947691</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="3"/>
-        <v>5159780352</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="3"/>
-        <v>10604499373</v>
-      </c>
-      <c r="K23" s="16">
-        <f t="shared" si="3"/>
-        <v>20661046784</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="3"/>
-        <v>38443359375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>10</v>
-      </c>
-      <c r="B24" s="16">
-        <f t="shared" si="3"/>
-        <v>9765625</v>
-      </c>
-      <c r="C24" s="16">
-        <f t="shared" si="3"/>
-        <v>60466176</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="3"/>
-        <v>282475249</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="3"/>
-        <v>1073741824</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="3"/>
-        <v>3486784401</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="3"/>
-        <v>10000000000</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="3"/>
-        <v>25937424601</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="3"/>
-        <v>61917364224</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="3"/>
-        <v>137858491849</v>
-      </c>
-      <c r="K24" s="16">
-        <f t="shared" si="3"/>
-        <v>289254654976</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="3"/>
-        <v>576650390625</v>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="C53" s="14">
+        <f t="shared" si="4"/>
+        <v>220378.08641975315</v>
+      </c>
+      <c r="D53" s="14">
+        <f t="shared" si="4"/>
+        <v>4774858.539094652</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="4"/>
+        <v>103455268.3470508</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="4"/>
+        <v>2241530814.186101</v>
+      </c>
+      <c r="G53" s="14">
+        <f t="shared" si="4"/>
+        <v>48566500974.032188</v>
+      </c>
+      <c r="H53" s="14">
+        <f t="shared" si="4"/>
+        <v>1052274187770.6975</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" si="4"/>
+        <v>22799274068365.113</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:I26 C29:I53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="100000"/>
+        <cfvo type="num" val="200000"/>
+        <cfvo type="num" val="500000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3958,53 +6538,53 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>4</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="38">
         <v>3</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="38">
         <v>2</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="39">
         <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <f>2*($F2)*(G$1)+ABS(G$7-$F8)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="35">
         <f t="shared" ref="H2:J2" si="0">2*($F2)*(H$1)+ABS(H$7-$F8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="35">
         <f>ABS(B2-G2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="35">
         <f t="shared" ref="M2:O2" si="1">ABS(C2-H2)</f>
         <v>2</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4013,7 +6593,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <v>3</v>
       </c>
       <c r="C3">
@@ -4022,48 +6602,48 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <f t="shared" ref="G3:J3" si="2">2*($F3)*(G$1)+ABS(G$7-$F9)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <f t="shared" ref="L3:L5" si="3">ABS(B3-G3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="35">
         <f t="shared" ref="M3:M5" si="4">ABS(C3-H3)</f>
         <v>5</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="35">
         <f t="shared" ref="N3:N5" si="5">ABS(D3-I3)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="35">
         <f t="shared" ref="O3:O5" si="6">ABS(E3-J3)</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="35">
         <f>SUM(L2:O5)</f>
         <v>44</v>
       </c>
@@ -4072,7 +6652,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <v>2</v>
       </c>
       <c r="C4">
@@ -4081,44 +6661,44 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="41">
         <v>8</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="35">
         <f t="shared" ref="G4:J4" si="7">2*($F4)*(G$1)+ABS(G$7-$F10)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="35">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="35">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="35">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -4127,53 +6707,53 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>5</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <v>8</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="35">
         <f t="shared" ref="G5:J5" si="8">2*($F5)*(G$1)+ABS(G$7-$F11)</f>
         <v>3</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="35">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="35">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="35">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="35">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -4220,53 +6800,53 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <f>4-ABS(G$7-$F8)+G$7*$F8</f>
         <v>4</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="35">
         <f t="shared" ref="H8:J11" si="9">4-ABS(H$7-$F8)+H$7*$F8</f>
         <v>3</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="35">
         <f>ABS(B8-G8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="35">
         <f t="shared" ref="M8:M11" si="10">ABS(C8-H8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <f t="shared" ref="N8:N11" si="11">ABS(D8-I8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="35">
         <f t="shared" ref="O8:O11" si="12">ABS(E8-J8)</f>
         <v>0</v>
       </c>
@@ -4275,7 +6855,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <v>3</v>
       </c>
       <c r="C9">
@@ -4284,48 +6864,48 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <f t="shared" ref="G9:G11" si="13">4-ABS(G$7-$F9)+G$7*$F9</f>
         <v>3</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="35">
         <f t="shared" ref="L9:L11" si="14">ABS(B9-G9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="35">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="35">
         <f>SUM(L8:O11)</f>
         <v>10</v>
       </c>
@@ -4334,7 +6914,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <v>2</v>
       </c>
       <c r="C10">
@@ -4343,44 +6923,44 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>8</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="35">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="35">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="35">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="35">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -4389,53 +6969,53 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="42">
         <v>1</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="43">
         <v>5</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <v>8</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>10</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="35">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="35">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="35">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="35">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
@@ -4468,56 +7048,56 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="37">
         <v>1</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="38">
         <v>2</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="38">
         <v>3</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="39">
         <v>5</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="37">
         <v>5</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="38">
         <v>3</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="38">
         <v>2</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="40">
         <v>2</v>
       </c>
       <c r="O16">
@@ -4526,10 +7106,10 @@
       <c r="P16">
         <v>6</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="41">
         <v>7</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="40">
         <v>7</v>
       </c>
       <c r="S16">
@@ -4538,18 +7118,18 @@
       <c r="T16">
         <v>4</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="40">
         <v>3</v>
       </c>
       <c r="O17">
@@ -4558,10 +7138,10 @@
       <c r="P17">
         <v>8</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="41">
         <v>9</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="40">
         <v>9</v>
       </c>
       <c r="S17">
@@ -4570,71 +7150,71 @@
       <c r="T17">
         <v>6</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="42">
         <v>5</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="43">
         <v>7</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="43">
         <v>9</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="44">
         <v>10</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="42">
         <v>10</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="43">
         <v>9</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="43">
         <v>7</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="37">
         <v>5</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="38">
         <v>7</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="38">
         <v>9</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="39">
         <v>10</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="37">
         <v>10</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="38">
         <v>9</v>
       </c>
-      <c r="T19" s="40">
+      <c r="T19" s="38">
         <v>7</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="39">
         <v>5</v>
       </c>
     </row>
@@ -4642,7 +7222,7 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="40">
         <v>3</v>
       </c>
       <c r="O20">
@@ -4651,10 +7231,10 @@
       <c r="P20">
         <v>8</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="41">
         <v>9</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="40">
         <v>9</v>
       </c>
       <c r="S20">
@@ -4663,7 +7243,7 @@
       <c r="T20">
         <v>6</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="41">
         <v>3</v>
       </c>
     </row>
@@ -4671,7 +7251,7 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="40">
         <v>2</v>
       </c>
       <c r="O21">
@@ -4680,10 +7260,10 @@
       <c r="P21">
         <v>6</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="41">
         <v>7</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="40">
         <v>7</v>
       </c>
       <c r="S21">
@@ -4692,7 +7272,7 @@
       <c r="T21">
         <v>4</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="41">
         <v>2</v>
       </c>
     </row>
@@ -4700,28 +7280,28 @@
       <c r="M22">
         <v>7</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="42">
         <v>1</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="43">
         <v>2</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="43">
         <v>3</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="44">
         <v>5</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="42">
         <v>5</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="43">
         <v>3</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="43">
         <v>2</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4729,4 +7309,488 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC3B890-D025-4C7A-9280-64B46AC8BAEA}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>225</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="0">B4/B3</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="64">
+        <f>28030/38</f>
+        <v>737.63157894736844</v>
+      </c>
+      <c r="G4" s="61" t="e">
+        <f>F4/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="64">
+        <f>14620/38</f>
+        <v>384.73684210526318</v>
+      </c>
+      <c r="G5" s="61">
+        <f t="shared" ref="G5:G8" si="1">F5/F4</f>
+        <v>0.52158401712450952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="64">
+        <f>26500/38</f>
+        <v>697.36842105263156</v>
+      </c>
+      <c r="G6" s="61">
+        <f t="shared" si="1"/>
+        <v>1.8125854993160053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="64">
+        <f>112660/38</f>
+        <v>2964.7368421052633</v>
+      </c>
+      <c r="G7" s="61">
+        <f t="shared" si="1"/>
+        <v>4.2513207547169811</v>
+      </c>
+      <c r="H7">
+        <f>60000/F7</f>
+        <v>20.237883898455529</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>61000</v>
+      </c>
+      <c r="C8">
+        <f>B8/B7</f>
+        <v>12.2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64">
+        <f>749520/38</f>
+        <v>19724.21052631579</v>
+      </c>
+      <c r="G8" s="61">
+        <f t="shared" si="1"/>
+        <v>6.6529380436712229</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>B8*C9</f>
+        <v>1464000</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="65">
+        <f>F8*G9</f>
+        <v>168007.00690191079</v>
+      </c>
+      <c r="G9" s="62">
+        <v>8.5178064124674595</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B12" si="2">B9*C10</f>
+        <v>70272000</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="65">
+        <f t="shared" ref="F10:F12" si="3">F9*G10</f>
+        <v>1781056.7532940013</v>
+      </c>
+      <c r="G10" s="62">
+        <v>10.6010861459716</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>6746112000</v>
+      </c>
+      <c r="C11">
+        <f>C10*2</f>
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="3"/>
+        <v>22591575.510892201</v>
+      </c>
+      <c r="G11" s="62">
+        <v>12.684365879475701</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1295253504000</v>
+      </c>
+      <c r="C12">
+        <f>C11*2</f>
+        <v>192</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="65">
+        <f t="shared" si="3"/>
+        <v>333624380.98372912</v>
+      </c>
+      <c r="G12" s="62">
+        <v>14.7676456129798</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="1"/>
+      <c r="K16" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3746B978-0F79-44BF-8109-FDF69EC34915}">
+  <dimension ref="B2:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956F27B-A5D6-427A-A376-E63268252190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C275484-134B-46CE-BD35-73C79B4AA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="457" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="554" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparation" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Ideas" sheetId="3" r:id="rId3"/>
     <sheet name="Depth vs Breadth" sheetId="4" r:id="rId4"/>
     <sheet name="Position array" sheetId="5" r:id="rId5"/>
+    <sheet name="Timer" sheetId="6" r:id="rId6"/>
+    <sheet name="debug" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Position array'!$D$12:$D$13</definedName>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="279">
   <si>
     <t>Random</t>
   </si>
@@ -142,18 +144,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>872/1024</t>
@@ -475,9 +465,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>1028-1059</t>
-  </si>
-  <si>
     <t>reduced brain
 results vs V4</t>
   </si>
@@ -503,9 +490,6 @@
     <t>+= ?</t>
   </si>
   <si>
-    <t>948-810</t>
-  </si>
-  <si>
     <t>3-c</t>
   </si>
   <si>
@@ -548,9 +532,6 @@
     <t>1014</t>
   </si>
   <si>
-    <t>1058-904</t>
-  </si>
-  <si>
     <t>+- ?</t>
   </si>
   <si>
@@ -558,9 +539,6 @@
   </si>
   <si>
     <t>V5.5</t>
-  </si>
-  <si>
-    <t>1038-1060</t>
   </si>
   <si>
     <t>668</t>
@@ -586,9 +564,6 @@
 depth 4-&gt;5</t>
   </si>
   <si>
-    <t>1246-1263</t>
-  </si>
-  <si>
     <t>advanced pawn</t>
   </si>
   <si>
@@ -666,6 +641,271 @@
   </si>
   <si>
     <t>V7.0</t>
+  </si>
+  <si>
+    <t>Breadth \ Depth</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>30 sec</t>
+  </si>
+  <si>
+    <t>90 sec</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>no advanced pawn
+new breadth /6</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>no advanced pawn
+new breadth /8</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Rank Mutiplier</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Time value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time and value</t>
+  </si>
+  <si>
+    <t>White plan</t>
+  </si>
+  <si>
+    <t>think more</t>
+  </si>
+  <si>
+    <t>think less</t>
+  </si>
+  <si>
+    <t>Value diff</t>
+  </si>
+  <si>
+    <t>Time diff</t>
+  </si>
+  <si>
+    <t>Time matchwise</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>take biggest depth according to timediff</t>
+  </si>
+  <si>
+    <t>if current time &gt; 33% match time, depth++</t>
+  </si>
+  <si>
+    <t>else do normal</t>
+  </si>
+  <si>
+    <t>time management
+V1</t>
+  </si>
+  <si>
+    <t>vs V6 (no bradth)</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>Launching Chess-Challenge version 1.20</t>
+  </si>
+  <si>
+    <t>Starting new match: MyBot vs EvilBot</t>
+  </si>
+  <si>
+    <t>1 Game Over: WhiteIllegalMove MyBot EvilBot</t>
+  </si>
+  <si>
+    <t>2 Game Over: BlackIllegalMove EvilBot MyBot</t>
+  </si>
+  <si>
+    <t>vs V6</t>
+  </si>
+  <si>
+    <t>Illegal move: Null in position: rn1qkb1r/p1ppp1pp/bp6/5pN1/2N3n1/4P3/PPPP1PPP/R1BQKB1R w KQkq f6 0 6 16897 58700</t>
+  </si>
+  <si>
+    <t>Illegal move: Null in position: r1b1k3/1ppN3p/2p1pr2/p7/1PP1Q2P/1P6/3P1PP1/R3K2R b KQq - 0 20 30379 46778</t>
+  </si>
+  <si>
+    <t>Match finished</t>
+  </si>
+  <si>
+    <t>### Start turn ###</t>
+  </si>
+  <si>
+    <t>Time remaining: 22645-58805</t>
+  </si>
+  <si>
+    <t>Max depth=0 max Breadth=1</t>
+  </si>
+  <si>
+    <t>Current depth=0 current Breadth=1</t>
+  </si>
+  <si>
+    <t>Move: 'Null'</t>
+  </si>
+  <si>
+    <t>Time used: 6</t>
+  </si>
+  <si>
+    <t>Time remaining: 22640-58805</t>
+  </si>
+  <si>
+    <t>### End turn ###</t>
+  </si>
+  <si>
+    <t>time management
+V2</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>vs V7</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>killer moves</t>
+  </si>
+  <si>
+    <t>hiperbolic position function-ideea e ca diferenta de valaore pe margine sa fie mai mare decat in mijloc</t>
+  </si>
+  <si>
+    <t>hyperbolic diag evaluation</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>V8.0</t>
   </si>
 </sst>
 </file>
@@ -770,7 +1010,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -858,13 +1098,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,12 +1174,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -984,9 +1255,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,15 +1264,40 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1309,10 +1602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE22:AE23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,15 +1616,14 @@
     <col min="1" max="1" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="27.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="27.21875" style="7" customWidth="1"/>
     <col min="13" max="13" width="14" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10.21875" style="7" hidden="1" customWidth="1"/>
@@ -1345,10 +1640,14 @@
     <col min="26" max="26" width="12.6640625" style="7" customWidth="1"/>
     <col min="27" max="27" width="10.44140625" style="7" customWidth="1"/>
     <col min="28" max="28" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="7"/>
+    <col min="29" max="29" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.88671875" style="7" customWidth="1"/>
+    <col min="31" max="33" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1356,49 +1655,61 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="Y1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="Y1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1406,145 +1717,181 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>133</v>
+      <c r="H2" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>173</v>
+      <c r="J2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="T2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG2" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="27">
+        <v>1097</v>
+      </c>
+      <c r="N3" s="27">
+        <v>1088</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1088</v>
+      </c>
+      <c r="P3" s="26">
+        <v>995</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>1088</v>
+      </c>
+      <c r="R3" s="26">
+        <v>977</v>
+      </c>
+      <c r="S3" s="26">
+        <v>977</v>
+      </c>
+      <c r="T3" s="26">
+        <v>1070</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="W3" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3" s="29">
-        <v>1097</v>
-      </c>
-      <c r="N3" s="29">
-        <v>1088</v>
-      </c>
-      <c r="O3" s="29">
-        <v>1088</v>
-      </c>
-      <c r="P3" s="28">
-        <v>995</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>1088</v>
-      </c>
-      <c r="R3" s="28">
-        <v>977</v>
-      </c>
-      <c r="S3" s="28">
-        <v>977</v>
-      </c>
-      <c r="T3" s="28">
-        <v>1070</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="28">
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="26">
         <v>1054</v>
       </c>
-      <c r="AB3" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="AB3" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1554,981 +1901,2758 @@
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>172</v>
+        <v>133</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="31">
+      <c r="AA4" s="29">
         <v>1</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="AC4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="29">
+        <v>3</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1038</v>
+      </c>
+      <c r="L6" s="29">
+        <v>1246</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="31" t="s">
+      <c r="P6" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
+      <c r="W6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>948</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1060</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1263</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="AA7" s="29">
+        <v>810</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="1">
         <v>38</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G8" s="1">
         <v>17</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H8" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I8" s="1">
         <v>21</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J8" s="1">
         <v>20</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K8" s="1">
         <v>15</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L8" s="1">
         <v>28</v>
-      </c>
-      <c r="M6" s="1">
-        <v>16</v>
-      </c>
-      <c r="N6" s="1">
-        <v>18</v>
-      </c>
-      <c r="O6" s="1">
-        <v>15</v>
-      </c>
-      <c r="P6" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>14</v>
-      </c>
-      <c r="R6" s="1">
-        <v>13</v>
-      </c>
-      <c r="S6" s="1">
-        <v>19</v>
-      </c>
-      <c r="T6" s="1">
-        <v>21</v>
-      </c>
-      <c r="U6" s="1">
-        <v>15</v>
-      </c>
-      <c r="V6" s="1">
-        <v>16</v>
-      </c>
-      <c r="W6" s="1">
-        <v>16</v>
-      </c>
-      <c r="X6" s="1">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>6</v>
-      </c>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1">
-        <v>5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1">
-        <v>3</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3</v>
-      </c>
-      <c r="U7" s="1">
-        <v>3</v>
-      </c>
-      <c r="V7" s="1">
-        <v>6</v>
-      </c>
-      <c r="W7" s="1">
-        <v>3</v>
-      </c>
-      <c r="X7" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
       </c>
       <c r="M8" s="1">
         <v>16</v>
       </c>
       <c r="N8" s="1">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1">
         <v>15</v>
       </c>
-      <c r="O8" s="1">
-        <v>18</v>
-      </c>
       <c r="P8" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="1">
+        <v>14</v>
+      </c>
+      <c r="R8" s="1">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1">
         <v>19</v>
       </c>
-      <c r="R8" s="1">
-        <v>19</v>
-      </c>
-      <c r="S8" s="1">
-        <v>16</v>
-      </c>
       <c r="T8" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U8" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V8" s="1">
         <v>16</v>
       </c>
       <c r="W8" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X8" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Y8" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="1">
         <v>16</v>
       </c>
       <c r="AA8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>21</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>16</v>
+      </c>
+      <c r="N10" s="1">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1">
+        <v>18</v>
+      </c>
+      <c r="P10" s="1">
         <v>17</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="Q10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
+      <c r="R10" s="1">
+        <v>19</v>
+      </c>
+      <c r="S10" s="1">
+        <v>16</v>
+      </c>
+      <c r="T10" s="1">
+        <v>14</v>
+      </c>
+      <c r="U10" s="1">
+        <v>20</v>
+      </c>
+      <c r="V10" s="1">
+        <v>16</v>
+      </c>
+      <c r="W10" s="1">
+        <v>19</v>
+      </c>
+      <c r="X10" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23">
-        <f t="shared" ref="E9:G9" si="0">SUM(E6:E8)</f>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11:G11" si="0">SUM(E8:E10)</f>
         <v>38</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F11" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H9" s="23">
-        <f>SUM(H6:H8)</f>
+      <c r="H11" s="21">
+        <f>SUM(H8:H10)</f>
         <v>38</v>
       </c>
-      <c r="I9" s="32">
-        <f>SUM(I6:I8)</f>
+      <c r="I11" s="30">
+        <f>SUM(I8:I10)</f>
         <v>38</v>
       </c>
-      <c r="J9" s="23">
-        <f t="shared" ref="J9" si="1">SUM(J6:J8)</f>
+      <c r="J11" s="21">
+        <f t="shared" ref="J11" si="1">SUM(J8:J10)</f>
         <v>38</v>
       </c>
-      <c r="K9" s="32">
-        <f t="shared" ref="K9:L9" si="2">SUM(K6:K8)</f>
+      <c r="K11" s="30">
+        <f t="shared" ref="K11:L11" si="2">SUM(K8:K10)</f>
         <v>38</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L11" s="30">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="M9" s="23">
-        <f t="shared" ref="M9" si="3">SUM(M6:M8)</f>
+      <c r="M11" s="21">
+        <f t="shared" ref="M11" si="3">SUM(M8:M10)</f>
         <v>38</v>
       </c>
-      <c r="N9" s="23">
-        <f t="shared" ref="N9" si="4">SUM(N6:N8)</f>
+      <c r="N11" s="21">
+        <f t="shared" ref="N11" si="4">SUM(N8:N10)</f>
         <v>38</v>
       </c>
-      <c r="O9" s="23">
-        <f t="shared" ref="O9" si="5">SUM(O6:O8)</f>
+      <c r="O11" s="21">
+        <f t="shared" ref="O11" si="5">SUM(O8:O10)</f>
         <v>38</v>
       </c>
-      <c r="P9" s="23">
-        <f t="shared" ref="P9" si="6">SUM(P6:P8)</f>
+      <c r="P11" s="21">
+        <f t="shared" ref="P11" si="6">SUM(P8:P10)</f>
         <v>38</v>
       </c>
-      <c r="Q9" s="23">
-        <f t="shared" ref="Q9" si="7">SUM(Q6:Q8)</f>
+      <c r="Q11" s="21">
+        <f t="shared" ref="Q11" si="7">SUM(Q8:Q10)</f>
         <v>38</v>
       </c>
-      <c r="R9" s="23">
-        <f t="shared" ref="R9" si="8">SUM(R6:R8)</f>
+      <c r="R11" s="21">
+        <f t="shared" ref="R11" si="8">SUM(R8:R10)</f>
         <v>38</v>
       </c>
-      <c r="S9" s="23">
-        <f t="shared" ref="S9" si="9">SUM(S6:S8)</f>
+      <c r="S11" s="21">
+        <f t="shared" ref="S11" si="9">SUM(S8:S10)</f>
         <v>38</v>
       </c>
-      <c r="T9" s="23">
-        <f t="shared" ref="T9" si="10">SUM(T6:T8)</f>
+      <c r="T11" s="21">
+        <f t="shared" ref="T11" si="10">SUM(T8:T10)</f>
         <v>38</v>
       </c>
-      <c r="U9" s="23">
-        <f t="shared" ref="U9:W9" si="11">SUM(U6:U8)</f>
+      <c r="U11" s="21">
+        <f t="shared" ref="U11:W11" si="11">SUM(U8:U10)</f>
         <v>38</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V11" s="21">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W11" s="21">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="X9" s="23">
-        <f t="shared" ref="X9" si="12">SUM(X6:X8)</f>
+      <c r="X11" s="21">
+        <f t="shared" ref="X11" si="12">SUM(X8:X10)</f>
         <v>38</v>
       </c>
-      <c r="Y9" s="23">
-        <f t="shared" ref="Y9" si="13">SUM(Y6:Y8)</f>
+      <c r="Y11" s="21">
+        <f t="shared" ref="Y11" si="13">SUM(Y8:Y10)</f>
         <v>38</v>
       </c>
-      <c r="Z9" s="23">
-        <f t="shared" ref="Z9:AB9" si="14">SUM(Z6:Z8)</f>
+      <c r="Z11" s="21">
+        <f t="shared" ref="Z11" si="14">SUM(Z8:Z10)</f>
         <v>38</v>
       </c>
-      <c r="AA9" s="23">
-        <f>SUM(AA6:AA8)</f>
+      <c r="AA11" s="21">
+        <f>SUM(AA8:AA10)</f>
         <v>38</v>
       </c>
-      <c r="AB9" s="23">
-        <f t="shared" ref="AB9" si="15">SUM(AB6:AB8)</f>
+      <c r="AB11" s="21">
+        <f t="shared" ref="AB11:AC11" si="15">SUM(AB8:AB10)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="AC11" s="21">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="AD11" s="21">
+        <f t="shared" ref="AD11:AE11" si="16">SUM(AD8:AD10)</f>
+        <v>38</v>
+      </c>
+      <c r="AE11" s="21">
+        <f t="shared" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="AF11" s="21">
+        <f t="shared" ref="AF11:AH11" si="17">SUM(AF8:AF10)</f>
+        <v>38</v>
+      </c>
+      <c r="AG11" s="21">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="AH11" s="21">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="AI11" s="21">
+        <f t="shared" ref="AI11:AK11" si="18">SUM(AI8:AI10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="36">
-        <f t="shared" ref="E10:G10" si="16">(E6+E7/2)/E9</f>
+      <c r="E12" s="34">
+        <f t="shared" ref="E12:G12" si="19">(E8+E9/2)/E11</f>
         <v>1</v>
       </c>
-      <c r="F10" s="36">
-        <f t="shared" si="16"/>
+      <c r="F12" s="34">
+        <f t="shared" si="19"/>
         <v>0.86842105263157898</v>
       </c>
-      <c r="G10" s="36">
-        <f t="shared" si="16"/>
+      <c r="G12" s="34">
+        <f t="shared" si="19"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="H10" s="36">
-        <f>(H6+H7/2)/H9</f>
+      <c r="H12" s="34">
+        <f>(H8+H9/2)/H11</f>
         <v>0.56578947368421051</v>
       </c>
-      <c r="I10" s="36">
-        <f>(I6+I7/2)/I9</f>
+      <c r="I12" s="34">
+        <f>(I8+I9/2)/I11</f>
         <v>0.59210526315789469</v>
       </c>
-      <c r="J10" s="36">
-        <f t="shared" ref="J10" si="17">(J6+J7/2)/J9</f>
+      <c r="J12" s="34">
+        <f t="shared" ref="J12" si="20">(J8+J9/2)/J11</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="K10" s="36">
-        <f t="shared" ref="K10:L10" si="18">(K6+K7/2)/K9</f>
+      <c r="K12" s="34">
+        <f t="shared" ref="K12:L12" si="21">(K8+K9/2)/K11</f>
         <v>0.51315789473684215</v>
       </c>
-      <c r="L10" s="36">
-        <f t="shared" si="18"/>
+      <c r="L12" s="34">
+        <f t="shared" si="21"/>
         <v>0.80263157894736847</v>
       </c>
-      <c r="M10" s="36">
-        <f t="shared" ref="M10" si="19">(M6+M7/2)/M9</f>
+      <c r="M12" s="34">
+        <f t="shared" ref="M12" si="22">(M8+M9/2)/M11</f>
         <v>0.5</v>
       </c>
-      <c r="N10" s="36">
-        <f t="shared" ref="N10:Q10" si="20">(N6+N7/2)/N9</f>
+      <c r="N12" s="34">
+        <f t="shared" ref="N12:Q12" si="23">(N8+N9/2)/N11</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="O10" s="36">
-        <f t="shared" si="20"/>
+      <c r="O12" s="34">
+        <f t="shared" si="23"/>
         <v>0.46052631578947367</v>
       </c>
-      <c r="P10" s="36">
-        <f t="shared" si="20"/>
+      <c r="P12" s="34">
+        <f t="shared" si="23"/>
         <v>0.48684210526315791</v>
       </c>
-      <c r="Q10" s="36">
-        <f t="shared" si="20"/>
+      <c r="Q12" s="34">
+        <f t="shared" si="23"/>
         <v>0.43421052631578949</v>
       </c>
-      <c r="R10" s="36">
-        <f t="shared" ref="R10:S10" si="21">(R6+R7/2)/R9</f>
+      <c r="R12" s="34">
+        <f t="shared" ref="R12:S12" si="24">(R8+R9/2)/R11</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="S10" s="36">
-        <f t="shared" si="21"/>
+      <c r="S12" s="34">
+        <f t="shared" si="24"/>
         <v>0.53947368421052633</v>
       </c>
-      <c r="T10" s="36">
-        <f t="shared" ref="T10:U10" si="22">(T6+T7/2)/T9</f>
+      <c r="T12" s="34">
+        <f t="shared" ref="T12:U12" si="25">(T8+T9/2)/T11</f>
         <v>0.59210526315789469</v>
       </c>
-      <c r="U10" s="36">
-        <f t="shared" si="22"/>
+      <c r="U12" s="34">
+        <f t="shared" si="25"/>
         <v>0.43421052631578949</v>
       </c>
-      <c r="V10" s="36">
-        <f t="shared" ref="V10" si="23">(V6+V7/2)/V9</f>
+      <c r="V12" s="34">
+        <f t="shared" ref="V12" si="26">(V8+V9/2)/V11</f>
         <v>0.5</v>
       </c>
-      <c r="W10" s="36">
-        <f t="shared" ref="W10:Y10" si="24">(W6+W7/2)/W9</f>
+      <c r="W12" s="34">
+        <f t="shared" ref="W12:Y12" si="27">(W8+W9/2)/W11</f>
         <v>0.46052631578947367</v>
       </c>
-      <c r="X10" s="36">
-        <f t="shared" si="24"/>
+      <c r="X12" s="34">
+        <f t="shared" si="27"/>
         <v>0.32894736842105265</v>
       </c>
-      <c r="Y10" s="36">
-        <f t="shared" si="24"/>
+      <c r="Y12" s="34">
+        <f t="shared" si="27"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="Z10" s="36">
-        <f t="shared" ref="Z10:AB10" si="25">(Z6+Z7/2)/Z9</f>
+      <c r="Z12" s="34">
+        <f t="shared" ref="Z12:AB12" si="28">(Z8+Z9/2)/Z11</f>
         <v>0.5</v>
       </c>
-      <c r="AA10" s="36">
-        <f t="shared" si="25"/>
+      <c r="AA12" s="34">
+        <f t="shared" si="28"/>
         <v>0.53947368421052633</v>
       </c>
-      <c r="AB10" s="36">
-        <f t="shared" si="25"/>
+      <c r="AB12" s="34">
+        <f t="shared" si="28"/>
         <v>0.46052631578947367</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="AC12" s="34">
+        <f t="shared" ref="AC12" si="29">(AC8+AC9/2)/AC11</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AE12" si="30">(AD8+AD9/2)/AD11</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" si="30"/>
+        <v>0.51315789473684215</v>
+      </c>
+      <c r="AF12" s="34">
+        <f t="shared" ref="AF12:AH12" si="31">(AF8+AF9/2)/AF11</f>
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="AG12" s="34">
+        <f t="shared" si="31"/>
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="AH12" s="34">
+        <f t="shared" si="31"/>
+        <v>0.67105263157894735</v>
+      </c>
+      <c r="AI12" s="34" t="e">
+        <f t="shared" ref="AI12:AK12" si="32">(AI8+AI9/2)/AI11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="34" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="34" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54">
+        <v>169</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>642</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54">
+        <v>218</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>218</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54">
+        <v>17</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG17" s="1">
         <v>11</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="20" t="s">
+    </row>
+    <row r="18" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54">
         <v>16</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="AF19" s="1">
+        <v>21</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30">
+        <f t="shared" ref="AC20:AD20" si="33">SUM(AC17:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="30">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="30">
+        <f>SUM(AE17:AE19)</f>
+        <v>38</v>
+      </c>
+      <c r="AF20" s="30">
+        <f>SUM(AF17:AF19)</f>
+        <v>38</v>
+      </c>
+      <c r="AG20" s="30">
+        <f>SUM(AG17:AG19)</f>
+        <v>38</v>
+      </c>
+      <c r="AH20" s="30">
+        <f t="shared" ref="AH20" si="34">SUM(AH17:AH19)</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="30">
+        <f t="shared" ref="AI20" si="35">SUM(AI17:AI19)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="30">
+        <f t="shared" ref="AJ20" si="36">SUM(AJ17:AJ19)</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="30">
+        <f t="shared" ref="AK20" si="37">SUM(AK17:AK19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34" t="e">
+        <f t="shared" ref="AC21:AD21" si="38">(AC17+AC18/2)/AC20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD21" s="34" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE21" s="34">
+        <f t="shared" ref="AE21:AF21" si="39">(AE17+AE18/2)/AE20</f>
+        <v>0.51315789473684215</v>
+      </c>
+      <c r="AF21" s="34">
+        <f t="shared" si="39"/>
+        <v>0.40789473684210525</v>
+      </c>
+      <c r="AG21" s="34">
+        <f t="shared" ref="AG21" si="40">(AG17+AG18/2)/AG20</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="AH21" s="34" t="e">
+        <f t="shared" ref="AH21" si="41">(AH17+AH18/2)/AH20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI21" s="34" t="e">
+        <f t="shared" ref="AI21:AK21" si="42">(AI17+AI18/2)/AI20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ21" s="34" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK21" s="34" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+    </row>
+    <row r="23" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+    </row>
+    <row r="24" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54">
+        <v>846</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1955</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+    </row>
+    <row r="25" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54">
+        <v>220</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>215</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>240</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+    </row>
+    <row r="26" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>24</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+    </row>
+    <row r="27" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54">
+        <v>3</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+    </row>
+    <row r="28" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54">
+        <v>13</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30">
+        <f t="shared" ref="AC29:AD29" si="43">SUM(AC26:AC28)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="30">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="30">
+        <f t="shared" ref="AE29:AF29" si="44">SUM(AE26:AE28)</f>
+        <v>38</v>
+      </c>
+      <c r="AF29" s="30">
+        <f t="shared" si="44"/>
+        <v>38</v>
+      </c>
+      <c r="AG29" s="30">
+        <f t="shared" ref="AG29" si="45">SUM(AG26:AG28)</f>
+        <v>38</v>
+      </c>
+      <c r="AH29" s="30">
+        <f t="shared" ref="AH29" si="46">SUM(AH26:AH28)</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="30">
+        <f t="shared" ref="AI29:AK29" si="47">SUM(AI26:AI28)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="30">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="30">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34" t="e">
+        <f t="shared" ref="AC30:AD30" si="48">(AC26+AC27/2)/AC29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="34" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE30" s="34">
+        <f t="shared" ref="AE30:AF30" si="49">(AE26+AE27/2)/AE29</f>
+        <v>0.61842105263157898</v>
+      </c>
+      <c r="AF30" s="34">
+        <f t="shared" si="49"/>
+        <v>0.69736842105263153</v>
+      </c>
+      <c r="AG30" s="34">
+        <f t="shared" ref="AG30" si="50">(AG26+AG27/2)/AG29</f>
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="AH30" s="34" t="e">
+        <f t="shared" ref="AH30" si="51">(AH26+AH27/2)/AH29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="34" t="e">
+        <f t="shared" ref="AI30:AK30" si="52">(AI26+AI27/2)/AI29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ30" s="34" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK30" s="34" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="53">
+        <f>AC22+AC13+AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="53">
+        <f>AD22+AD13+AD4</f>
+        <v>4</v>
+      </c>
+      <c r="AE31" s="53">
+        <f>AE22+AE13+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="53">
+        <f>AF22+AF13+AF4</f>
+        <v>1</v>
+      </c>
+      <c r="AG31" s="53">
+        <f>AG22+AG13+AG4</f>
+        <v>1</v>
+      </c>
+      <c r="AH31" s="53">
+        <f t="shared" ref="AH31" si="53">AH22+AH13+AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="53">
+        <f t="shared" ref="AI31:AK31" si="54">AI22+AI13+AI4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="53">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="53">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="2"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="53">
+        <f t="shared" ref="AC32:AD33" si="55">AC23+AC14+AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="53">
+        <f>AD23+AD14+AD4</f>
+        <v>4</v>
+      </c>
+      <c r="AE32" s="55">
+        <f>AE23+AE14+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="55">
+        <f>AF23+AF14+AF4</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="55">
+        <f>AG23+AG14+AG4</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="55">
+        <f t="shared" ref="AH32" si="56">AH23+AH14+AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="55">
+        <f t="shared" ref="AI32:AK32" si="57">AI23+AI14+AI4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="55">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="55">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="53">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="53">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="55">
+        <f t="shared" ref="AE33:AG34" si="58">AE24+AE15+AE6</f>
+        <v>1550</v>
+      </c>
+      <c r="AF33" s="55">
+        <f t="shared" si="58"/>
+        <v>3815</v>
+      </c>
+      <c r="AG33" s="55">
+        <f t="shared" si="58"/>
+        <v>3901</v>
+      </c>
+      <c r="AH33" s="55">
+        <f t="shared" ref="AH33" si="59">AH24+AH15+AH6</f>
+        <v>262</v>
+      </c>
+      <c r="AI33" s="55">
+        <f t="shared" ref="AI33:AK33" si="60">AI24+AI15+AI6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="55">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="55">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="53">
+        <f>AC25+AC16+AC6</f>
+        <v>716</v>
+      </c>
+      <c r="AD34" s="53">
+        <f>AD25+AD16+AD6</f>
+        <v>1620</v>
+      </c>
+      <c r="AE34" s="55">
+        <f t="shared" si="58"/>
+        <v>638</v>
+      </c>
+      <c r="AF34" s="55">
+        <f t="shared" si="58"/>
+        <v>660</v>
+      </c>
+      <c r="AG34" s="55">
+        <f t="shared" si="58"/>
+        <v>715</v>
+      </c>
+      <c r="AH34" s="55">
+        <f t="shared" ref="AH34" si="61">AH25+AH16+AH7</f>
+        <v>248</v>
+      </c>
+      <c r="AI34" s="55">
+        <f t="shared" ref="AI34:AK34" si="62">AI25+AI16+AI7</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="55">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="55">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="53">
+        <f t="shared" ref="AC35:AD37" si="63">AC26+AC17+AC8</f>
+        <v>22</v>
+      </c>
+      <c r="AD35" s="53">
+        <f t="shared" si="63"/>
+        <v>25</v>
+      </c>
+      <c r="AE35" s="53">
+        <f t="shared" ref="AE35:AF35" si="64">AE26+AE17+AE8</f>
+        <v>55</v>
+      </c>
+      <c r="AF35" s="53">
+        <f t="shared" si="64"/>
+        <v>59</v>
+      </c>
+      <c r="AG35" s="53">
+        <f t="shared" ref="AG35" si="65">AG26+AG17+AG8</f>
+        <v>47</v>
+      </c>
+      <c r="AH35" s="53">
+        <f t="shared" ref="AH35" si="66">AH26+AH17+AH8</f>
+        <v>22</v>
+      </c>
+      <c r="AI35" s="53">
+        <f t="shared" ref="AI35:AK35" si="67">AI26+AI17+AI8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="53">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="53">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="53">
+        <f t="shared" si="63"/>
+        <v>6</v>
+      </c>
+      <c r="AD36" s="53">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AE36" s="53">
+        <f t="shared" ref="AE36:AF36" si="68">AE27+AE18+AE9</f>
+        <v>15</v>
+      </c>
+      <c r="AF36" s="53">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+      <c r="AG36" s="53">
+        <f t="shared" ref="AG36" si="69">AG27+AG18+AG9</f>
+        <v>16</v>
+      </c>
+      <c r="AH36" s="53">
+        <f t="shared" ref="AH36" si="70">AH27+AH18+AH9</f>
+        <v>7</v>
+      </c>
+      <c r="AI36" s="53">
+        <f t="shared" ref="AI36:AK36" si="71">AI27+AI18+AI9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="53">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="53">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="53">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+      <c r="AD37" s="53">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+      <c r="AE37" s="53">
+        <f>AE28+AE19+AE10</f>
+        <v>44</v>
+      </c>
+      <c r="AF37" s="53">
+        <f>AF28+AF19+AF10</f>
+        <v>43</v>
+      </c>
+      <c r="AG37" s="53">
+        <f>AG28+AG19+AG10</f>
+        <v>51</v>
+      </c>
+      <c r="AH37" s="53">
+        <f t="shared" ref="AH37" si="72">AH28+AH19+AH10</f>
+        <v>9</v>
+      </c>
+      <c r="AI37" s="53">
+        <f t="shared" ref="AI37:AK37" si="73">AI28+AI19+AI10</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="53">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="53">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="21">
+        <f t="shared" ref="AC38:AD38" si="74">SUM(AC35:AC37)</f>
+        <v>38</v>
+      </c>
+      <c r="AD38" s="21">
+        <f t="shared" si="74"/>
+        <v>38</v>
+      </c>
+      <c r="AE38" s="21">
+        <f t="shared" ref="AE38:AF38" si="75">SUM(AE35:AE37)</f>
+        <v>114</v>
+      </c>
+      <c r="AF38" s="21">
+        <f t="shared" si="75"/>
+        <v>114</v>
+      </c>
+      <c r="AG38" s="21">
+        <f t="shared" ref="AG38" si="76">SUM(AG35:AG37)</f>
+        <v>114</v>
+      </c>
+      <c r="AH38" s="21">
+        <f t="shared" ref="AH38" si="77">SUM(AH35:AH37)</f>
+        <v>38</v>
+      </c>
+      <c r="AI38" s="21">
+        <f t="shared" ref="AI38:AK38" si="78">SUM(AI35:AI37)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="21">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="21">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34">
+        <f t="shared" ref="AC39:AD39" si="79">(AC35+AC36/2)/AC38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="AD39" s="34">
+        <f t="shared" si="79"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AE39" s="34">
+        <f>(AE35+AE36/2)/AE38</f>
+        <v>0.54824561403508776</v>
+      </c>
+      <c r="AF39" s="34">
+        <f>(AF35+AF36/2)/AF38</f>
+        <v>0.57017543859649122</v>
+      </c>
+      <c r="AG39" s="34">
+        <f>(AG35+AG36/2)/AG38</f>
+        <v>0.48245614035087719</v>
+      </c>
+      <c r="AH39" s="34">
+        <f t="shared" ref="AH39" si="80">(AH35+AH36/2)/AH38</f>
+        <v>0.67105263157894735</v>
+      </c>
+      <c r="AI39" s="34" t="e">
+        <f t="shared" ref="AI39" si="81">(AI35+AI36/2)/AI38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ39" s="34" t="e">
+        <f t="shared" ref="AJ39" si="82">(AJ35+AJ36/2)/AJ38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK39" s="34" t="e">
+        <f t="shared" ref="AK39" si="83">(AK35+AK36/2)/AK38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="49"/>
-      <c r="Z11" s="20" t="s">
+      <c r="N40" s="46"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="Z40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AA40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C41" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="54"/>
-      <c r="Z12" s="7" t="s">
+      <c r="R41" s="23"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="23"/>
+      <c r="Z41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA12" s="7" t="s">
+      <c r="AA41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6" t="s">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V42" s="48"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA42" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA44" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K11:L22 P20:P22 A11:P19 A20:O20 Q11:XFD20">
+  <conditionalFormatting sqref="A40:P48 Q40:XFD49 K40:L51 A49:O49 P49:P51">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>LEFT(A11,1)="-"</formula>
+      <formula>LEFT(A40,1)="-"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>LEFT(A11,1)="="</formula>
+      <formula>LEFT(A40,1)="="</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>LEFT(A11,1)="+"</formula>
+      <formula>LEFT(A40,1)="+"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2541,7 +4665,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2558,287 +4682,287 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2850,10 +4974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD34EC-FC63-4B23-9C13-E548752F8F18}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2863,89 +4987,247 @@
     <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37">
+        <v>1</v>
+      </c>
+      <c r="I3" s="38">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38">
+        <v>3</v>
+      </c>
+      <c r="K3" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>141</v>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="40">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="42">
+        <v>5</v>
+      </c>
+      <c r="I6" s="43">
+        <v>7</v>
+      </c>
+      <c r="J6" s="43">
+        <v>9</v>
+      </c>
+      <c r="K6" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="38">
+        <v>9</v>
+      </c>
+      <c r="H18" s="38">
+        <v>17</v>
+      </c>
+      <c r="I18" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="40">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19" s="41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="40">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>42</v>
+      </c>
+      <c r="I20" s="41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="42">
+        <v>30</v>
+      </c>
+      <c r="G21" s="43">
+        <v>39</v>
+      </c>
+      <c r="H21" s="43">
+        <v>44</v>
+      </c>
+      <c r="I21" s="44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2956,948 +5238,1867 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CAB14C-A094-4A3E-9DDA-981C7296CEB7}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.33203125" style="13"/>
+    <col min="1" max="1" width="11.33203125" style="13"/>
+    <col min="2" max="2" width="16.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12">
+    <row r="1" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="15">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15">
         <v>5</v>
       </c>
-      <c r="C1" s="12">
+      <c r="E1" s="15">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15">
+        <v>7</v>
+      </c>
+      <c r="G1" s="15">
+        <v>8</v>
+      </c>
+      <c r="H1" s="15">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15">
         <v>10</v>
       </c>
-      <c r="D1" s="12">
-        <v>15</v>
-      </c>
-      <c r="E1" s="12">
-        <v>20</v>
-      </c>
-      <c r="F1" s="12">
-        <v>25</v>
-      </c>
-      <c r="G1" s="12">
-        <v>30</v>
-      </c>
-      <c r="H1" s="12">
-        <v>35</v>
-      </c>
-      <c r="I1" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14">
-        <f>B$1^$A2</f>
-        <v>5</v>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="12">
+        <v>4</v>
       </c>
       <c r="C2" s="14">
-        <f t="shared" ref="C2:I11" si="0">C$1^$A2</f>
-        <v>10</v>
+        <f t="shared" ref="C2:I11" si="0">$B2^C$1</f>
+        <v>256</v>
       </c>
       <c r="D2" s="14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1024</v>
       </c>
       <c r="E2" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>4096</v>
       </c>
       <c r="F2" s="14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>16384</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65536</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>262144</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <f t="shared" ref="B3:B11" si="1">B$1^$A3</f>
-        <v>25</v>
+        <v>1048576</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
+        <v>8</v>
       </c>
       <c r="C3" s="14">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>4096</v>
       </c>
       <c r="D3" s="14">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>32768</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>262144</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>2097152</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>16777216</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="0"/>
-        <v>1225</v>
+        <v>134217728</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <v>1073741824</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="12">
+        <v>12</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>20736</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" si="0"/>
-        <v>3375</v>
+        <v>248832</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>2985984</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="0"/>
-        <v>15625</v>
+        <v>35831808</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>429981696</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="0"/>
-        <v>42875</v>
+        <v>5159780352</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="0"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14">
-        <f t="shared" si="1"/>
-        <v>625</v>
+        <v>61917364224</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>16</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>65536</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>50625</v>
+        <v>1048576</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>16777216</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>390625</v>
+        <v>268435456</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>810000</v>
+        <v>4294967296</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="0"/>
-        <v>1500625</v>
+        <v>68719476736</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>2560000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14">
-        <f t="shared" si="1"/>
-        <v>3125</v>
+        <v>1099511627776</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>20</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>759375</v>
-      </c>
-      <c r="E6" s="13">
+        <v>160000</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="0"/>
         <v>3200000</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>9765625</v>
-      </c>
-      <c r="G6" s="13">
+        <v>64000000</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>24300000</v>
-      </c>
-      <c r="H6" s="13">
+        <v>1280000000</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>52521875</v>
-      </c>
-      <c r="I6" s="13">
+        <v>25600000000</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>512000000000</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>10240000000000</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>331776</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>7962624</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>191102976</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>4586471424</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>110075314176</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>2641807540224</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>63403380965376</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>614656</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>17210368</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>481890304</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>13492928512</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>377801998336</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>10578455953408</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>296196766695424</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>34359738368</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>1099511627776</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>35184372088832</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>1125899906842624</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>1679616</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>60466176</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>2176782336</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>78364164096</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>2821109907456</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>101559956668416</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>3656158440062976</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>40</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>2560000</v>
+      </c>
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>102400000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
-        <f t="shared" si="1"/>
-        <v>15625</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="0"/>
-        <v>11390625</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>64000000</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>244140625</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="0"/>
-        <v>729000000</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="0"/>
-        <v>1838265625</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>4096000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14">
-        <f t="shared" si="1"/>
-        <v>78125</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>170859375</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>1280000000</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>6103515625</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>21870000000</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="0"/>
-        <v>64339296875</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>163840000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <f t="shared" si="1"/>
-        <v>390625</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>100000000</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>2562890625</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>25600000000</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>152587890625</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>656100000000</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="0"/>
-        <v>2251875390625</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>6553600000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15">
-        <f t="shared" si="1"/>
-        <v>1953125</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>38443359375</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>512000000000</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="0"/>
-        <v>3814697265625</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>19683000000000</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="0"/>
-        <v>78815638671875</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>262144000000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15">
-        <f t="shared" si="1"/>
-        <v>9765625</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" si="0"/>
-        <v>10000000000</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>576650390625</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>10240000000000</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="0"/>
-        <v>95367431640625</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>590490000000000</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>2758547353515625</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>1.048576E+16</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:I26" si="1">$B12^C$1</f>
+        <v>3748096</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="1"/>
+        <v>164916224</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>7256313856</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>319277809664</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>14048223625216</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>618121839509504</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7197360938418176E+16</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>48</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="1"/>
+        <v>5308416</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>254803968</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="1"/>
+        <v>12230590464</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>587068342272</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>28179280429056</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>1352605460594688</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
+        <v>6.4925062108545024E+16</v>
+      </c>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
+        <v>52</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="1"/>
+        <v>7311616</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="1"/>
+        <v>380204032</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="1"/>
+        <v>19770609664</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>1028071702528</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>53459728531456</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>2779905883635712</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4455510594905702E+17</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="1"/>
+        <v>9834496</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="1"/>
+        <v>550731776</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="1"/>
+        <v>30840979456</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>1727094849536</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>96717311574016</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>5416169448144896</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>3.0330548909611418E+17</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" si="1"/>
+        <v>12960000</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="1"/>
+        <v>777600000</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="1"/>
+        <v>46656000000</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>2799360000000</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>167961600000000</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0077696E+16</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>6.0466176E+17</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>64</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="1"/>
+        <v>1073741824</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="1"/>
+        <v>68719476736</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>4398046511104</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>281474976710656</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>68</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="1"/>
+        <v>21381376</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="1"/>
+        <v>1453933568</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="1"/>
+        <v>98867482624</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>6722988818432</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>457163239653376</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1087100296429568E+16</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1139228201572106E+18</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>72</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="1"/>
+        <v>26873856</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="1"/>
+        <v>1934917632</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="1"/>
+        <v>139314069504</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="1"/>
+        <v>10030613004288</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>722204136308736</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>5.1998697814228992E+16</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7439062426244874E+18</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>76</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="1"/>
+        <v>33362176</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="1"/>
+        <v>2535525376</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="1"/>
+        <v>192699928576</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="1"/>
+        <v>14645194571776</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>1113034787454976</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>8.4590643846578176E+16</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>6.4288889323399414E+18</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>80</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="1"/>
+        <v>40960000</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="1"/>
+        <v>3276800000</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="1"/>
+        <v>262144000000</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
+        <v>20971520000000</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>1677721600000000</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.34217728E+17</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.073741824E+19</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>84</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="1"/>
+        <v>49787136</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="1"/>
+        <v>4182119424</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="1"/>
+        <v>351298031616</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="1"/>
+        <v>29509034655744</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="1"/>
+        <v>2478758911082496</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="1"/>
+        <v>2.0821574853092966E+17</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7490122876598092E+19</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>88</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="1"/>
+        <v>59969536</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="1"/>
+        <v>5277319168</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="1"/>
+        <v>464404086784</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>40867559636992</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="1"/>
+        <v>3596345248055296</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1647838182886605E+17</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7850097600940212E+19</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>92</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="1"/>
+        <v>71639296</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="1"/>
+        <v>6590815232</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="1"/>
+        <v>606355001344</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>55784660123648</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="1"/>
+        <v>5132188731375616</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="1"/>
+        <v>4.7216136328655667E+17</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>4.3438845422363214E+19</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>96</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="1"/>
+        <v>84934656</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="1"/>
+        <v>8153726976</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="1"/>
+        <v>782757789696</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="1"/>
+        <v>75144747810816</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="1"/>
+        <v>7213895789838336</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="1"/>
+        <v>6.9253399582448026E+17</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>6.6483263599150105E+19</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>100</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="1"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+16</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+18</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="E28" s="15">
         <v>6</v>
       </c>
-      <c r="D14" s="12">
+      <c r="F28" s="15">
         <v>7</v>
       </c>
-      <c r="E14" s="17">
+      <c r="G28" s="15">
         <v>8</v>
       </c>
-      <c r="F14" s="12">
+      <c r="H28" s="15">
         <v>9</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I28" s="15">
         <v>10</v>
       </c>
-      <c r="H14" s="12">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12">
+        <f>MIN(5,B2)+B2/6</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" ref="C29:I38" si="2">$B29^C$1</f>
+        <v>474.27160493827182</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="2"/>
+        <v>2213.2674897119355</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="2"/>
+        <v>10328.5816186557</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="2"/>
+        <v>48200.047553726603</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="2"/>
+        <v>224933.55525072417</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="2"/>
+        <v>1049689.9245033795</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="2"/>
+        <v>4898552.9810157716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12">
+        <f t="shared" ref="B30:B53" si="3">MIN(5,B3)+B3/6</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" si="2"/>
+        <v>1608.9012345679009</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="2"/>
+        <v>10189.707818930039</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="2"/>
+        <v>64534.816186556905</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="2"/>
+        <v>408720.50251486042</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="2"/>
+        <v>2588563.1825941158</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="2"/>
+        <v>16394233.489762733</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="2"/>
+        <v>103830145.43516397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>12</v>
+      </c>
+      <c r="B31" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" si="2"/>
+        <v>2401</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="2"/>
+        <v>16807</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="2"/>
+        <v>117649</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="2"/>
+        <v>823543</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="2"/>
+        <v>5764801</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="2"/>
+        <v>40353607</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="2"/>
+        <v>282475249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>16</v>
+      </c>
+      <c r="B32" s="12">
+        <f t="shared" si="3"/>
+        <v>7.6666666666666661</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" si="2"/>
+        <v>3454.8271604938263</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="2"/>
+        <v>26487.008230452666</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="2"/>
+        <v>203067.06310013711</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="2"/>
+        <v>1556847.4837677178</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="2"/>
+        <v>11935830.708885835</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="2"/>
+        <v>91508035.434791401</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="2"/>
+        <v>701561605.00006735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" si="2"/>
+        <v>4822.5308641975325</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="2"/>
+        <v>40187.757201646105</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="2"/>
+        <v>334897.97668038425</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="2"/>
+        <v>2790816.4723365353</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="2"/>
+        <v>23256803.936137799</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="2"/>
+        <v>193806699.46781501</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="2"/>
+        <v>1615055828.8984585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>24</v>
+      </c>
+      <c r="B34" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="14">
+        <f t="shared" si="2"/>
+        <v>6561</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="2"/>
+        <v>59049</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="2"/>
+        <v>531441</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="2"/>
+        <v>4782969</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="2"/>
+        <v>43046721</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="2"/>
+        <v>387420489</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="2"/>
+        <v>3486784401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>28</v>
+      </c>
+      <c r="B35" s="12">
+        <f t="shared" si="3"/>
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" si="2"/>
+        <v>8731.8641975308692</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="2"/>
+        <v>84408.020576131748</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="2"/>
+        <v>815944.19890260696</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="2"/>
+        <v>7887460.5893918686</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="2"/>
+        <v>76245452.364121407</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="2"/>
+        <v>737039372.85317373</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="2"/>
+        <v>7124713937.5806799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
+      <c r="B36" s="12">
+        <f t="shared" si="3"/>
+        <v>10.333333333333332</v>
+      </c>
+      <c r="C36" s="14">
+        <f t="shared" si="2"/>
+        <v>11401.49382716049</v>
+      </c>
+      <c r="D36" s="14">
+        <f t="shared" si="2"/>
+        <v>117815.43621399171</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="2"/>
+        <v>1217426.1742112476</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="2"/>
+        <v>12580070.466849556</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="2"/>
+        <v>129994061.49077874</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="2"/>
+        <v>1343271968.7380469</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="2"/>
+        <v>13880477010.29315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I14" s="12">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="C37" s="14">
+        <f t="shared" si="2"/>
+        <v>14641</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="2"/>
+        <v>161051</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="2"/>
+        <v>1771561</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="2"/>
+        <v>19487171</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="2"/>
+        <v>214358881</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="2"/>
+        <v>2357947691</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>25937424601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>40</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="3"/>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="C38" s="14">
+        <f t="shared" si="2"/>
+        <v>18526.234567901243</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="2"/>
+        <v>216139.4032921812</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="2"/>
+        <v>2521626.3717421144</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="2"/>
+        <v>29418974.336991336</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="2"/>
+        <v>343221367.26489896</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="2"/>
+        <v>4004249284.7571549</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="2"/>
+        <v>46716241655.500145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>44</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" si="3"/>
+        <v>12.333333333333332</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" ref="C39:I53" si="4">$B39^C$1</f>
+        <v>23137.790123456783</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" si="4"/>
+        <v>285366.07818930031</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="4"/>
+        <v>3519514.9643347035</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="4"/>
+        <v>43407351.226794668</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="4"/>
+        <v>535357331.79713428</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="4"/>
+        <v>6602740425.4979887</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="4"/>
+        <v>81433798581.141861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="51">
+        <v>48</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K14" s="12">
-        <v>14</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="C40" s="14">
+        <f t="shared" si="4"/>
+        <v>28561</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" si="4"/>
+        <v>371293</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="4"/>
+        <v>4826809</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="4"/>
+        <v>62748517</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="4"/>
+        <v>815730721</v>
+      </c>
+      <c r="H40" s="14">
+        <f t="shared" si="4"/>
+        <v>10604499373</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="4"/>
+        <v>137858491849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="51">
+        <v>52</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="4"/>
+        <v>34885.938271604937</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" si="4"/>
+        <v>476774.48971193412</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="4"/>
+        <v>6515918.0260630995</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="4"/>
+        <v>89050879.689529032</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="4"/>
+        <v>1217028689.09023</v>
+      </c>
+      <c r="H41" s="14">
+        <f t="shared" si="4"/>
+        <v>16632725417.566475</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="4"/>
+        <v>227313914040.07516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>56</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" si="3"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="C42" s="14">
+        <f t="shared" si="4"/>
+        <v>42207.419753086426</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" si="4"/>
+        <v>604973.01646090543</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="4"/>
+        <v>8671279.9026063122</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="4"/>
+        <v>124288345.27069047</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="4"/>
+        <v>1781466282.2132301</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="4"/>
+        <v>25534350045.056301</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="4"/>
+        <v>365992350645.80695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>60</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14">
-        <f>B$14^$A15</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:L15" si="2">C$14^$A15</f>
-        <v>6</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14">
-        <f t="shared" ref="B16:L24" si="3">B$14^$A16</f>
-        <v>25</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="C43" s="14">
+        <f t="shared" si="4"/>
+        <v>50625</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" si="4"/>
+        <v>759375</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="4"/>
+        <v>11390625</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="4"/>
+        <v>170859375</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="4"/>
+        <v>2562890625</v>
+      </c>
+      <c r="H43" s="14">
+        <f t="shared" si="4"/>
+        <v>38443359375</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="4"/>
+        <v>576650390625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>64</v>
+      </c>
+      <c r="B44" s="12">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="D16" s="14">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="C44" s="14">
+        <f t="shared" si="4"/>
+        <v>60242.975308641966</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="4"/>
+        <v>943806.61316872411</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="4"/>
+        <v>14786303.60631001</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="4"/>
+        <v>231652089.83219016</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="4"/>
+        <v>3629216074.0376453</v>
+      </c>
+      <c r="H44" s="14">
+        <f t="shared" si="4"/>
+        <v>56857718493.256439</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="4"/>
+        <v>890770923061.01758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>68</v>
+      </c>
+      <c r="B45" s="12">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="E16" s="14">
+        <v>16.333333333333336</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" si="4"/>
+        <v>71170.382716049411</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="4"/>
+        <v>1162449.5843621406</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="4"/>
+        <v>18986676.544581629</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="4"/>
+        <v>310115716.89483339</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="4"/>
+        <v>5065223375.948945</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="4"/>
+        <v>82731981807.166107</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="4"/>
+        <v>1351289036183.7134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>72</v>
+      </c>
+      <c r="B46" s="12">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="F16" s="14">
+        <v>17</v>
+      </c>
+      <c r="C46" s="14">
+        <f t="shared" si="4"/>
+        <v>83521</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="4"/>
+        <v>1419857</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="4"/>
+        <v>24137569</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="4"/>
+        <v>410338673</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="4"/>
+        <v>6975757441</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" si="4"/>
+        <v>118587876497</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="4"/>
+        <v>2015993900449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>76</v>
+      </c>
+      <c r="B47" s="12">
         <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="G16" s="14">
+        <v>17.666666666666664</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="4"/>
+        <v>97413.345679012287</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="4"/>
+        <v>1720969.1069958834</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="4"/>
+        <v>30403787.556927271</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="4"/>
+        <v>537133580.17238176</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="4"/>
+        <v>9489359916.3787422</v>
+      </c>
+      <c r="H47" s="14">
+        <f t="shared" si="4"/>
+        <v>167645358522.6911</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="4"/>
+        <v>2961734667234.209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>80</v>
+      </c>
+      <c r="B48" s="12">
         <f t="shared" si="3"/>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="C48" s="14">
+        <f t="shared" si="4"/>
+        <v>112970.67901234573</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="4"/>
+        <v>2071129.1152263386</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="4"/>
+        <v>37970700.445816211</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="4"/>
+        <v>696129508.17329729</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="4"/>
+        <v>12762374316.510452</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="4"/>
+        <v>233976862469.35831</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="4"/>
+        <v>4289575811938.2363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>84</v>
+      </c>
+      <c r="B49" s="12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C49" s="14">
+        <f t="shared" si="4"/>
+        <v>130321</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" si="4"/>
+        <v>2476099</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="4"/>
+        <v>47045881</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="4"/>
+        <v>893871739</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="4"/>
+        <v>16983563041</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="4"/>
+        <v>322687697779</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="4"/>
+        <v>6131066257801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>88</v>
+      </c>
+      <c r="B50" s="12">
+        <f t="shared" si="3"/>
+        <v>19.666666666666664</v>
+      </c>
+      <c r="C50" s="14">
+        <f t="shared" si="4"/>
+        <v>149597.04938271595</v>
+      </c>
+      <c r="D50" s="14">
+        <f t="shared" si="4"/>
+        <v>2942075.3045267467</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="4"/>
+        <v>57860814.322359338</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="4"/>
+        <v>1137929348.3397336</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="4"/>
+        <v>22379277184.014755</v>
+      </c>
+      <c r="H50" s="14">
+        <f t="shared" si="4"/>
+        <v>440125784618.95679</v>
+      </c>
+      <c r="I50" s="14">
+        <f t="shared" si="4"/>
+        <v>8655807097506.1484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>92</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="3"/>
+        <v>20.333333333333336</v>
+      </c>
+      <c r="C51" s="14">
+        <f t="shared" si="4"/>
+        <v>170936.30864197537</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" si="4"/>
+        <v>3475704.942386833</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="4"/>
+        <v>70672667.161865607</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="4"/>
+        <v>1437010898.9579341</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="4"/>
+        <v>29219221612.144661</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" si="4"/>
+        <v>594124172780.2749</v>
+      </c>
+      <c r="I51" s="14">
+        <f t="shared" si="4"/>
+        <v>12080524846532.256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>96</v>
+      </c>
+      <c r="B52" s="12">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C52" s="14">
+        <f t="shared" si="4"/>
+        <v>194481</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="4"/>
+        <v>4084101</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="4"/>
+        <v>85766121</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="4"/>
+        <v>1801088541</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="4"/>
+        <v>37822859361</v>
+      </c>
+      <c r="H52" s="14">
+        <f t="shared" si="4"/>
+        <v>794280046581</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="4"/>
+        <v>16679880978201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>100</v>
       </c>
-      <c r="H16" s="14">
+      <c r="B53" s="12">
         <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>3</v>
-      </c>
-      <c r="B17" s="14">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="C17" s="14">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="3"/>
-        <v>343</v>
-      </c>
-      <c r="E17" s="14">
-        <f t="shared" si="3"/>
-        <v>512</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="3"/>
-        <v>729</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="3"/>
-        <v>1331</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="3"/>
-        <v>1728</v>
-      </c>
-      <c r="J17" s="14">
-        <f t="shared" si="3"/>
-        <v>2197</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="3"/>
-        <v>2744</v>
-      </c>
-      <c r="L17" s="14">
-        <f t="shared" si="3"/>
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>4</v>
-      </c>
-      <c r="B18" s="14">
-        <f t="shared" si="3"/>
-        <v>625</v>
-      </c>
-      <c r="C18" s="14">
-        <f t="shared" si="3"/>
-        <v>1296</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="3"/>
-        <v>2401</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" si="3"/>
-        <v>4096</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="3"/>
-        <v>6561</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="3"/>
-        <v>14641</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="3"/>
-        <v>20736</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="3"/>
-        <v>28561</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="3"/>
-        <v>38416</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="3"/>
-        <v>50625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>5</v>
-      </c>
-      <c r="B19" s="14">
-        <f t="shared" si="3"/>
-        <v>3125</v>
-      </c>
-      <c r="C19" s="14">
-        <f t="shared" si="3"/>
-        <v>7776</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="3"/>
-        <v>16807</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="3"/>
-        <v>32768</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="3"/>
-        <v>59049</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="3"/>
-        <v>161051</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="3"/>
-        <v>248832</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="3"/>
-        <v>371293</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="3"/>
-        <v>537824</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="3"/>
-        <v>759375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14">
-        <f t="shared" si="3"/>
-        <v>15625</v>
-      </c>
-      <c r="C20" s="14">
-        <f t="shared" si="3"/>
-        <v>46656</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="3"/>
-        <v>117649</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="3"/>
-        <v>262144</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="3"/>
-        <v>531441</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="3"/>
-        <v>1771561</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="3"/>
-        <v>2985984</v>
-      </c>
-      <c r="J20" s="16">
-        <f t="shared" si="3"/>
-        <v>4826809</v>
-      </c>
-      <c r="K20" s="16">
-        <f t="shared" si="3"/>
-        <v>7529536</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="3"/>
-        <v>11390625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14">
-        <f t="shared" si="3"/>
-        <v>78125</v>
-      </c>
-      <c r="C21" s="14">
-        <f t="shared" si="3"/>
-        <v>279936</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="3"/>
-        <v>823543</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="3"/>
-        <v>2097152</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="3"/>
-        <v>4782969</v>
-      </c>
-      <c r="G21" s="16">
-        <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="3"/>
-        <v>19487171</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" si="3"/>
-        <v>35831808</v>
-      </c>
-      <c r="J21" s="16">
-        <f t="shared" si="3"/>
-        <v>62748517</v>
-      </c>
-      <c r="K21" s="16">
-        <f t="shared" si="3"/>
-        <v>105413504</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="3"/>
-        <v>170859375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>8</v>
-      </c>
-      <c r="B22" s="14">
-        <f t="shared" si="3"/>
-        <v>390625</v>
-      </c>
-      <c r="C22" s="16">
-        <f t="shared" si="3"/>
-        <v>1679616</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="3"/>
-        <v>5764801</v>
-      </c>
-      <c r="E22" s="16">
-        <f t="shared" si="3"/>
-        <v>16777216</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="3"/>
-        <v>43046721</v>
-      </c>
-      <c r="G22" s="16">
-        <f t="shared" si="3"/>
-        <v>100000000</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="3"/>
-        <v>214358881</v>
-      </c>
-      <c r="I22" s="16">
-        <f t="shared" si="3"/>
-        <v>429981696</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="3"/>
-        <v>815730721</v>
-      </c>
-      <c r="K22" s="16">
-        <f t="shared" si="3"/>
-        <v>1475789056</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="3"/>
-        <v>2562890625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>9</v>
-      </c>
-      <c r="B23" s="16">
-        <f t="shared" si="3"/>
-        <v>1953125</v>
-      </c>
-      <c r="C23" s="16">
-        <f t="shared" si="3"/>
-        <v>10077696</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="3"/>
-        <v>40353607</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="3"/>
-        <v>134217728</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="3"/>
-        <v>387420489</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="3"/>
-        <v>1000000000</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="3"/>
-        <v>2357947691</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="3"/>
-        <v>5159780352</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="3"/>
-        <v>10604499373</v>
-      </c>
-      <c r="K23" s="16">
-        <f t="shared" si="3"/>
-        <v>20661046784</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="3"/>
-        <v>38443359375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>10</v>
-      </c>
-      <c r="B24" s="16">
-        <f t="shared" si="3"/>
-        <v>9765625</v>
-      </c>
-      <c r="C24" s="16">
-        <f t="shared" si="3"/>
-        <v>60466176</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="3"/>
-        <v>282475249</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="3"/>
-        <v>1073741824</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="3"/>
-        <v>3486784401</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="3"/>
-        <v>10000000000</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="3"/>
-        <v>25937424601</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="3"/>
-        <v>61917364224</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="3"/>
-        <v>137858491849</v>
-      </c>
-      <c r="K24" s="16">
-        <f t="shared" si="3"/>
-        <v>289254654976</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="3"/>
-        <v>576650390625</v>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="C53" s="14">
+        <f t="shared" si="4"/>
+        <v>220378.08641975315</v>
+      </c>
+      <c r="D53" s="14">
+        <f t="shared" si="4"/>
+        <v>4774858.539094652</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="4"/>
+        <v>103455268.3470508</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="4"/>
+        <v>2241530814.186101</v>
+      </c>
+      <c r="G53" s="14">
+        <f t="shared" si="4"/>
+        <v>48566500974.032188</v>
+      </c>
+      <c r="H53" s="14">
+        <f t="shared" si="4"/>
+        <v>1052274187770.6975</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" si="4"/>
+        <v>22799274068365.113</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:I26 C29:I53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="100000"/>
+        <cfvo type="num" val="200000"/>
+        <cfvo type="num" val="500000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3905,10 +7106,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EEAF94-0E16-4CA3-BC74-F1B2EB7F4AB9}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3916,7 +7117,7 @@
     <col min="1" max="15" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>0</v>
       </c>
@@ -3954,66 +7155,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>4</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="38">
         <v>3</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="38">
         <v>2</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="39">
         <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="35">
         <f>2*($F2)*(G$1)+ABS(G$7-$F8)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="35">
         <f t="shared" ref="H2:J2" si="0">2*($F2)*(H$1)+ABS(H$7-$F8)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="35">
         <f>ABS(B2-G2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="35">
         <f t="shared" ref="M2:O2" si="1">ABS(C2-H2)</f>
         <v>2</v>
       </c>
-      <c r="N2" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="37">
+      <c r="N2" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <v>3</v>
       </c>
       <c r="C3">
@@ -4022,57 +7235,76 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <f t="shared" ref="G3:J3" si="2">2*($F3)*(G$1)+ABS(G$7-$F9)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <f t="shared" ref="L3:L5" si="3">ABS(B3-G3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="35">
         <f t="shared" ref="M3:M5" si="4">ABS(C3-H3)</f>
         <v>5</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="35">
         <f t="shared" ref="N3:N5" si="5">ABS(D3-I3)</f>
         <v>1</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="35">
         <f t="shared" ref="O3:O5" si="6">ABS(E3-J3)</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="35">
         <f>SUM(L2:O5)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="37">
+        <f>0.5/(4-$S3)+0.5/(4-T$2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U3" s="37">
+        <f>0.5/(4-$S3)+0.5/(4-U$2)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="V3" s="37">
+        <f>0.5/(4-$S3)+0.5/(4-V$2)</f>
+        <v>0.375</v>
+      </c>
+      <c r="W3" s="37">
+        <f>0.5/(4-$S3)+0.5/(4-W$2)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <v>2</v>
       </c>
       <c r="C4">
@@ -4081,104 +7313,163 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="41">
         <v>8</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="35">
         <f t="shared" ref="G4:J4" si="7">2*($F4)*(G$1)+ABS(G$7-$F10)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="35">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="35">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="35">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="37">
+        <f>0.5/(4-$S4)+0.5/(4-T$2)</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="U4" s="37">
+        <f>0.5/(4-$S4)+0.5/(4-U$2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V4" s="37">
+        <f>0.5/(4-$S4)+0.5/(4-V$2)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="W4" s="37">
+        <f>0.5/(4-$S4)+0.5/(4-W$2)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>5</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <v>8</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <v>10</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="35">
         <f t="shared" ref="G5:J5" si="8">2*($F5)*(G$1)+ABS(G$7-$F11)</f>
         <v>3</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="35">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="35">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="35">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="35">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="37">
+        <f>0.5/(4-$S5)+0.5/(4-T$2)</f>
+        <v>0.375</v>
+      </c>
+      <c r="U5" s="37">
+        <f>0.5/(4-$S5)+0.5/(4-U$2)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="V5" s="37">
+        <f>0.5/(4-$S5)+0.5/(4-V$2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="37">
+        <f>0.5/(4-$S5)+0.5/(4-W$2)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6" s="37">
+        <f>0.5/(4-$S6)+0.5/(4-T$2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="U6" s="37">
+        <f>0.5/(4-$S6)+0.5/(4-U$2)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V6" s="37">
+        <f>0.5/(4-$S6)+0.5/(4-V$2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="W6" s="37">
+        <f>0.5/(4-$S6)+0.5/(4-W$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
@@ -4216,66 +7507,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>3</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <f>4-ABS(G$7-$F8)+G$7*$F8</f>
         <v>4</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="35">
         <f t="shared" ref="H8:J11" si="9">4-ABS(H$7-$F8)+H$7*$F8</f>
         <v>3</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="35">
         <f>ABS(B8-G8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="35">
         <f t="shared" ref="M8:M11" si="10">ABS(C8-H8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <f t="shared" ref="N8:N11" si="11">ABS(D8-I8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="35">
         <f t="shared" ref="O8:O11" si="12">ABS(E8-J8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <v>3</v>
       </c>
       <c r="C9">
@@ -4284,57 +7587,76 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <f t="shared" ref="G9:G11" si="13">4-ABS(G$7-$F9)+G$7*$F9</f>
         <v>3</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="35">
         <f t="shared" ref="L9:L11" si="14">ABS(B9-G9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="35">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="35">
         <f>SUM(L8:O11)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="37">
+        <f>1/(7-$S9-T$2)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="U9" s="37">
+        <f t="shared" ref="U9:W12" si="15">1/(7-$S9-U$2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V9" s="37">
+        <f t="shared" si="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="W9" s="37">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <v>2</v>
       </c>
       <c r="C10">
@@ -4343,104 +7665,163 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>8</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="35">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="35">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="35">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="35">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="37">
+        <f t="shared" ref="T10:T12" si="16">1/(7-$S10-T$2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="U10" s="37">
+        <f t="shared" si="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="V10" s="37">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="37">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="42">
         <v>1</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="43">
         <v>5</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <v>8</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>10</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="35">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="35">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="35">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="35">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="35">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11" s="37">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="U11" s="37">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="V11" s="37">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W11" s="37">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12" s="37">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="U12" s="37">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V12" s="37">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="37">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N14">
         <v>0</v>
       </c>
@@ -4466,58 +7847,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="37">
         <v>1</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="38">
         <v>2</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="38">
         <v>3</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="39">
         <v>5</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="37">
         <v>5</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="38">
         <v>3</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="38">
         <v>2</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="40">
         <v>2</v>
       </c>
       <c r="O16">
@@ -4526,10 +7907,10 @@
       <c r="P16">
         <v>6</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="41">
         <v>7</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="40">
         <v>7</v>
       </c>
       <c r="S16">
@@ -4538,18 +7919,18 @@
       <c r="T16">
         <v>4</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="40">
         <v>3</v>
       </c>
       <c r="O17">
@@ -4558,10 +7939,10 @@
       <c r="P17">
         <v>8</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="41">
         <v>9</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="40">
         <v>9</v>
       </c>
       <c r="S17">
@@ -4570,71 +7951,71 @@
       <c r="T17">
         <v>6</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="42">
         <v>5</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="43">
         <v>7</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="43">
         <v>9</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="44">
         <v>10</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="42">
         <v>10</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="43">
         <v>9</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="43">
         <v>7</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="37">
         <v>5</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="38">
         <v>7</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="38">
         <v>9</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="39">
         <v>10</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="37">
         <v>10</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="38">
         <v>9</v>
       </c>
-      <c r="T19" s="40">
+      <c r="T19" s="38">
         <v>7</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="39">
         <v>5</v>
       </c>
     </row>
@@ -4642,7 +8023,7 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="40">
         <v>3</v>
       </c>
       <c r="O20">
@@ -4651,10 +8032,10 @@
       <c r="P20">
         <v>8</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="41">
         <v>9</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="40">
         <v>9</v>
       </c>
       <c r="S20">
@@ -4663,7 +8044,7 @@
       <c r="T20">
         <v>6</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="41">
         <v>3</v>
       </c>
     </row>
@@ -4671,7 +8052,7 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="40">
         <v>2</v>
       </c>
       <c r="O21">
@@ -4680,10 +8061,10 @@
       <c r="P21">
         <v>6</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="41">
         <v>7</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="40">
         <v>7</v>
       </c>
       <c r="S21">
@@ -4692,7 +8073,7 @@
       <c r="T21">
         <v>4</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="41">
         <v>2</v>
       </c>
     </row>
@@ -4700,28 +8081,28 @@
       <c r="M22">
         <v>7</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="42">
         <v>1</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="43">
         <v>2</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="43">
         <v>3</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="44">
         <v>5</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="42">
         <v>5</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="43">
         <v>3</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="43">
         <v>2</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4729,4 +8110,468 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC3B890-D025-4C7A-9280-64B46AC8BAEA}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>225</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="0">B4/B3</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="64">
+        <f>28030/38</f>
+        <v>737.63157894736844</v>
+      </c>
+      <c r="G4" s="61" t="e">
+        <f>F4/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="64">
+        <f>14620/38</f>
+        <v>384.73684210526318</v>
+      </c>
+      <c r="G5" s="61">
+        <f t="shared" ref="G5:G8" si="1">F5/F4</f>
+        <v>0.52158401712450952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="64">
+        <f>26500/38</f>
+        <v>697.36842105263156</v>
+      </c>
+      <c r="G6" s="61">
+        <f t="shared" si="1"/>
+        <v>1.8125854993160053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="64">
+        <f>112660/38</f>
+        <v>2964.7368421052633</v>
+      </c>
+      <c r="G7" s="61">
+        <f t="shared" si="1"/>
+        <v>4.2513207547169811</v>
+      </c>
+      <c r="H7">
+        <f>60000/F7</f>
+        <v>20.237883898455529</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>61000</v>
+      </c>
+      <c r="C8">
+        <f>B8/B7</f>
+        <v>12.2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64">
+        <f>749520/38</f>
+        <v>19724.21052631579</v>
+      </c>
+      <c r="G8" s="61">
+        <f t="shared" si="1"/>
+        <v>6.6529380436712229</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>B8*C9</f>
+        <v>1464000</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="65">
+        <f>F8*G9</f>
+        <v>168007.00690191079</v>
+      </c>
+      <c r="G9" s="62">
+        <v>8.5178064124674595</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B12" si="2">B9*C10</f>
+        <v>70272000</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="65">
+        <f t="shared" ref="F10:F12" si="3">F9*G10</f>
+        <v>1781056.7532940013</v>
+      </c>
+      <c r="G10" s="62">
+        <v>10.6010861459716</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>6746112000</v>
+      </c>
+      <c r="C11">
+        <f>C10*2</f>
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="3"/>
+        <v>22591575.510892201</v>
+      </c>
+      <c r="G11" s="62">
+        <v>12.684365879475701</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1295253504000</v>
+      </c>
+      <c r="C12">
+        <f>C11*2</f>
+        <v>192</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="65">
+        <f t="shared" si="3"/>
+        <v>333624380.98372912</v>
+      </c>
+      <c r="G12" s="62">
+        <v>14.7676456129798</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="1"/>
+      <c r="K16" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3746B978-0F79-44BF-8109-FDF69EC34915}">
+  <dimension ref="B2:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDesktop\Chess-Challange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C275484-134B-46CE-BD35-73C79B4AA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC7239-E8DC-4D35-A6B8-D4E964919813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="554" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="554" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparation" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="280">
   <si>
     <t>Random</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>V8.0</t>
+  </si>
+  <si>
+    <t>diagonal e implementata deja, mai trebuie doar la celelalte</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4976,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD34EC-FC63-4B23-9C13-E548752F8F18}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5128,41 +5131,29 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0</v>
-      </c>
-      <c r="G18" s="38">
-        <v>9</v>
-      </c>
-      <c r="H18" s="38">
-        <v>17</v>
-      </c>
-      <c r="I18" s="39">
-        <v>30</v>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5170,19 +5161,19 @@
         <v>153</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="40">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38">
         <v>9</v>
       </c>
-      <c r="G19">
-        <v>24</v>
-      </c>
-      <c r="H19">
-        <v>35</v>
-      </c>
-      <c r="I19" s="41">
-        <v>39</v>
+      <c r="H19" s="38">
+        <v>17</v>
+      </c>
+      <c r="I19" s="39">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5190,44 +5181,59 @@
         <v>188</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="40">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
         <v>35</v>
       </c>
-      <c r="H20">
-        <v>42</v>
-      </c>
       <c r="I20" s="41">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>189</v>
       </c>
       <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21" s="42">
-        <v>30</v>
-      </c>
-      <c r="G21" s="43">
-        <v>39</v>
-      </c>
-      <c r="H21" s="43">
+        <v>2</v>
+      </c>
+      <c r="F21" s="40">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <v>42</v>
+      </c>
+      <c r="I21" s="41">
         <v>44</v>
       </c>
-      <c r="I21" s="44">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>272</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="42">
+        <v>30</v>
+      </c>
+      <c r="G22" s="43">
+        <v>39</v>
+      </c>
+      <c r="H22" s="43">
+        <v>44</v>
+      </c>
+      <c r="I22" s="44">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -7284,19 +7290,19 @@
         <v>0</v>
       </c>
       <c r="T3" s="37">
-        <f>0.5/(4-$S3)+0.5/(4-T$2)</f>
+        <f t="shared" ref="T3:W6" si="7">0.5/(4-$S3)+0.5/(4-T$2)</f>
         <v>0.25</v>
       </c>
       <c r="U3" s="37">
-        <f>0.5/(4-$S3)+0.5/(4-U$2)</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="V3" s="37">
-        <f>0.5/(4-$S3)+0.5/(4-V$2)</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="W3" s="37">
-        <f>0.5/(4-$S3)+0.5/(4-W$2)</f>
+        <f t="shared" si="7"/>
         <v>0.625</v>
       </c>
     </row>
@@ -7320,19 +7326,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="35">
-        <f t="shared" ref="G4:J4" si="7">2*($F4)*(G$1)+ABS(G$7-$F10)</f>
+        <f t="shared" ref="G4:J4" si="8">2*($F4)*(G$1)+ABS(G$7-$F10)</f>
         <v>2</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I4" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="K4">
@@ -7358,19 +7364,19 @@
         <v>1</v>
       </c>
       <c r="T4" s="37">
-        <f>0.5/(4-$S4)+0.5/(4-T$2)</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="U4" s="37">
-        <f>0.5/(4-$S4)+0.5/(4-U$2)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="V4" s="37">
-        <f>0.5/(4-$S4)+0.5/(4-V$2)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="W4" s="37">
-        <f>0.5/(4-$S4)+0.5/(4-W$2)</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -7394,19 +7400,19 @@
         <v>3</v>
       </c>
       <c r="G5" s="35">
-        <f t="shared" ref="G5:J5" si="8">2*($F5)*(G$1)+ABS(G$7-$F11)</f>
+        <f t="shared" ref="G5:J5" si="9">2*($F5)*(G$1)+ABS(G$7-$F11)</f>
         <v>3</v>
       </c>
       <c r="H5" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I5" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="J5" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="K5">
@@ -7432,19 +7438,19 @@
         <v>2</v>
       </c>
       <c r="T5" s="37">
-        <f>0.5/(4-$S5)+0.5/(4-T$2)</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="U5" s="37">
-        <f>0.5/(4-$S5)+0.5/(4-U$2)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="V5" s="37">
-        <f>0.5/(4-$S5)+0.5/(4-V$2)</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="W5" s="37">
-        <f>0.5/(4-$S5)+0.5/(4-W$2)</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7453,19 +7459,19 @@
         <v>3</v>
       </c>
       <c r="T6" s="37">
-        <f>0.5/(4-$S6)+0.5/(4-T$2)</f>
+        <f t="shared" si="7"/>
         <v>0.625</v>
       </c>
       <c r="U6" s="37">
-        <f>0.5/(4-$S6)+0.5/(4-U$2)</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="V6" s="37">
-        <f>0.5/(4-$S6)+0.5/(4-V$2)</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="W6" s="37">
-        <f>0.5/(4-$S6)+0.5/(4-W$2)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7531,15 +7537,15 @@
         <v>4</v>
       </c>
       <c r="H8" s="35">
-        <f t="shared" ref="H8:J11" si="9">4-ABS(H$7-$F8)+H$7*$F8</f>
+        <f t="shared" ref="H8:J11" si="10">4-ABS(H$7-$F8)+H$7*$F8</f>
         <v>3</v>
       </c>
       <c r="I8" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J8" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K8">
@@ -7550,15 +7556,15 @@
         <v>0</v>
       </c>
       <c r="M8" s="35">
-        <f t="shared" ref="M8:M11" si="10">ABS(C8-H8)</f>
+        <f t="shared" ref="M8:M11" si="11">ABS(C8-H8)</f>
         <v>0</v>
       </c>
       <c r="N8" s="35">
-        <f t="shared" ref="N8:N11" si="11">ABS(D8-I8)</f>
+        <f t="shared" ref="N8:N11" si="12">ABS(D8-I8)</f>
         <v>0</v>
       </c>
       <c r="O8" s="35">
-        <f t="shared" ref="O8:O11" si="12">ABS(E8-J8)</f>
+        <f t="shared" ref="O8:O11" si="13">ABS(E8-J8)</f>
         <v>0</v>
       </c>
       <c r="T8">
@@ -7594,38 +7600,38 @@
         <v>1</v>
       </c>
       <c r="G9" s="35">
-        <f t="shared" ref="G9:G11" si="13">4-ABS(G$7-$F9)+G$7*$F9</f>
+        <f t="shared" ref="G9:G11" si="14">4-ABS(G$7-$F9)+G$7*$F9</f>
         <v>3</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I9" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="35">
-        <f t="shared" ref="L9:L11" si="14">ABS(B9-G9)</f>
+        <f t="shared" ref="L9:L11" si="15">ABS(B9-G9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="N9" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O9" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q9" s="35">
@@ -7640,15 +7646,15 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="U9" s="37">
-        <f t="shared" ref="U9:W12" si="15">1/(7-$S9-U$2)</f>
+        <f t="shared" ref="U9:W12" si="16">1/(7-$S9-U$2)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V9" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
       <c r="W9" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
     </row>
@@ -7672,57 +7678,57 @@
         <v>2</v>
       </c>
       <c r="G10" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H10" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I10" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J10" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M10" s="35">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="35">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O10" s="35">
+      <c r="N10" s="35">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
+      <c r="O10" s="35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10" s="37">
-        <f t="shared" ref="T10:T12" si="16">1/(7-$S10-T$2)</f>
+        <f t="shared" ref="T10:T12" si="17">1/(7-$S10-T$2)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="U10" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
       <c r="V10" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
       <c r="W10" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -7746,57 +7752,57 @@
         <v>3</v>
       </c>
       <c r="G11" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H11" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I11" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="J11" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M11" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N11" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O11" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11" s="37">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="U11" s="37">
         <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="U11" s="37">
-        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="V11" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="W11" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -7805,19 +7811,19 @@
         <v>3</v>
       </c>
       <c r="T12" s="37">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="U12" s="37">
         <f t="shared" si="16"/>
-        <v>0.25</v>
-      </c>
-      <c r="U12" s="37">
-        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="V12" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="W12" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
